--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
     <sheet name="transitLineToVehicle" sheetId="1" r:id="rId2"/>
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1061,9 +1061,6 @@
     <t>120_ORANGE</t>
   </si>
   <si>
-    <t>120_BART_RED</t>
-  </si>
-  <si>
     <t>120_YELLOW</t>
   </si>
   <si>
@@ -2591,9 +2588,6 @@
     <t>120_ORANGE-</t>
   </si>
   <si>
-    <t>120_BART_RED-</t>
-  </si>
-  <si>
     <t>21_24-</t>
   </si>
   <si>
@@ -3210,6 +3204,12 @@
   </si>
   <si>
     <t>100%Capacity</t>
+  </si>
+  <si>
+    <t>120_RED</t>
+  </si>
+  <si>
+    <t>120_RED-</t>
   </si>
 </sst>
 </file>
@@ -4102,21 +4102,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>205</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>205</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>261</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>261</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>261</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>261</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>261</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>261</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>261</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>261</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>287</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>205</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>205</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>205</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>205</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>205</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>205</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>205</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>205</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>205</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>205</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>205</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>205</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>205</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>205</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>205</v>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>205</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>205</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>205</v>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>205</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>205</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>205</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>205</v>
@@ -4487,10 +4487,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>205</v>
@@ -4498,10 +4498,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>205</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>205</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>205</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>205</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>205</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>205</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>205</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>205</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>205</v>
@@ -4597,10 +4597,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>205</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>205</v>
@@ -4619,76 +4619,76 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>333</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>333</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>333</v>
@@ -4729,90 +4729,90 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -4825,9 +4825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D449" sqref="D449"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -5093,18 +5093,18 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>346</v>
+        <v>1061</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BART_RED</v>
+        <v>RED</v>
       </c>
       <c r="D15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>BART_RED</v>
+        <v>RED</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
@@ -5121,18 +5121,18 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>856</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BART_RED-</v>
+        <v>RED-</v>
       </c>
       <c r="D16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>BART_RED-</v>
+        <v>RED-</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>32</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>32</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>32</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>32</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>32</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>32</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>32</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>32</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>32</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>32</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>32</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>32</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>32</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>32</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>32</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>32</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>32</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>32</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>32</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>32</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>32</v>
@@ -6195,13 +6195,13 @@
     </row>
     <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" s="13">
         <v>294</v>
@@ -6221,13 +6221,13 @@
     </row>
     <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D57" s="13">
         <v>294</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>32</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>32</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>32</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>32</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>32</v>
@@ -6367,7 +6367,7 @@
         <v>297</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>36</v>
@@ -6381,19 +6381,19 @@
     </row>
     <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D63" s="13">
         <v>297</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>36</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>32</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>32</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>32</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>32</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>32</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>32</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>32</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>87</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="72" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>87</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>87</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>87</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>87</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="76" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>87</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>87</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>87</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>87</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="80" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>87</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>87</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="82" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>87</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>87</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>87</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>87</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>87</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>87</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="88" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>87</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>87</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="90" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>87</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>87</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="92" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>87</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>87</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>87</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>87</v>
@@ -7239,13 +7239,13 @@
     </row>
     <row r="96" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>141</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>87</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="98" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>87</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>87</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="100" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>87</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>87</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="102" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>87</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="103" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>87</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>87</v>
@@ -7473,19 +7473,19 @@
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D105" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>91</v>
@@ -7499,19 +7499,19 @@
     </row>
     <row r="106" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="E106" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>91</v>
@@ -7525,13 +7525,13 @@
     </row>
     <row r="107" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>58</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="108" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>87</v>
@@ -7577,13 +7577,13 @@
     </row>
     <row r="109" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>157</v>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="110" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>87</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="111" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>87</v>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="112" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>87</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>87</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>87</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>87</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>87</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>87</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="118" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>87</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>87</v>
@@ -7863,7 +7863,7 @@
     </row>
     <row r="120" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>87</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>87</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>87</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>87</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="124" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>87</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="125" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>87</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="126" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>87</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="127" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>87</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="128" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>87</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="129" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>87</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="130" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>87</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="131" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>203</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>203</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>203</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>203</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>203</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>203</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>203</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="138" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>203</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="139" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>203</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>203</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>203</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>203</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>203</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="144" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>203</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="145" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>203</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>203</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>203</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>203</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>203</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="150" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>203</v>
@@ -8675,7 +8675,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>215</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="151" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>203</v>
@@ -8702,7 +8702,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>215</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="152" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>203</v>
@@ -8729,7 +8729,7 @@
         <v>14</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>215</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="153" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>203</v>
@@ -8756,7 +8756,7 @@
         <v>14</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>215</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="154" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>203</v>
@@ -8783,7 +8783,7 @@
         <v>14</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>215</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="155" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>203</v>
@@ -8810,7 +8810,7 @@
         <v>14</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>215</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="156" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>203</v>
@@ -8837,7 +8837,7 @@
         <v>14</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>215</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="157" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>203</v>
@@ -8864,7 +8864,7 @@
         <v>14</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>215</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>203</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>203</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>203</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>203</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="162" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>203</v>
@@ -8996,10 +8996,10 @@
         <v>14RIN</v>
       </c>
       <c r="D162" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>217</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="163" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>203</v>
@@ -9023,10 +9023,10 @@
         <v>14ROUT</v>
       </c>
       <c r="D163" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>217</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="164" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>203</v>
@@ -9050,10 +9050,10 @@
         <v>14ROUTA</v>
       </c>
       <c r="D164" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>217</v>
@@ -9067,7 +9067,7 @@
     </row>
     <row r="165" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>203</v>
@@ -9077,10 +9077,10 @@
         <v>14XIN</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>217</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="166" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>203</v>
@@ -9104,10 +9104,10 @@
         <v>14XOUT</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>217</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>203</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>203</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>203</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>203</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>203</v>
@@ -9256,7 +9256,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>203</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>203</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>203</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>203</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>203</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="177" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>203</v>
@@ -9404,7 +9404,7 @@
         <v>18</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>207</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>203</v>
@@ -9431,7 +9431,7 @@
         <v>18</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>207</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>203</v>
@@ -9458,7 +9458,7 @@
         <v>18</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>207</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>203</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>203</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="182" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>203</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="183" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>203</v>
@@ -9580,7 +9580,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>203</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>203</v>
@@ -9634,7 +9634,7 @@
     </row>
     <row r="186" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>203</v>
@@ -9644,10 +9644,10 @@
         <v>1AXIN</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>207</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="187" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>203</v>
@@ -9671,10 +9671,10 @@
         <v>1AXOUT</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>207</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="188" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>203</v>
@@ -9698,10 +9698,10 @@
         <v>1BXIN</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>217</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="189" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>203</v>
@@ -9725,10 +9725,10 @@
         <v>1BXOUT</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>217</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>203</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>203</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>203</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>203</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>203</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>203</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="196" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>203</v>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="197" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>203</v>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="198" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>203</v>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="199" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>203</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="200" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>203</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="201" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>203</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>203</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>203</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>203</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>203</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>203</v>
@@ -10201,7 +10201,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>203</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>203</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>203</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="210" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>203</v>
@@ -10295,7 +10295,7 @@
         <v>21</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>235</v>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="211" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>203</v>
@@ -10322,7 +10322,7 @@
         <v>21</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>235</v>
@@ -10336,7 +10336,7 @@
     </row>
     <row r="212" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>203</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="213" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>203</v>
@@ -10390,7 +10390,7 @@
     </row>
     <row r="214" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>203</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>203</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>203</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="217" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>203</v>
@@ -10484,7 +10484,7 @@
         <v>246</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>207</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="218" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>203</v>
@@ -10511,7 +10511,7 @@
         <v>246</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>207</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>203</v>
@@ -10538,7 +10538,7 @@
         <v>246</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>207</v>
@@ -10552,7 +10552,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>203</v>
@@ -10565,7 +10565,7 @@
         <v>247</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>207</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>203</v>
@@ -10592,7 +10592,7 @@
         <v>248</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>235</v>
@@ -10606,7 +10606,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>203</v>
@@ -10619,7 +10619,7 @@
         <v>249</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>235</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="223" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>203</v>
@@ -10646,7 +10646,7 @@
         <v>24</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>235</v>
@@ -10660,7 +10660,7 @@
     </row>
     <row r="224" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>203</v>
@@ -10673,7 +10673,7 @@
         <v>24</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>235</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>203</v>
@@ -10700,7 +10700,7 @@
         <v>250</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>235</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>203</v>
@@ -10727,7 +10727,7 @@
         <v>251</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>235</v>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="227" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>203</v>
@@ -10754,7 +10754,7 @@
         <v>25</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>205</v>
@@ -10768,7 +10768,7 @@
     </row>
     <row r="228" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>203</v>
@@ -10781,7 +10781,7 @@
         <v>25</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>205</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>203</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>203</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>203</v>
@@ -10876,7 +10876,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>203</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="233" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>203</v>
@@ -10916,7 +10916,7 @@
         <v>27</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>207</v>
@@ -10930,7 +10930,7 @@
     </row>
     <row r="234" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>203</v>
@@ -10943,7 +10943,7 @@
         <v>27</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>207</v>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="235" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>203</v>
@@ -10970,7 +10970,7 @@
         <v>27</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>207</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="236" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>203</v>
@@ -10997,7 +10997,7 @@
         <v>253</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>207</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="237" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>203</v>
@@ -11024,7 +11024,7 @@
         <v>254</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>207</v>
@@ -11038,7 +11038,7 @@
     </row>
     <row r="238" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>203</v>
@@ -11048,10 +11048,10 @@
         <v>28RNB</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>205</v>
@@ -11065,7 +11065,7 @@
     </row>
     <row r="239" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>203</v>
@@ -11075,10 +11075,10 @@
         <v>28RSB</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>205</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="240" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>203</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>203</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>203</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="243" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>203</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="244" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>203</v>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="245" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>203</v>
@@ -11254,7 +11254,7 @@
     </row>
     <row r="246" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>203</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="247" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>203</v>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="248" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>203</v>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="249" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>203</v>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="250" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>203</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="251" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>203</v>
@@ -11416,7 +11416,7 @@
     </row>
     <row r="252" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>203</v>
@@ -11443,7 +11443,7 @@
     </row>
     <row r="253" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>203</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="254" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>203</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="255" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>203</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="256" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>203</v>
@@ -11534,10 +11534,10 @@
         <v>30XIN</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>207</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="257" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>203</v>
@@ -11561,10 +11561,10 @@
         <v>30XOUT</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>207</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="258" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>203</v>
@@ -11588,10 +11588,10 @@
         <v>31AXIN</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>207</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="259" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>203</v>
@@ -11615,10 +11615,10 @@
         <v>31AXOUT</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>207</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="260" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>203</v>
@@ -11642,10 +11642,10 @@
         <v>31BXIN</v>
       </c>
       <c r="D260" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="E260" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>207</v>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="261" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>203</v>
@@ -11669,10 +11669,10 @@
         <v>31BXOUT</v>
       </c>
       <c r="D261" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="E261" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>207</v>
@@ -11686,7 +11686,7 @@
     </row>
     <row r="262" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>203</v>
@@ -11699,7 +11699,7 @@
         <v>31</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>235</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="263" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>203</v>
@@ -11726,7 +11726,7 @@
         <v>31</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>235</v>
@@ -11740,7 +11740,7 @@
     </row>
     <row r="264" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>203</v>
@@ -11753,7 +11753,7 @@
         <v>31</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>235</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="265" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>203</v>
@@ -11780,7 +11780,7 @@
         <v>31</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>235</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>203</v>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>203</v>
@@ -11848,7 +11848,7 @@
     </row>
     <row r="268" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>203</v>
@@ -11861,7 +11861,7 @@
         <v>33</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>235</v>
@@ -11875,7 +11875,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>203</v>
@@ -11888,7 +11888,7 @@
         <v>33</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>235</v>
@@ -11902,7 +11902,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>203</v>
@@ -11915,7 +11915,7 @@
         <v>33</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>235</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="271" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>203</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>203</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>203</v>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="274" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>203</v>
@@ -12023,7 +12023,7 @@
         <v>36</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>230</v>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>203</v>
@@ -12050,7 +12050,7 @@
         <v>262</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>230</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>203</v>
@@ -12077,7 +12077,7 @@
         <v>263</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>230</v>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="277" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>203</v>
@@ -12104,7 +12104,7 @@
         <v>37</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>230</v>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>203</v>
@@ -12131,7 +12131,7 @@
         <v>37</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>230</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>203</v>
@@ -12158,7 +12158,7 @@
         <v>37</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>230</v>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="280" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>203</v>
@@ -12182,10 +12182,10 @@
         <v>38AXIN</v>
       </c>
       <c r="D280" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>207</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="281" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>203</v>
@@ -12209,10 +12209,10 @@
         <v>38AXOUT</v>
       </c>
       <c r="D281" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>207</v>
@@ -12226,7 +12226,7 @@
     </row>
     <row r="282" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>203</v>
@@ -12236,10 +12236,10 @@
         <v>38BXIN</v>
       </c>
       <c r="D282" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="E282" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>207</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="283" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>203</v>
@@ -12263,10 +12263,10 @@
         <v>38BXOUT</v>
       </c>
       <c r="D283" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="E283" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>207</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>203</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>203</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="286" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>203</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="287" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>203</v>
@@ -12388,7 +12388,7 @@
     </row>
     <row r="288" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>203</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="289" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>203</v>
@@ -12442,7 +12442,7 @@
     </row>
     <row r="290" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>203</v>
@@ -12455,7 +12455,7 @@
         <v>38</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>265</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="291" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>203</v>
@@ -12482,7 +12482,7 @@
         <v>38</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>265</v>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>203</v>
@@ -12523,7 +12523,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>203</v>
@@ -12550,7 +12550,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>203</v>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>203</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>203</v>
@@ -12631,7 +12631,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>203</v>
@@ -12658,7 +12658,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>203</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>203</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>203</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>203</v>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="302" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>203</v>
@@ -12779,7 +12779,7 @@
         <v>39</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>230</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="303" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>203</v>
@@ -12806,7 +12806,7 @@
         <v>39</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>230</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="304" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>203</v>
@@ -12833,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>235</v>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="305" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>203</v>
@@ -12860,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>235</v>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="306" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>203</v>
@@ -12887,7 +12887,7 @@
         <v>41</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>235</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="307" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>203</v>
@@ -12914,7 +12914,7 @@
         <v>41</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>235</v>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>203</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>203</v>
@@ -12982,7 +12982,7 @@
     </row>
     <row r="310" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>203</v>
@@ -12995,7 +12995,7 @@
         <v>43</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>207</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>203</v>
@@ -13022,7 +13022,7 @@
         <v>43</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>207</v>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>203</v>
@@ -13049,7 +13049,7 @@
         <v>43</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>207</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="313" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>203</v>
@@ -13076,7 +13076,7 @@
         <v>44</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>207</v>
@@ -13090,7 +13090,7 @@
     </row>
     <row r="314" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>203</v>
@@ -13103,7 +13103,7 @@
         <v>44</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>207</v>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>203</v>
@@ -13130,7 +13130,7 @@
         <v>44</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>207</v>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>203</v>
@@ -13157,7 +13157,7 @@
         <v>44</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>207</v>
@@ -13171,7 +13171,7 @@
     </row>
     <row r="317" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>203</v>
@@ -13184,7 +13184,7 @@
         <v>45</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>235</v>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="318" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>203</v>
@@ -13211,7 +13211,7 @@
         <v>45</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>235</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="319" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>203</v>
@@ -13238,7 +13238,7 @@
         <v>47</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>207</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="320" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>203</v>
@@ -13265,7 +13265,7 @@
         <v>47</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>207</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="321" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>203</v>
@@ -13306,7 +13306,7 @@
     </row>
     <row r="322" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>203</v>
@@ -13333,7 +13333,7 @@
     </row>
     <row r="323" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>203</v>
@@ -13360,7 +13360,7 @@
     </row>
     <row r="324" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>203</v>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="325" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>203</v>
@@ -13414,7 +13414,7 @@
     </row>
     <row r="326" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>203</v>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="327" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>203</v>
@@ -13454,7 +13454,7 @@
         <v>49</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>215</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="328" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>203</v>
@@ -13481,7 +13481,7 @@
         <v>49</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>215</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>203</v>
@@ -13522,7 +13522,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>203</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>203</v>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>203</v>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="333" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>203</v>
@@ -13616,7 +13616,7 @@
         <v>52</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>230</v>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>203</v>
@@ -13643,7 +13643,7 @@
         <v>280</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>230</v>
@@ -13657,7 +13657,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>203</v>
@@ -13670,7 +13670,7 @@
         <v>281</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>230</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>203</v>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>203</v>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="338" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>203</v>
@@ -13751,7 +13751,7 @@
         <v>54</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>207</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="339" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>203</v>
@@ -13778,7 +13778,7 @@
         <v>54</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>207</v>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="340" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>203</v>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>203</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>203</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>203</v>
@@ -13900,7 +13900,7 @@
     </row>
     <row r="344" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>203</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="345" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>203</v>
@@ -13940,7 +13940,7 @@
         <v>57</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>205</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="346" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>203</v>
@@ -13967,7 +13967,7 @@
         <v>57</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>205</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>203</v>
@@ -14008,7 +14008,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>203</v>
@@ -14035,7 +14035,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>203</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>203</v>
@@ -14089,7 +14089,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>203</v>
@@ -14116,7 +14116,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>203</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>203</v>
@@ -14170,7 +14170,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>203</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="355" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>203</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="356" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>203</v>
@@ -14251,7 +14251,7 @@
     </row>
     <row r="357" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>203</v>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="358" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>203</v>
@@ -14305,7 +14305,7 @@
     </row>
     <row r="359" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>203</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="360" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>203</v>
@@ -14359,7 +14359,7 @@
     </row>
     <row r="361" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>203</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="362" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>203</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>203</v>
@@ -14423,10 +14423,10 @@
         <v>5LI</v>
       </c>
       <c r="D363" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>235</v>
@@ -14440,7 +14440,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>203</v>
@@ -14450,10 +14450,10 @@
         <v>5LO</v>
       </c>
       <c r="D364" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>235</v>
@@ -14467,7 +14467,7 @@
     </row>
     <row r="365" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>203</v>
@@ -14477,10 +14477,10 @@
         <v>5RIN</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F365" s="3" t="s">
         <v>207</v>
@@ -14494,7 +14494,7 @@
     </row>
     <row r="366" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>203</v>
@@ -14504,10 +14504,10 @@
         <v>5ROUT</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>207</v>
@@ -14521,7 +14521,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>203</v>
@@ -14548,7 +14548,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>203</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>203</v>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>203</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>203</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>203</v>
@@ -14683,7 +14683,7 @@
     </row>
     <row r="373" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>203</v>
@@ -14710,7 +14710,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>203</v>
@@ -14737,7 +14737,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>203</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="376" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>203</v>
@@ -14777,7 +14777,7 @@
         <v>67</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>230</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>203</v>
@@ -14804,7 +14804,7 @@
         <v>67</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>230</v>
@@ -14818,7 +14818,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>203</v>
@@ -14831,7 +14831,7 @@
         <v>67</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>230</v>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="379" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>203</v>
@@ -14858,7 +14858,7 @@
         <v>6</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>235</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="380" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>203</v>
@@ -14885,7 +14885,7 @@
         <v>6</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>235</v>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="381" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>203</v>
@@ -14912,7 +14912,7 @@
         <v>6</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>235</v>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>203</v>
@@ -14953,7 +14953,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>203</v>
@@ -14980,7 +14980,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>203</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>203</v>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>203</v>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>203</v>
@@ -15088,7 +15088,7 @@
     </row>
     <row r="388" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>203</v>
@@ -15101,7 +15101,7 @@
         <v>7</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>234</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="389" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>203</v>
@@ -15128,7 +15128,7 @@
         <v>7</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>234</v>
@@ -15142,7 +15142,7 @@
     </row>
     <row r="390" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>203</v>
@@ -15152,10 +15152,10 @@
         <v>7RIN</v>
       </c>
       <c r="D390" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="E390" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="E390" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>234</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="391" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>203</v>
@@ -15179,10 +15179,10 @@
         <v>7ROUT</v>
       </c>
       <c r="D391" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="E391" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="E391" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>234</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="392" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>203</v>
@@ -15206,10 +15206,10 @@
         <v>7XIN</v>
       </c>
       <c r="D392" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>234</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="393" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>203</v>
@@ -15233,10 +15233,10 @@
         <v>7XOUT</v>
       </c>
       <c r="D393" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="E393" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>234</v>
@@ -15250,7 +15250,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>203</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>203</v>
@@ -15304,7 +15304,7 @@
     </row>
     <row r="396" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>203</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="397" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>203</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="398" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>203</v>
@@ -15368,10 +15368,10 @@
         <v>82XI</v>
       </c>
       <c r="D398" s="16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>207</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="399" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>203</v>
@@ -15395,10 +15395,10 @@
         <v>82XO</v>
       </c>
       <c r="D399" s="16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>207</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>203</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>203</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="402" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>203</v>
@@ -15476,10 +15476,10 @@
         <v>83XI</v>
       </c>
       <c r="D402" s="16" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>207</v>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="403" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>203</v>
@@ -15503,10 +15503,10 @@
         <v>83XO</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>207</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="404" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>203</v>
@@ -15533,7 +15533,7 @@
         <v>88</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>207</v>
@@ -15547,7 +15547,7 @@
     </row>
     <row r="405" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>203</v>
@@ -15560,7 +15560,7 @@
         <v>88</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>207</v>
@@ -15574,7 +15574,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>203</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>203</v>
@@ -15628,7 +15628,7 @@
     </row>
     <row r="408" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>203</v>
@@ -15641,7 +15641,7 @@
         <v>8</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>217</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="409" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>203</v>
@@ -15668,7 +15668,7 @@
         <v>8</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>217</v>
@@ -15682,7 +15682,7 @@
     </row>
     <row r="410" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>203</v>
@@ -15692,10 +15692,10 @@
         <v>8AXIN</v>
       </c>
       <c r="D410" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>217</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="411" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>203</v>
@@ -15719,10 +15719,10 @@
         <v>8AXOUT</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>217</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="412" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>203</v>
@@ -15746,10 +15746,10 @@
         <v>8BXIN</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>217</v>
@@ -15763,7 +15763,7 @@
     </row>
     <row r="413" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>203</v>
@@ -15773,10 +15773,10 @@
         <v>8BXOUT</v>
       </c>
       <c r="D413" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>217</v>
@@ -15790,7 +15790,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>203</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>203</v>
@@ -15844,7 +15844,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>203</v>
@@ -15871,7 +15871,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>203</v>
@@ -15898,7 +15898,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>203</v>
@@ -15925,7 +15925,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>203</v>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>203</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>203</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="422" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>203</v>
@@ -16019,7 +16019,7 @@
         <v>91</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>207</v>
@@ -16033,7 +16033,7 @@
     </row>
     <row r="423" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>203</v>
@@ -16046,7 +16046,7 @@
         <v>91</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F423" s="3" t="s">
         <v>207</v>
@@ -16060,7 +16060,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>203</v>
@@ -16087,7 +16087,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>203</v>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>203</v>
@@ -16141,7 +16141,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>203</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>203</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>203</v>
@@ -16222,7 +16222,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>203</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>203</v>
@@ -16276,7 +16276,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>203</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>203</v>
@@ -16330,7 +16330,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>203</v>
@@ -16357,7 +16357,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>203</v>
@@ -16384,7 +16384,7 @@
     </row>
     <row r="436" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>203</v>
@@ -16411,7 +16411,7 @@
     </row>
     <row r="437" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>203</v>
@@ -16438,7 +16438,7 @@
     </row>
     <row r="438" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>203</v>
@@ -16451,7 +16451,7 @@
         <v>9</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>207</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="439" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>203</v>
@@ -16478,7 +16478,7 @@
         <v>9</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>207</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>203</v>
@@ -16502,10 +16502,10 @@
         <v>9LI</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>207</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>203</v>
@@ -16529,10 +16529,10 @@
         <v>9LO</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>207</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>203</v>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>203</v>
@@ -16600,7 +16600,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>203</v>
@@ -16627,7 +16627,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>203</v>
@@ -16654,7 +16654,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>203</v>
@@ -16681,7 +16681,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>203</v>
@@ -16708,7 +16708,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>203</v>
@@ -16721,7 +16721,7 @@
         <v>58</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>207</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>203</v>
@@ -16748,7 +16748,7 @@
         <v>58</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>207</v>
@@ -16762,7 +16762,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>203</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>203</v>
@@ -16816,7 +16816,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>203</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>203</v>
@@ -16870,13 +16870,13 @@
     </row>
     <row r="454" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C454" s="6" t="str">
-        <f>RIGHT($A454,LEN($A454)-FIND("_",$A454))</f>
+        <f t="shared" ref="C454:C465" si="11">RIGHT($A454,LEN($A454)-FIND("_",$A454))</f>
         <v>E_IN</v>
       </c>
       <c r="D454" s="11" t="s">
@@ -16897,13 +16897,13 @@
     </row>
     <row r="455" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C455" s="4" t="str">
-        <f>RIGHT($A455,LEN($A455)-FIND("_",$A455))</f>
+        <f t="shared" si="11"/>
         <v>E_OUT</v>
       </c>
       <c r="D455" s="12" t="s">
@@ -16924,20 +16924,20 @@
     </row>
     <row r="456" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C456" s="4" t="str">
-        <f>RIGHT($A456,LEN($A456)-FIND("_",$A456))</f>
+        <f t="shared" si="11"/>
         <v>F_IN</v>
       </c>
       <c r="D456" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F456" s="4" t="s">
         <v>325</v>
@@ -16951,20 +16951,20 @@
     </row>
     <row r="457" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C457" s="4" t="str">
-        <f>RIGHT($A457,LEN($A457)-FIND("_",$A457))</f>
+        <f t="shared" si="11"/>
         <v>F_INA</v>
       </c>
       <c r="D457" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F457" s="4" t="s">
         <v>325</v>
@@ -16978,20 +16978,20 @@
     </row>
     <row r="458" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C458" s="4" t="str">
-        <f>RIGHT($A458,LEN($A458)-FIND("_",$A458))</f>
+        <f t="shared" si="11"/>
         <v>F_OUT</v>
       </c>
       <c r="D458" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F458" s="4" t="s">
         <v>325</v>
@@ -17005,20 +17005,20 @@
     </row>
     <row r="459" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C459" s="4" t="str">
-        <f>RIGHT($A459,LEN($A459)-FIND("_",$A459))</f>
+        <f t="shared" si="11"/>
         <v>F_OUTA</v>
       </c>
       <c r="D459" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F459" s="4" t="s">
         <v>325</v>
@@ -17032,20 +17032,20 @@
     </row>
     <row r="460" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C460" s="4" t="str">
-        <f>RIGHT($A460,LEN($A460)-FIND("_",$A460))</f>
+        <f t="shared" si="11"/>
         <v>J</v>
       </c>
       <c r="D460" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F460" s="4" t="s">
         <v>328</v>
@@ -17059,20 +17059,20 @@
     </row>
     <row r="461" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C461" s="4" t="str">
-        <f>RIGHT($A461,LEN($A461)-FIND("_",$A461))</f>
+        <f t="shared" si="11"/>
         <v>J_INA</v>
       </c>
       <c r="D461" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F461" s="4" t="s">
         <v>328</v>
@@ -17086,20 +17086,20 @@
     </row>
     <row r="462" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C462" s="4" t="str">
-        <f>RIGHT($A462,LEN($A462)-FIND("_",$A462))</f>
+        <f t="shared" si="11"/>
         <v>J_OUTA</v>
       </c>
       <c r="D462" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F462" s="4" t="s">
         <v>328</v>
@@ -17113,13 +17113,13 @@
     </row>
     <row r="463" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C463" s="4" t="str">
-        <f>RIGHT($A463,LEN($A463)-FIND("_",$A463))</f>
+        <f t="shared" si="11"/>
         <v>KI</v>
       </c>
       <c r="D463" s="12" t="s">
@@ -17140,13 +17140,13 @@
     </row>
     <row r="464" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C464" s="4" t="str">
-        <f>RIGHT($A464,LEN($A464)-FIND("_",$A464))</f>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
       <c r="D464" s="12" t="s">
@@ -17167,13 +17167,13 @@
     </row>
     <row r="465" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C465" s="4" t="str">
-        <f>RIGHT($A465,LEN($A465)-FIND("_",$A465))</f>
+        <f t="shared" si="11"/>
         <v>KT</v>
       </c>
       <c r="D465" s="12" t="s">
@@ -17194,13 +17194,13 @@
     </row>
     <row r="466" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C466" s="4" t="str">
-        <f t="shared" ref="C466:C469" si="11">RIGHT($A466,LEN($A466)-FIND("_",$A466))</f>
+        <f t="shared" ref="C466:C469" si="12">RIGHT($A466,LEN($A466)-FIND("_",$A466))</f>
         <v>KT_IN1</v>
       </c>
       <c r="D466" s="12" t="s">
@@ -17221,13 +17221,13 @@
     </row>
     <row r="467" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C467" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>KT_IN2</v>
       </c>
       <c r="D467" s="12" t="s">
@@ -17248,13 +17248,13 @@
     </row>
     <row r="468" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B468" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C468" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>KT_IN3</v>
       </c>
       <c r="D468" s="12" t="s">
@@ -17275,13 +17275,13 @@
     </row>
     <row r="469" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C469" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>KT_IN4</v>
       </c>
       <c r="D469" s="12" t="s">
@@ -17302,7 +17302,7 @@
     </row>
     <row r="470" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>203</v>
@@ -17329,13 +17329,13 @@
     </row>
     <row r="471" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C471" s="4" t="str">
-        <f t="shared" ref="C471:C473" si="12">RIGHT($A471,LEN($A471)-FIND("_",$A471))</f>
+        <f t="shared" ref="C471:C473" si="13">RIGHT($A471,LEN($A471)-FIND("_",$A471))</f>
         <v>KT_OUT2</v>
       </c>
       <c r="D471" s="12" t="s">
@@ -17356,13 +17356,13 @@
     </row>
     <row r="472" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C472" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>KT_OUT3</v>
       </c>
       <c r="D472" s="12" t="s">
@@ -17383,13 +17383,13 @@
     </row>
     <row r="473" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C473" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>KT_OUT4</v>
       </c>
       <c r="D473" s="12" t="s">
@@ -17410,20 +17410,20 @@
     </row>
     <row r="474" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C474" s="4" t="str">
-        <f>RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
+        <f t="shared" ref="C474:C491" si="14">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
         <v>L</v>
       </c>
       <c r="D474" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F474" s="4" t="s">
         <v>333</v>
@@ -17437,20 +17437,20 @@
     </row>
     <row r="475" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C475" s="4" t="str">
-        <f>RIGHT($A475,LEN($A475)-FIND("_",$A475))</f>
+        <f t="shared" si="14"/>
         <v>L_IN</v>
       </c>
       <c r="D475" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F475" s="4" t="s">
         <v>333</v>
@@ -17464,20 +17464,20 @@
     </row>
     <row r="476" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B476" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C476" s="4" t="str">
-        <f>RIGHT($A476,LEN($A476)-FIND("_",$A476))</f>
+        <f t="shared" si="14"/>
         <v>L_OUT</v>
       </c>
       <c r="D476" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F476" s="4" t="s">
         <v>333</v>
@@ -17491,13 +17491,13 @@
     </row>
     <row r="477" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B477" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C477" s="4" t="str">
-        <f>RIGHT($A477,LEN($A477)-FIND("_",$A477))</f>
+        <f t="shared" si="14"/>
         <v>M</v>
       </c>
       <c r="D477" s="12" t="s">
@@ -17518,13 +17518,13 @@
     </row>
     <row r="478" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C478" s="4" t="str">
-        <f>RIGHT($A478,LEN($A478)-FIND("_",$A478))</f>
+        <f t="shared" si="14"/>
         <v>M-</v>
       </c>
       <c r="D478" s="12" t="s">
@@ -17545,13 +17545,13 @@
     </row>
     <row r="479" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C479" s="4" t="str">
-        <f>RIGHT($A479,LEN($A479)-FIND("_",$A479))</f>
+        <f t="shared" si="14"/>
         <v>MPARKMI</v>
       </c>
       <c r="D479" s="12" t="s">
@@ -17572,13 +17572,13 @@
     </row>
     <row r="480" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C480" s="4" t="str">
-        <f>RIGHT($A480,LEN($A480)-FIND("_",$A480))</f>
+        <f t="shared" si="14"/>
         <v>MPARKMO</v>
       </c>
       <c r="D480" s="12" t="s">
@@ -17599,20 +17599,20 @@
     </row>
     <row r="481" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C481" s="4" t="str">
-        <f>RIGHT($A481,LEN($A481)-FIND("_",$A481))</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="D481" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F481" s="4" t="s">
         <v>333</v>
@@ -17626,20 +17626,20 @@
     </row>
     <row r="482" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C482" s="4" t="str">
-        <f>RIGHT($A482,LEN($A482)-FIND("_",$A482))</f>
+        <f t="shared" si="14"/>
         <v>N_IN1</v>
       </c>
       <c r="D482" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F482" s="4" t="s">
         <v>333</v>
@@ -17653,20 +17653,20 @@
     </row>
     <row r="483" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C483" s="4" t="str">
-        <f>RIGHT($A483,LEN($A483)-FIND("_",$A483))</f>
+        <f t="shared" si="14"/>
         <v>N_OUT1</v>
       </c>
       <c r="D483" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F483" s="4" t="s">
         <v>333</v>
@@ -17680,13 +17680,13 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C484" s="1" t="str">
-        <f>RIGHT($A484,LEN($A484)-FIND("_",$A484))</f>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="D484" s="9" t="s">
@@ -17707,13 +17707,13 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C485" s="1" t="str">
-        <f>RIGHT($A485,LEN($A485)-FIND("_",$A485))</f>
+        <f t="shared" si="14"/>
         <v>S-</v>
       </c>
       <c r="D485" s="9" t="s">
@@ -17734,13 +17734,13 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C486" s="1" t="str">
-        <f>RIGHT($A486,LEN($A486)-FIND("_",$A486))</f>
+        <f t="shared" si="14"/>
         <v>STI</v>
       </c>
       <c r="D486" s="9" t="s">
@@ -17761,13 +17761,13 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C487" s="1" t="str">
-        <f>RIGHT($A487,LEN($A487)-FIND("_",$A487))</f>
+        <f t="shared" si="14"/>
         <v>STO</v>
       </c>
       <c r="D487" s="9" t="s">
@@ -17788,13 +17788,13 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C488" s="1" t="str">
-        <f>RIGHT($A488,LEN($A488)-FIND("_",$A488))</f>
+        <f t="shared" si="14"/>
         <v>TI</v>
       </c>
       <c r="D488" s="9" t="s">
@@ -17815,13 +17815,13 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C489" s="1" t="str">
-        <f>RIGHT($A489,LEN($A489)-FIND("_",$A489))</f>
+        <f t="shared" si="14"/>
         <v>TO</v>
       </c>
       <c r="D489" s="9" t="s">
@@ -17842,13 +17842,13 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C490" s="1" t="str">
-        <f>RIGHT($A490,LEN($A490)-FIND("_",$A490))</f>
+        <f t="shared" si="14"/>
         <v>TSHTI</v>
       </c>
       <c r="D490" s="9" t="s">
@@ -17869,13 +17869,13 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C491" s="1" t="str">
-        <f>RIGHT($A491,LEN($A491)-FIND("_",$A491))</f>
+        <f t="shared" si="14"/>
         <v>TSHTO</v>
       </c>
       <c r="D491" s="9" t="s">
@@ -17930,9 +17930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17950,28 +17950,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -18002,7 +18002,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B3" s="1">
         <v>1134</v>
@@ -18011,7 +18011,7 @@
         <v>963</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -18054,7 +18054,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B5" s="1">
         <v>794</v>
@@ -18063,7 +18063,7 @@
         <v>674</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -18106,7 +18106,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B7" s="1">
         <v>907</v>
@@ -18115,7 +18115,7 @@
         <v>770</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18132,7 +18132,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B8" s="1">
         <v>804</v>
@@ -18141,7 +18141,7 @@
         <v>683</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -18158,7 +18158,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B9" s="1">
         <v>964</v>
@@ -18167,7 +18167,7 @@
         <v>819</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B11" s="1">
         <v>1021</v>
@@ -18219,7 +18219,7 @@
         <v>867</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B13" s="1">
         <v>65</v>
@@ -18271,7 +18271,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E13" s="1">
         <v>0.5</v>
@@ -18340,7 +18340,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B16" s="1">
         <v>650</v>
@@ -18349,7 +18349,7 @@
         <v>552</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -18366,7 +18366,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B17" s="1">
         <v>450</v>
@@ -18375,7 +18375,7 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -18444,7 +18444,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B20" s="1">
         <v>297</v>
@@ -18453,7 +18453,7 @@
         <v>252</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E20" s="1">
         <v>0.4</v>
@@ -18470,7 +18470,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B21" s="1">
         <v>357</v>
@@ -18479,7 +18479,7 @@
         <v>303</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E21" s="1">
         <v>0.4</v>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B22" s="1">
         <v>476</v>
@@ -18505,7 +18505,7 @@
         <v>404</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E22" s="1">
         <v>0.4</v>
@@ -18574,7 +18574,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B25" s="1">
         <v>94</v>
@@ -18583,7 +18583,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E25" s="1">
         <v>0.5</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B27" s="1">
         <v>80</v>
@@ -18635,7 +18635,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E27" s="1">
         <v>0.5</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B28" s="1">
         <v>80</v>
@@ -18661,7 +18661,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E28" s="1">
         <v>0.5</v>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B31" s="1">
         <v>45</v>
@@ -18739,7 +18739,7 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E31" s="1">
         <v>0.5</v>
@@ -18808,7 +18808,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B34" s="1">
         <v>63</v>
@@ -18817,7 +18817,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E34" s="1">
         <v>0.5</v>
@@ -18964,7 +18964,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B40" s="1">
         <v>94</v>
@@ -18973,7 +18973,7 @@
         <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E40" s="1">
         <v>0.5</v>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B43" s="1">
         <v>63</v>
@@ -19051,7 +19051,7 @@
         <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="1">
         <v>0.5</v>
@@ -19068,7 +19068,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B44" s="1">
         <v>800</v>
@@ -19077,7 +19077,7 @@
         <v>680</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B46" s="1">
         <v>28</v>
@@ -19129,7 +19129,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E46" s="1">
         <v>0.5</v>
@@ -19146,7 +19146,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B47" s="1">
         <v>350</v>
@@ -19155,7 +19155,7 @@
         <v>297</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBDB076-3820-4052-953E-0A38B15132FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
     <sheet name="transitLineToVehicle" sheetId="1" r:id="rId2"/>
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3215,7 +3224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4084,7 +4093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4822,12 +4831,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17927,12 +17936,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18248,7 +18257,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0.122</v>
@@ -18274,7 +18283,7 @@
         <v>1047</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0.122</v>
@@ -18300,7 +18309,7 @@
         <v>91</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18326,7 +18335,7 @@
         <v>287</v>
       </c>
       <c r="E15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -18404,7 +18413,7 @@
         <v>328</v>
       </c>
       <c r="E18" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -18430,7 +18439,7 @@
         <v>333</v>
       </c>
       <c r="E19" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -18456,7 +18465,7 @@
         <v>1046</v>
       </c>
       <c r="E20" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -18482,7 +18491,7 @@
         <v>1045</v>
       </c>
       <c r="E21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -18508,7 +18517,7 @@
         <v>1044</v>
       </c>
       <c r="E22" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -18534,7 +18543,7 @@
         <v>265</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0.122</v>
@@ -18560,7 +18569,7 @@
         <v>217</v>
       </c>
       <c r="E24" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>0.122</v>
@@ -18586,7 +18595,7 @@
         <v>1043</v>
       </c>
       <c r="E25" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>0.122</v>
@@ -18612,7 +18621,7 @@
         <v>224</v>
       </c>
       <c r="E26" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>0.10199999999999999</v>
@@ -18638,7 +18647,7 @@
         <v>1042</v>
       </c>
       <c r="E27" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0.10199999999999999</v>
@@ -18664,7 +18673,7 @@
         <v>1041</v>
       </c>
       <c r="E28" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0.10199999999999999</v>
@@ -18690,7 +18699,7 @@
         <v>261</v>
       </c>
       <c r="E29" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18716,7 +18725,7 @@
         <v>230</v>
       </c>
       <c r="E30" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18742,7 +18751,7 @@
         <v>1040</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18768,7 +18777,7 @@
         <v>205</v>
       </c>
       <c r="E32" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18794,7 +18803,7 @@
         <v>207</v>
       </c>
       <c r="E33" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18820,7 +18829,7 @@
         <v>1039</v>
       </c>
       <c r="E34" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18846,7 +18855,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0.122</v>
@@ -18872,7 +18881,7 @@
         <v>53</v>
       </c>
       <c r="E36" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>8.2000000000000003E-2</v>
@@ -18898,7 +18907,7 @@
         <v>325</v>
       </c>
       <c r="E37" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -18924,7 +18933,7 @@
         <v>245</v>
       </c>
       <c r="E38" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>0.122</v>
@@ -18950,7 +18959,7 @@
         <v>215</v>
       </c>
       <c r="E39" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0.122</v>
@@ -18976,7 +18985,7 @@
         <v>1038</v>
       </c>
       <c r="E40" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>0.122</v>
@@ -19002,7 +19011,7 @@
         <v>234</v>
       </c>
       <c r="E41" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>8.2000000000000003E-2</v>
@@ -19028,7 +19037,7 @@
         <v>235</v>
       </c>
       <c r="E42" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>8.2000000000000003E-2</v>
@@ -19054,7 +19063,7 @@
         <v>1037</v>
       </c>
       <c r="E43" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>8.2000000000000003E-2</v>
@@ -19106,7 +19115,7 @@
         <v>259</v>
       </c>
       <c r="E45" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -19132,7 +19141,7 @@
         <v>1036</v>
       </c>
       <c r="E46" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBDB076-3820-4052-953E-0A38B15132FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
     <sheet name="transitLineToVehicle" sheetId="1" r:id="rId2"/>
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1079">
   <si>
     <t>Name</t>
   </si>
@@ -3219,12 +3218,60 @@
   </si>
   <si>
     <t>120_RED-</t>
+  </si>
+  <si>
+    <t>137_A</t>
+  </si>
+  <si>
+    <t>137_B</t>
+  </si>
+  <si>
+    <t>137_C</t>
+  </si>
+  <si>
+    <t>HSR</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>SFSJ</t>
+  </si>
+  <si>
+    <t>SJG</t>
+  </si>
+  <si>
+    <t>SF - GILROY</t>
+  </si>
+  <si>
+    <t>SF - SAN JOSE</t>
+  </si>
+  <si>
+    <t>SAM JOSE - GILROY</t>
+  </si>
+  <si>
+    <t>HSR6</t>
+  </si>
+  <si>
+    <t>HSR4</t>
+  </si>
+  <si>
+    <t>HSR10</t>
+  </si>
+  <si>
+    <t>HSR 4 trains</t>
+  </si>
+  <si>
+    <t>HSR 6 trains</t>
+  </si>
+  <si>
+    <t>HSR 10 trains</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4093,12 +4140,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4821,7 +4868,7 @@
         <v>909</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>908</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -4831,12 +4878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H492"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H497" sqref="H497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17425,7 +17472,7 @@
         <v>203</v>
       </c>
       <c r="C474" s="4" t="str">
-        <f t="shared" ref="C474:C491" si="14">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
+        <f t="shared" ref="C474:C494" si="14">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
         <v>L</v>
       </c>
       <c r="D474" s="12" t="s">
@@ -17904,28 +17951,109 @@
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C492" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>A</v>
+      </c>
+      <c r="D492" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E492" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F492" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G492" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H492" s="6" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C493" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>B</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F493" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G493" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H493" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C494" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>C</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F494" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G494" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H494" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="B495" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="C495" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D492" s="9" t="s">
+      <c r="D495" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E492" s="1" t="s">
+      <c r="E495" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F492" s="1" t="s">
+      <c r="F495" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G492" s="1" t="s">
+      <c r="G495" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H492" s="1" t="s">
+      <c r="H495" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17936,12 +18064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19179,6 +19307,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1530</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2295</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3825</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C736C-3FF0-407B-B6B4-A8A20F7C404A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
     <sheet name="transitLineToVehicle" sheetId="1" r:id="rId2"/>
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3271,7 +3272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4140,12 +4141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4878,12 +4879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H497" sqref="H497"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A488" sqref="A488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18064,12 +18065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C736C-3FF0-407B-B6B4-A8A20F7C404A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
     <sheet name="transitLineToVehicle" sheetId="1" r:id="rId2"/>
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511" iterateCount="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2153,12 +2152,6 @@
     <t>28 - 19th AVE</t>
   </si>
   <si>
-    <t>21_28RNB</t>
-  </si>
-  <si>
-    <t>21_28RSB</t>
-  </si>
-  <si>
     <t>28R - 19TH AVENUE RAPID</t>
   </si>
   <si>
@@ -3267,12 +3260,18 @@
   </si>
   <si>
     <t>HSR 10 trains</t>
+  </si>
+  <si>
+    <t>21_28RN</t>
+  </si>
+  <si>
+    <t>21_28RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4141,10 +4140,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
@@ -4159,21 +4158,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>205</v>
@@ -4181,10 +4180,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>205</v>
@@ -4192,10 +4191,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>261</v>
@@ -4203,10 +4202,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>261</v>
@@ -4214,10 +4213,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>261</v>
@@ -4225,10 +4224,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>261</v>
@@ -4236,10 +4235,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>261</v>
@@ -4247,10 +4246,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>261</v>
@@ -4258,10 +4257,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>261</v>
@@ -4269,10 +4268,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>261</v>
@@ -4280,10 +4279,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>287</v>
@@ -4291,10 +4290,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>205</v>
@@ -4302,10 +4301,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>205</v>
@@ -4313,10 +4312,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>205</v>
@@ -4324,10 +4323,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>205</v>
@@ -4335,10 +4334,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
@@ -4346,10 +4345,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>205</v>
@@ -4357,10 +4356,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>205</v>
@@ -4368,10 +4367,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>205</v>
@@ -4379,10 +4378,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>205</v>
@@ -4390,10 +4389,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>205</v>
@@ -4401,10 +4400,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>205</v>
@@ -4412,10 +4411,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>205</v>
@@ -4423,10 +4422,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>205</v>
@@ -4434,10 +4433,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>205</v>
@@ -4445,10 +4444,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>205</v>
@@ -4456,10 +4455,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>205</v>
@@ -4467,10 +4466,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>205</v>
@@ -4478,10 +4477,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>205</v>
@@ -4489,10 +4488,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>205</v>
@@ -4500,10 +4499,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>205</v>
@@ -4511,10 +4510,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>205</v>
@@ -4522,10 +4521,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>205</v>
@@ -4533,10 +4532,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>205</v>
@@ -4544,10 +4543,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>205</v>
@@ -4555,10 +4554,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>205</v>
@@ -4566,10 +4565,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>205</v>
@@ -4577,10 +4576,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>205</v>
@@ -4588,10 +4587,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>205</v>
@@ -4599,10 +4598,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>205</v>
@@ -4610,10 +4609,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>205</v>
@@ -4621,10 +4620,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>205</v>
@@ -4632,10 +4631,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>205</v>
@@ -4643,10 +4642,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>205</v>
@@ -4654,10 +4653,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>205</v>
@@ -4665,10 +4664,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>205</v>
@@ -4676,76 +4675,76 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>333</v>
@@ -4753,10 +4752,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>333</v>
@@ -4764,7 +4763,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
@@ -4775,10 +4774,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>333</v>
@@ -4786,90 +4785,90 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -4879,12 +4878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H495"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A488" sqref="A488"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5010,7 +5009,7 @@
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -5066,7 +5065,7 @@
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -5122,7 +5121,7 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -5150,7 +5149,7 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -5178,7 +5177,7 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -10555,7 +10554,7 @@
     </row>
     <row r="218" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>203</v>
@@ -10717,7 +10716,7 @@
     </row>
     <row r="224" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>203</v>
@@ -11095,20 +11094,20 @@
     </row>
     <row r="238" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>707</v>
+        <v>1077</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C238" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>28RNB</v>
+        <v>28RN</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>205</v>
@@ -11122,20 +11121,20 @@
     </row>
     <row r="239" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>708</v>
+        <v>1078</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C239" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>28RSB</v>
+        <v>28RS</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>205</v>
@@ -11149,7 +11148,7 @@
     </row>
     <row r="240" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>203</v>
@@ -11230,7 +11229,7 @@
     </row>
     <row r="243" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>203</v>
@@ -11257,7 +11256,7 @@
     </row>
     <row r="244" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>203</v>
@@ -11284,7 +11283,7 @@
     </row>
     <row r="245" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>203</v>
@@ -11311,7 +11310,7 @@
     </row>
     <row r="246" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>203</v>
@@ -11338,7 +11337,7 @@
     </row>
     <row r="247" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>203</v>
@@ -11365,7 +11364,7 @@
     </row>
     <row r="248" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>203</v>
@@ -11392,7 +11391,7 @@
     </row>
     <row r="249" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>203</v>
@@ -11419,7 +11418,7 @@
     </row>
     <row r="250" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>203</v>
@@ -11446,7 +11445,7 @@
     </row>
     <row r="251" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>203</v>
@@ -11473,7 +11472,7 @@
     </row>
     <row r="252" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>203</v>
@@ -11500,7 +11499,7 @@
     </row>
     <row r="253" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>203</v>
@@ -11527,7 +11526,7 @@
     </row>
     <row r="254" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>203</v>
@@ -11554,7 +11553,7 @@
     </row>
     <row r="255" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>203</v>
@@ -11581,7 +11580,7 @@
     </row>
     <row r="256" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>203</v>
@@ -11591,10 +11590,10 @@
         <v>30XIN</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>207</v>
@@ -11608,7 +11607,7 @@
     </row>
     <row r="257" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>203</v>
@@ -11618,10 +11617,10 @@
         <v>30XOUT</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>207</v>
@@ -11635,7 +11634,7 @@
     </row>
     <row r="258" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>203</v>
@@ -11645,10 +11644,10 @@
         <v>31AXIN</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>207</v>
@@ -11662,7 +11661,7 @@
     </row>
     <row r="259" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>203</v>
@@ -11672,10 +11671,10 @@
         <v>31AXOUT</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>207</v>
@@ -11689,7 +11688,7 @@
     </row>
     <row r="260" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>203</v>
@@ -11699,10 +11698,10 @@
         <v>31BXIN</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>207</v>
@@ -11716,7 +11715,7 @@
     </row>
     <row r="261" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>203</v>
@@ -11726,10 +11725,10 @@
         <v>31BXOUT</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>207</v>
@@ -11743,7 +11742,7 @@
     </row>
     <row r="262" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>203</v>
@@ -11756,7 +11755,7 @@
         <v>31</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>235</v>
@@ -11770,7 +11769,7 @@
     </row>
     <row r="263" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>203</v>
@@ -11783,7 +11782,7 @@
         <v>31</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>235</v>
@@ -11797,7 +11796,7 @@
     </row>
     <row r="264" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>203</v>
@@ -11810,7 +11809,7 @@
         <v>31</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>235</v>
@@ -11824,7 +11823,7 @@
     </row>
     <row r="265" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>203</v>
@@ -11837,7 +11836,7 @@
         <v>31</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>235</v>
@@ -11905,7 +11904,7 @@
     </row>
     <row r="268" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>203</v>
@@ -11918,7 +11917,7 @@
         <v>33</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>235</v>
@@ -11945,7 +11944,7 @@
         <v>33</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>235</v>
@@ -11972,7 +11971,7 @@
         <v>33</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>235</v>
@@ -12067,7 +12066,7 @@
     </row>
     <row r="274" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>203</v>
@@ -12080,7 +12079,7 @@
         <v>36</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>230</v>
@@ -12107,7 +12106,7 @@
         <v>262</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>230</v>
@@ -12134,7 +12133,7 @@
         <v>263</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>230</v>
@@ -12148,7 +12147,7 @@
     </row>
     <row r="277" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>203</v>
@@ -12161,7 +12160,7 @@
         <v>37</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>230</v>
@@ -12188,7 +12187,7 @@
         <v>37</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>230</v>
@@ -12215,7 +12214,7 @@
         <v>37</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>230</v>
@@ -12229,7 +12228,7 @@
     </row>
     <row r="280" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>203</v>
@@ -12239,10 +12238,10 @@
         <v>38AXIN</v>
       </c>
       <c r="D280" s="16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>207</v>
@@ -12256,7 +12255,7 @@
     </row>
     <row r="281" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>203</v>
@@ -12266,10 +12265,10 @@
         <v>38AXOUT</v>
       </c>
       <c r="D281" s="16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>207</v>
@@ -12283,7 +12282,7 @@
     </row>
     <row r="282" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>203</v>
@@ -12293,10 +12292,10 @@
         <v>38BXIN</v>
       </c>
       <c r="D282" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>207</v>
@@ -12310,7 +12309,7 @@
     </row>
     <row r="283" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>203</v>
@@ -12320,10 +12319,10 @@
         <v>38BXOUT</v>
       </c>
       <c r="D283" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>207</v>
@@ -12391,7 +12390,7 @@
     </row>
     <row r="286" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>203</v>
@@ -12418,7 +12417,7 @@
     </row>
     <row r="287" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>203</v>
@@ -12445,7 +12444,7 @@
     </row>
     <row r="288" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>203</v>
@@ -12472,7 +12471,7 @@
     </row>
     <row r="289" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>203</v>
@@ -12499,7 +12498,7 @@
     </row>
     <row r="290" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>203</v>
@@ -12512,7 +12511,7 @@
         <v>38</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>265</v>
@@ -12526,7 +12525,7 @@
     </row>
     <row r="291" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>203</v>
@@ -12539,7 +12538,7 @@
         <v>38</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>265</v>
@@ -12823,7 +12822,7 @@
     </row>
     <row r="302" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>203</v>
@@ -12836,7 +12835,7 @@
         <v>39</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>230</v>
@@ -12850,7 +12849,7 @@
     </row>
     <row r="303" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>203</v>
@@ -12863,7 +12862,7 @@
         <v>39</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>230</v>
@@ -12877,7 +12876,7 @@
     </row>
     <row r="304" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>203</v>
@@ -12890,7 +12889,7 @@
         <v>3</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>235</v>
@@ -12904,7 +12903,7 @@
     </row>
     <row r="305" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>203</v>
@@ -12917,7 +12916,7 @@
         <v>3</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>235</v>
@@ -12931,7 +12930,7 @@
     </row>
     <row r="306" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>203</v>
@@ -12944,7 +12943,7 @@
         <v>41</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>235</v>
@@ -12958,7 +12957,7 @@
     </row>
     <row r="307" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>203</v>
@@ -12971,7 +12970,7 @@
         <v>41</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>235</v>
@@ -13039,7 +13038,7 @@
     </row>
     <row r="310" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>203</v>
@@ -13052,7 +13051,7 @@
         <v>43</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>207</v>
@@ -13079,7 +13078,7 @@
         <v>43</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>207</v>
@@ -13106,7 +13105,7 @@
         <v>43</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>207</v>
@@ -13120,7 +13119,7 @@
     </row>
     <row r="313" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>203</v>
@@ -13133,7 +13132,7 @@
         <v>44</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>207</v>
@@ -13147,7 +13146,7 @@
     </row>
     <row r="314" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>203</v>
@@ -13160,7 +13159,7 @@
         <v>44</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>207</v>
@@ -13187,7 +13186,7 @@
         <v>44</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>207</v>
@@ -13214,7 +13213,7 @@
         <v>44</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>207</v>
@@ -13228,7 +13227,7 @@
     </row>
     <row r="317" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>203</v>
@@ -13241,7 +13240,7 @@
         <v>45</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>235</v>
@@ -13255,7 +13254,7 @@
     </row>
     <row r="318" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>203</v>
@@ -13268,7 +13267,7 @@
         <v>45</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>235</v>
@@ -13282,7 +13281,7 @@
     </row>
     <row r="319" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>203</v>
@@ -13295,7 +13294,7 @@
         <v>47</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>207</v>
@@ -13309,7 +13308,7 @@
     </row>
     <row r="320" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>203</v>
@@ -13322,7 +13321,7 @@
         <v>47</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>207</v>
@@ -13336,7 +13335,7 @@
     </row>
     <row r="321" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>203</v>
@@ -13363,7 +13362,7 @@
     </row>
     <row r="322" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>203</v>
@@ -13390,7 +13389,7 @@
     </row>
     <row r="323" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>203</v>
@@ -13417,7 +13416,7 @@
     </row>
     <row r="324" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>203</v>
@@ -13444,7 +13443,7 @@
     </row>
     <row r="325" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>203</v>
@@ -13471,7 +13470,7 @@
     </row>
     <row r="326" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>203</v>
@@ -13498,7 +13497,7 @@
     </row>
     <row r="327" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>203</v>
@@ -13511,7 +13510,7 @@
         <v>49</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>215</v>
@@ -13525,7 +13524,7 @@
     </row>
     <row r="328" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>203</v>
@@ -13538,7 +13537,7 @@
         <v>49</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>215</v>
@@ -13660,7 +13659,7 @@
     </row>
     <row r="333" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>203</v>
@@ -13673,7 +13672,7 @@
         <v>52</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>230</v>
@@ -13700,7 +13699,7 @@
         <v>280</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>230</v>
@@ -13727,7 +13726,7 @@
         <v>281</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>230</v>
@@ -13795,7 +13794,7 @@
     </row>
     <row r="338" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>203</v>
@@ -13808,7 +13807,7 @@
         <v>54</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>207</v>
@@ -13822,7 +13821,7 @@
     </row>
     <row r="339" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>203</v>
@@ -13835,7 +13834,7 @@
         <v>54</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>207</v>
@@ -13849,7 +13848,7 @@
     </row>
     <row r="340" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>203</v>
@@ -13957,7 +13956,7 @@
     </row>
     <row r="344" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>203</v>
@@ -13984,7 +13983,7 @@
     </row>
     <row r="345" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>203</v>
@@ -13997,7 +13996,7 @@
         <v>57</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>205</v>
@@ -14011,7 +14010,7 @@
     </row>
     <row r="346" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>203</v>
@@ -14024,7 +14023,7 @@
         <v>57</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>205</v>
@@ -14254,7 +14253,7 @@
     </row>
     <row r="355" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>203</v>
@@ -14281,7 +14280,7 @@
     </row>
     <row r="356" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>203</v>
@@ -14308,7 +14307,7 @@
     </row>
     <row r="357" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>203</v>
@@ -14335,7 +14334,7 @@
     </row>
     <row r="358" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>203</v>
@@ -14362,7 +14361,7 @@
     </row>
     <row r="359" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>203</v>
@@ -14389,7 +14388,7 @@
     </row>
     <row r="360" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>203</v>
@@ -14416,7 +14415,7 @@
     </row>
     <row r="361" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>203</v>
@@ -14443,7 +14442,7 @@
     </row>
     <row r="362" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>203</v>
@@ -14480,10 +14479,10 @@
         <v>5LI</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>235</v>
@@ -14507,10 +14506,10 @@
         <v>5LO</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>235</v>
@@ -14524,7 +14523,7 @@
     </row>
     <row r="365" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>203</v>
@@ -14534,10 +14533,10 @@
         <v>5RIN</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F365" s="3" t="s">
         <v>207</v>
@@ -14551,7 +14550,7 @@
     </row>
     <row r="366" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>203</v>
@@ -14561,10 +14560,10 @@
         <v>5ROUT</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>207</v>
@@ -14740,7 +14739,7 @@
     </row>
     <row r="373" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>203</v>
@@ -14821,7 +14820,7 @@
     </row>
     <row r="376" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>203</v>
@@ -14834,7 +14833,7 @@
         <v>67</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>230</v>
@@ -14861,7 +14860,7 @@
         <v>67</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>230</v>
@@ -14888,7 +14887,7 @@
         <v>67</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>230</v>
@@ -14902,7 +14901,7 @@
     </row>
     <row r="379" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>203</v>
@@ -14915,7 +14914,7 @@
         <v>6</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>235</v>
@@ -14929,7 +14928,7 @@
     </row>
     <row r="380" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>203</v>
@@ -14942,7 +14941,7 @@
         <v>6</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>235</v>
@@ -14956,7 +14955,7 @@
     </row>
     <row r="381" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>203</v>
@@ -14969,7 +14968,7 @@
         <v>6</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>235</v>
@@ -15145,7 +15144,7 @@
     </row>
     <row r="388" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>203</v>
@@ -15158,7 +15157,7 @@
         <v>7</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>234</v>
@@ -15172,7 +15171,7 @@
     </row>
     <row r="389" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>203</v>
@@ -15185,7 +15184,7 @@
         <v>7</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>234</v>
@@ -15199,7 +15198,7 @@
     </row>
     <row r="390" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>203</v>
@@ -15209,10 +15208,10 @@
         <v>7RIN</v>
       </c>
       <c r="D390" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>234</v>
@@ -15226,7 +15225,7 @@
     </row>
     <row r="391" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>203</v>
@@ -15236,10 +15235,10 @@
         <v>7ROUT</v>
       </c>
       <c r="D391" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>234</v>
@@ -15253,7 +15252,7 @@
     </row>
     <row r="392" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>203</v>
@@ -15263,10 +15262,10 @@
         <v>7XIN</v>
       </c>
       <c r="D392" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>234</v>
@@ -15280,7 +15279,7 @@
     </row>
     <row r="393" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>203</v>
@@ -15290,10 +15289,10 @@
         <v>7XOUT</v>
       </c>
       <c r="D393" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>234</v>
@@ -15425,10 +15424,10 @@
         <v>82XI</v>
       </c>
       <c r="D398" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>207</v>
@@ -15452,10 +15451,10 @@
         <v>82XO</v>
       </c>
       <c r="D399" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>207</v>
@@ -15533,10 +15532,10 @@
         <v>83XI</v>
       </c>
       <c r="D402" s="16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>207</v>
@@ -15560,10 +15559,10 @@
         <v>83XO</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>207</v>
@@ -15577,7 +15576,7 @@
     </row>
     <row r="404" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>203</v>
@@ -15590,7 +15589,7 @@
         <v>88</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>207</v>
@@ -15604,7 +15603,7 @@
     </row>
     <row r="405" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>203</v>
@@ -15617,7 +15616,7 @@
         <v>88</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>207</v>
@@ -15685,7 +15684,7 @@
     </row>
     <row r="408" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>203</v>
@@ -15698,7 +15697,7 @@
         <v>8</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>217</v>
@@ -15712,7 +15711,7 @@
     </row>
     <row r="409" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>203</v>
@@ -15725,7 +15724,7 @@
         <v>8</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>217</v>
@@ -15739,7 +15738,7 @@
     </row>
     <row r="410" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>203</v>
@@ -15749,10 +15748,10 @@
         <v>8AXIN</v>
       </c>
       <c r="D410" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>217</v>
@@ -15766,7 +15765,7 @@
     </row>
     <row r="411" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>203</v>
@@ -15776,10 +15775,10 @@
         <v>8AXOUT</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>217</v>
@@ -15793,7 +15792,7 @@
     </row>
     <row r="412" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>203</v>
@@ -15803,10 +15802,10 @@
         <v>8BXIN</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>217</v>
@@ -15820,7 +15819,7 @@
     </row>
     <row r="413" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>203</v>
@@ -15830,10 +15829,10 @@
         <v>8BXOUT</v>
       </c>
       <c r="D413" s="16" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>217</v>
@@ -16076,7 +16075,7 @@
         <v>91</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>207</v>
@@ -16103,7 +16102,7 @@
         <v>91</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F423" s="3" t="s">
         <v>207</v>
@@ -16441,7 +16440,7 @@
     </row>
     <row r="436" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>203</v>
@@ -16468,7 +16467,7 @@
     </row>
     <row r="437" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>203</v>
@@ -16495,7 +16494,7 @@
     </row>
     <row r="438" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>203</v>
@@ -16508,7 +16507,7 @@
         <v>9</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>207</v>
@@ -16522,7 +16521,7 @@
     </row>
     <row r="439" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>203</v>
@@ -16535,7 +16534,7 @@
         <v>9</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>207</v>
@@ -16559,10 +16558,10 @@
         <v>9LI</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>207</v>
@@ -16586,10 +16585,10 @@
         <v>9LO</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>207</v>
@@ -16778,7 +16777,7 @@
         <v>58</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>207</v>
@@ -16805,7 +16804,7 @@
         <v>58</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>207</v>
@@ -16927,7 +16926,7 @@
     </row>
     <row r="454" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>203</v>
@@ -16954,7 +16953,7 @@
     </row>
     <row r="455" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>203</v>
@@ -16981,7 +16980,7 @@
     </row>
     <row r="456" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>203</v>
@@ -16994,7 +16993,7 @@
         <v>109</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F456" s="4" t="s">
         <v>325</v>
@@ -17008,7 +17007,7 @@
     </row>
     <row r="457" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>203</v>
@@ -17021,7 +17020,7 @@
         <v>109</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F457" s="4" t="s">
         <v>325</v>
@@ -17035,7 +17034,7 @@
     </row>
     <row r="458" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>203</v>
@@ -17048,7 +17047,7 @@
         <v>109</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F458" s="4" t="s">
         <v>325</v>
@@ -17062,7 +17061,7 @@
     </row>
     <row r="459" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>203</v>
@@ -17075,7 +17074,7 @@
         <v>109</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F459" s="4" t="s">
         <v>325</v>
@@ -17089,7 +17088,7 @@
     </row>
     <row r="460" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>203</v>
@@ -17102,7 +17101,7 @@
         <v>125</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F460" s="4" t="s">
         <v>328</v>
@@ -17116,7 +17115,7 @@
     </row>
     <row r="461" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>203</v>
@@ -17129,7 +17128,7 @@
         <v>125</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F461" s="4" t="s">
         <v>328</v>
@@ -17143,7 +17142,7 @@
     </row>
     <row r="462" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>203</v>
@@ -17156,7 +17155,7 @@
         <v>125</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F462" s="4" t="s">
         <v>328</v>
@@ -17170,7 +17169,7 @@
     </row>
     <row r="463" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>203</v>
@@ -17197,7 +17196,7 @@
     </row>
     <row r="464" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>203</v>
@@ -17224,7 +17223,7 @@
     </row>
     <row r="465" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>203</v>
@@ -17251,7 +17250,7 @@
     </row>
     <row r="466" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>203</v>
@@ -17278,7 +17277,7 @@
     </row>
     <row r="467" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>203</v>
@@ -17305,7 +17304,7 @@
     </row>
     <row r="468" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B468" s="4" t="s">
         <v>203</v>
@@ -17332,7 +17331,7 @@
     </row>
     <row r="469" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>203</v>
@@ -17359,7 +17358,7 @@
     </row>
     <row r="470" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>203</v>
@@ -17386,7 +17385,7 @@
     </row>
     <row r="471" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>203</v>
@@ -17413,7 +17412,7 @@
     </row>
     <row r="472" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>203</v>
@@ -17440,7 +17439,7 @@
     </row>
     <row r="473" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>203</v>
@@ -17467,7 +17466,7 @@
     </row>
     <row r="474" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>203</v>
@@ -17480,7 +17479,7 @@
         <v>133</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F474" s="4" t="s">
         <v>333</v>
@@ -17494,7 +17493,7 @@
     </row>
     <row r="475" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>203</v>
@@ -17507,7 +17506,7 @@
         <v>133</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F475" s="4" t="s">
         <v>333</v>
@@ -17521,7 +17520,7 @@
     </row>
     <row r="476" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B476" s="4" t="s">
         <v>203</v>
@@ -17534,7 +17533,7 @@
         <v>133</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F476" s="4" t="s">
         <v>333</v>
@@ -17548,7 +17547,7 @@
     </row>
     <row r="477" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B477" s="4" t="s">
         <v>203</v>
@@ -17575,7 +17574,7 @@
     </row>
     <row r="478" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>203</v>
@@ -17602,7 +17601,7 @@
     </row>
     <row r="479" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>203</v>
@@ -17629,7 +17628,7 @@
     </row>
     <row r="480" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>203</v>
@@ -17656,7 +17655,7 @@
     </row>
     <row r="481" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>203</v>
@@ -17669,7 +17668,7 @@
         <v>148</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F481" s="4" t="s">
         <v>333</v>
@@ -17683,7 +17682,7 @@
     </row>
     <row r="482" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>203</v>
@@ -17696,7 +17695,7 @@
         <v>148</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F482" s="4" t="s">
         <v>333</v>
@@ -17710,7 +17709,7 @@
     </row>
     <row r="483" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>203</v>
@@ -17723,7 +17722,7 @@
         <v>148</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F483" s="4" t="s">
         <v>333</v>
@@ -17737,7 +17736,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>203</v>
@@ -17764,7 +17763,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>203</v>
@@ -17791,7 +17790,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>203</v>
@@ -17818,7 +17817,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>203</v>
@@ -17845,7 +17844,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>203</v>
@@ -17872,7 +17871,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>203</v>
@@ -17899,7 +17898,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>203</v>
@@ -17926,7 +17925,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>203</v>
@@ -17953,83 +17952,83 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C492" s="6" t="str">
         <f t="shared" si="14"/>
         <v>A</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F492" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G492" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H492" s="6" t="s">
         <v>1073</v>
-      </c>
-      <c r="G492" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H492" s="6" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B493" s="4" t="s">
         <v>1064</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>1066</v>
       </c>
       <c r="C493" s="1" t="str">
         <f t="shared" si="14"/>
         <v>B</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E493" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F493" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="F493" s="4" t="s">
+      <c r="G493" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H493" s="4" t="s">
         <v>1073</v>
-      </c>
-      <c r="G493" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H493" s="4" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C494" s="1" t="str">
         <f t="shared" si="14"/>
         <v>C</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E494" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F494" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="F494" s="4" t="s">
-        <v>1074</v>
-      </c>
       <c r="G494" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H494" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -18065,12 +18064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18088,28 +18087,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -18140,7 +18139,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="1">
         <v>1134</v>
@@ -18149,7 +18148,7 @@
         <v>963</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -18192,7 +18191,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="1">
         <v>794</v>
@@ -18201,7 +18200,7 @@
         <v>674</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -18244,7 +18243,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="1">
         <v>907</v>
@@ -18253,7 +18252,7 @@
         <v>770</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18270,7 +18269,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B8" s="1">
         <v>804</v>
@@ -18279,7 +18278,7 @@
         <v>683</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -18296,7 +18295,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="1">
         <v>964</v>
@@ -18305,7 +18304,7 @@
         <v>819</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -18348,7 +18347,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="1">
         <v>1021</v>
@@ -18357,7 +18356,7 @@
         <v>867</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -18400,7 +18399,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B13" s="1">
         <v>65</v>
@@ -18409,7 +18408,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -18478,7 +18477,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B16" s="1">
         <v>650</v>
@@ -18487,7 +18486,7 @@
         <v>552</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -18504,7 +18503,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B17" s="1">
         <v>450</v>
@@ -18513,7 +18512,7 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -18582,7 +18581,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B20" s="1">
         <v>297</v>
@@ -18591,7 +18590,7 @@
         <v>252</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -18608,7 +18607,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B21" s="1">
         <v>357</v>
@@ -18617,7 +18616,7 @@
         <v>303</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -18634,7 +18633,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B22" s="1">
         <v>476</v>
@@ -18643,7 +18642,7 @@
         <v>404</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -18712,7 +18711,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B25" s="1">
         <v>94</v>
@@ -18721,7 +18720,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -18764,7 +18763,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B27" s="1">
         <v>80</v>
@@ -18773,7 +18772,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -18790,7 +18789,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B28" s="1">
         <v>80</v>
@@ -18799,7 +18798,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -18868,7 +18867,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B31" s="1">
         <v>45</v>
@@ -18877,7 +18876,7 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -18946,7 +18945,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B34" s="1">
         <v>63</v>
@@ -18955,7 +18954,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -19102,7 +19101,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B40" s="1">
         <v>94</v>
@@ -19111,7 +19110,7 @@
         <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -19180,7 +19179,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B43" s="1">
         <v>63</v>
@@ -19189,7 +19188,7 @@
         <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -19206,7 +19205,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B44" s="1">
         <v>800</v>
@@ -19215,7 +19214,7 @@
         <v>680</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -19258,7 +19257,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B46" s="1">
         <v>28</v>
@@ -19267,7 +19266,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -19284,7 +19283,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B47" s="1">
         <v>350</v>
@@ -19293,7 +19292,7 @@
         <v>297</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -19310,7 +19309,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B48" s="1">
         <v>1800</v>
@@ -19319,7 +19318,7 @@
         <v>1530</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -19336,7 +19335,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B49" s="1">
         <v>2700</v>
@@ -19345,7 +19344,7 @@
         <v>2295</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -19362,7 +19361,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B50" s="1">
         <v>4500</v>
@@ -19371,7 +19370,7 @@
         <v>3825</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="1085">
   <si>
     <t>Name</t>
   </si>
@@ -3266,6 +3266,24 @@
   </si>
   <si>
     <t>21_28RS</t>
+  </si>
+  <si>
+    <t>111_LRCCW</t>
+  </si>
+  <si>
+    <t>111_902LRT</t>
+  </si>
+  <si>
+    <t>111_LRTWCC</t>
+  </si>
+  <si>
+    <t>CCW</t>
+  </si>
+  <si>
+    <t>WCC</t>
+  </si>
+  <si>
+    <t>GREEN LINE</t>
   </si>
 </sst>
 </file>
@@ -4879,11 +4897,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E494" sqref="E494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17472,7 +17490,7 @@
         <v>203</v>
       </c>
       <c r="C474" s="4" t="str">
-        <f t="shared" ref="C474:C494" si="14">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
+        <f t="shared" ref="C474:C497" si="14">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
         <v>L</v>
       </c>
       <c r="D474" s="12" t="s">
@@ -17952,108 +17970,189 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>1064</v>
+        <v>927</v>
       </c>
       <c r="C492" s="6" t="str">
         <f t="shared" si="14"/>
-        <v>A</v>
+        <v>LRCCW</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1065</v>
+        <v>1082</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1071</v>
+        <v>333</v>
       </c>
       <c r="G492" s="6" t="s">
-        <v>1071</v>
+        <v>333</v>
       </c>
       <c r="H492" s="6" t="s">
-        <v>1073</v>
+        <v>333</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>1064</v>
+        <v>1080</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>927</v>
       </c>
       <c r="C493" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>B</v>
-      </c>
-      <c r="D493" s="9" t="s">
-        <v>1066</v>
+        <v>902LRT</v>
+      </c>
+      <c r="D493" s="9">
+        <v>902</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F493" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G493" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H493" s="4" t="s">
-        <v>1073</v>
+        <v>1084</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1064</v>
+        <v>1081</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>927</v>
       </c>
       <c r="C494" s="1" t="str">
         <f t="shared" si="14"/>
+        <v>LRTWCC</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C495" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>A</v>
+      </c>
+      <c r="D495" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E495" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F495" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G495" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H495" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C496" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>B</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F496" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H496" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C497" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>C</v>
       </c>
-      <c r="D494" s="9" t="s">
+      <c r="D497" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="E494" s="1" t="s">
+      <c r="E497" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="F494" s="4" t="s">
+      <c r="F497" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="G494" s="4" t="s">
+      <c r="G497" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="H494" s="4" t="s">
+      <c r="H497" s="4" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A495" s="1" t="s">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="C498" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D495" s="9" t="s">
+      <c r="D498" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E495" s="1" t="s">
+      <c r="E498" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F495" s="1" t="s">
+      <c r="F498" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G495" s="1" t="s">
+      <c r="G498" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H495" s="1" t="s">
+      <c r="H498" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18068,7 +18167,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
@@ -4899,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E494" sqref="E494"/>
     </sheetView>
   </sheetViews>
@@ -18166,9 +18166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18215,10 +18215,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>945</v>
+        <v>1100</v>
       </c>
       <c r="C2" s="1">
-        <v>803</v>
+        <v>935</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -18241,10 +18241,10 @@
         <v>1051</v>
       </c>
       <c r="B3" s="1">
-        <v>1134</v>
+        <v>1200</v>
       </c>
       <c r="C3" s="1">
-        <v>963</v>
+        <v>1020</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1051</v>
@@ -18267,10 +18267,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>662</v>
+        <v>777</v>
       </c>
       <c r="C4" s="1">
-        <v>562</v>
+        <v>660</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -18293,10 +18293,10 @@
         <v>1050</v>
       </c>
       <c r="B5" s="1">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C5" s="1">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1050</v>
@@ -18319,10 +18319,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>756</v>
+        <v>888</v>
       </c>
       <c r="C6" s="1">
-        <v>642</v>
+        <v>765</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -18345,7 +18345,7 @@
         <v>1049</v>
       </c>
       <c r="B7" s="1">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C7" s="1">
         <v>770</v>
@@ -18371,10 +18371,10 @@
         <v>1048</v>
       </c>
       <c r="B8" s="1">
-        <v>804</v>
+        <v>943</v>
       </c>
       <c r="C8" s="1">
-        <v>683</v>
+        <v>802</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1048</v>
@@ -18397,10 +18397,10 @@
         <v>1047</v>
       </c>
       <c r="B9" s="1">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="C9" s="1">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1047</v>
@@ -18423,10 +18423,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>851</v>
+        <v>999</v>
       </c>
       <c r="C10" s="1">
-        <v>723</v>
+        <v>849</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -18449,10 +18449,10 @@
         <v>1046</v>
       </c>
       <c r="B11" s="1">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="1">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1046</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -16,7 +16,7 @@
     <sheet name="transitLineToVehicle" sheetId="1" r:id="rId2"/>
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateCount="10000" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1101">
   <si>
     <t>Name</t>
   </si>
@@ -3214,54 +3214,9 @@
     <t>120_RED-</t>
   </si>
   <si>
-    <t>137_A</t>
-  </si>
-  <si>
-    <t>137_B</t>
-  </si>
-  <si>
-    <t>137_C</t>
-  </si>
-  <si>
     <t>HSR</t>
   </si>
   <si>
-    <t>SFG</t>
-  </si>
-  <si>
-    <t>SFSJ</t>
-  </si>
-  <si>
-    <t>SJG</t>
-  </si>
-  <si>
-    <t>SF - GILROY</t>
-  </si>
-  <si>
-    <t>SF - SAN JOSE</t>
-  </si>
-  <si>
-    <t>SAM JOSE - GILROY</t>
-  </si>
-  <si>
-    <t>HSR6</t>
-  </si>
-  <si>
-    <t>HSR4</t>
-  </si>
-  <si>
-    <t>HSR10</t>
-  </si>
-  <si>
-    <t>HSR 4 trains</t>
-  </si>
-  <si>
-    <t>HSR 6 trains</t>
-  </si>
-  <si>
-    <t>HSR 10 trains</t>
-  </si>
-  <si>
     <t>21_28RN</t>
   </si>
   <si>
@@ -3284,6 +3239,99 @@
   </si>
   <si>
     <t>GREEN LINE</t>
+  </si>
+  <si>
+    <t>Ferry GGT</t>
+  </si>
+  <si>
+    <t>Ferry Vallejo</t>
+  </si>
+  <si>
+    <t>VTA LRT2</t>
+  </si>
+  <si>
+    <t>OAC</t>
+  </si>
+  <si>
+    <t>SMART 2 car</t>
+  </si>
+  <si>
+    <t>eBart 2 car</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>BLUE-</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>GREEN-</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>ORANGE-</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>RED-</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>YELLOW1</t>
+  </si>
+  <si>
+    <t>YELLOW10</t>
+  </si>
+  <si>
+    <t>YELLOW11</t>
+  </si>
+  <si>
+    <t>YELLOW12</t>
+  </si>
+  <si>
+    <t>YELLOW13</t>
+  </si>
+  <si>
+    <t>YELLOW14</t>
+  </si>
+  <si>
+    <t>YELLOW2</t>
+  </si>
+  <si>
+    <t>YELLOW3</t>
+  </si>
+  <si>
+    <t>YELLOW4</t>
+  </si>
+  <si>
+    <t>YELLOW5</t>
+  </si>
+  <si>
+    <t>YELLOW6</t>
+  </si>
+  <si>
+    <t>YELLOW7</t>
+  </si>
+  <si>
+    <t>YELLOW8</t>
+  </si>
+  <si>
+    <t>YELLOW9</t>
+  </si>
+  <si>
+    <t>High Speed Rail Train</t>
+  </si>
+  <si>
+    <t>Ferry small</t>
   </si>
 </sst>
 </file>
@@ -3804,7 +3852,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3838,6 +3886,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4159,11 +4208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4185,708 +4234,719 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>935</v>
+      </c>
+      <c r="B6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>933</v>
+      </c>
+      <c r="B7" t="s">
+        <v>932</v>
+      </c>
+      <c r="C7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1031</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" t="s">
         <v>1030</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B10" t="s">
+        <v>927</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1029</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" t="s">
         <v>1028</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" t="s">
+        <v>924</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>923</v>
+      </c>
+      <c r="B15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C15" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>921</v>
+      </c>
+      <c r="B16" t="s">
+        <v>920</v>
+      </c>
+      <c r="C16" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>919</v>
+      </c>
+      <c r="B17" t="s">
+        <v>918</v>
+      </c>
+      <c r="C17" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>917</v>
+      </c>
+      <c r="B18" t="s">
+        <v>916</v>
+      </c>
+      <c r="C18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>915</v>
+      </c>
+      <c r="B19" t="s">
+        <v>914</v>
+      </c>
+      <c r="C19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>913</v>
+      </c>
+      <c r="B20" t="s">
+        <v>912</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>910</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>908</v>
+      </c>
+      <c r="B22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C32" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C34" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>999</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B36" t="s">
         <v>998</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>997</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B37" t="s">
         <v>996</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>995</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B38" t="s">
         <v>994</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>993</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B39" t="s">
         <v>992</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C39" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>991</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B40" t="s">
         <v>990</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>989</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B41" t="s">
         <v>988</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C41" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>987</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B42" t="s">
         <v>981</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C42" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>986</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B43" t="s">
         <v>985</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>984</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B44" t="s">
         <v>983</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C44" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>982</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B45" t="s">
         <v>981</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>980</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B46" t="s">
         <v>979</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>978</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B47" t="s">
         <v>977</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>976</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B48" t="s">
         <v>975</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>974</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B49" t="s">
         <v>973</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C49" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>972</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B50" t="s">
         <v>971</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C50" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>970</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B51" t="s">
         <v>969</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C51" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>968</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B52" t="s">
         <v>967</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>966</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B53" t="s">
         <v>965</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C53" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>964</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B54" t="s">
         <v>963</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>962</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B55" t="s">
         <v>960</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>961</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B56" t="s">
         <v>960</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C56" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>959</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B57" t="s">
         <v>958</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C57" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>957</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B58" t="s">
         <v>955</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C58" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>956</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B59" t="s">
         <v>955</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C59" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>954</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B60" t="s">
         <v>953</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>952</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B61" t="s">
         <v>951</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C61" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>950</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B62" t="s">
         <v>949</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>948</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B63" t="s">
         <v>944</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>947</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B64" t="s">
         <v>946</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C64" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>945</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B65" t="s">
         <v>944</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C65" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1064</v>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -4897,11 +4957,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E494" sqref="E494"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F496" sqref="F496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5004,13 +5064,11 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <f>RIGHT($A9,LEN($A9)-FIND("_",$A9))</f>
-        <v>BLUE</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f>C9</f>
-        <v>BLUE</v>
+      <c r="C9" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1076</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -5032,13 +5090,11 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <f>RIGHT($A10,LEN($A10)-FIND("_",$A10))</f>
-        <v>BLUE-</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f>C10</f>
-        <v>BLUE-</v>
+      <c r="C10" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1077</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -5060,13 +5116,11 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" ref="C11:C31" si="0">RIGHT($A11,LEN($A11)-FIND("_",$A11))</f>
-        <v>GREEN</v>
-      </c>
-      <c r="D11" s="10" t="str">
-        <f t="shared" ref="D11:D31" si="1">C11</f>
-        <v>GREEN</v>
+      <c r="C11" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1078</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
@@ -5088,13 +5142,11 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>GREEN-</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>GREEN-</v>
+      <c r="C12" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1079</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -5116,13 +5168,11 @@
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ORANGE</v>
-      </c>
-      <c r="D13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>ORANGE</v>
+      <c r="C13" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1080</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -5144,13 +5194,11 @@
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ORANGE-</v>
-      </c>
-      <c r="D14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>ORANGE-</v>
+      <c r="C14" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1081</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -5172,13 +5220,11 @@
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>RED</v>
-      </c>
-      <c r="D15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>RED</v>
+      <c r="C15" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1082</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
@@ -5200,13 +5246,11 @@
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>RED-</v>
-      </c>
-      <c r="D16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>RED-</v>
+      <c r="C16" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1083</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -5228,13 +5272,11 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW</v>
-      </c>
-      <c r="D17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW</v>
+      <c r="C17" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1084</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -5256,13 +5298,11 @@
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW1</v>
-      </c>
-      <c r="D18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW1</v>
+      <c r="C18" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1085</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -5284,13 +5324,11 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW10</v>
-      </c>
-      <c r="D19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW10</v>
+      <c r="C19" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1086</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -5312,13 +5350,11 @@
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW11</v>
-      </c>
-      <c r="D20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW11</v>
+      <c r="C20" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1087</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -5340,13 +5376,11 @@
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW12</v>
-      </c>
-      <c r="D21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW12</v>
+      <c r="C21" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>1088</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -5368,13 +5402,11 @@
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW13</v>
-      </c>
-      <c r="D22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW13</v>
+      <c r="C22" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1089</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
@@ -5396,13 +5428,11 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW14</v>
-      </c>
-      <c r="D23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW14</v>
+      <c r="C23" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1090</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -5424,13 +5454,11 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW2</v>
-      </c>
-      <c r="D24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW2</v>
+      <c r="C24" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1091</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -5452,13 +5480,11 @@
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW3</v>
-      </c>
-      <c r="D25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW3</v>
+      <c r="C25" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
@@ -5480,13 +5506,11 @@
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW4</v>
-      </c>
-      <c r="D26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW4</v>
+      <c r="C26" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1093</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -5508,13 +5532,11 @@
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW5</v>
-      </c>
-      <c r="D27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW5</v>
+      <c r="C27" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1094</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -5536,13 +5558,11 @@
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW6</v>
-      </c>
-      <c r="D28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW6</v>
+      <c r="C28" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1095</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>31</v>
@@ -5564,13 +5584,11 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW7</v>
-      </c>
-      <c r="D29" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW7</v>
+      <c r="C29" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1096</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>31</v>
@@ -5592,13 +5610,11 @@
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW8</v>
-      </c>
-      <c r="D30" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW8</v>
+      <c r="C30" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1097</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>31</v>
@@ -5620,13 +5636,11 @@
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YELLOW9</v>
-      </c>
-      <c r="D31" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>YELLOW9</v>
+      <c r="C31" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1098</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>31</v>
@@ -5857,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="7" t="str">
-        <f t="shared" ref="C40:C41" si="2">RIGHT($A40,LEN($A40)-FIND("_",$A40))</f>
+        <f t="shared" ref="C40:C41" si="0">RIGHT($A40,LEN($A40)-FIND("_",$A40))</f>
         <v>KXNB</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -5884,7 +5898,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>KXSB</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -6327,7 +6341,7 @@
         <v>32</v>
       </c>
       <c r="C58" s="7" t="str">
-        <f t="shared" ref="C58:C62" si="3">RIGHT($A58,LEN($A58)-FIND("_",$A58))</f>
+        <f t="shared" ref="C58:C62" si="1">RIGHT($A58,LEN($A58)-FIND("_",$A58))</f>
         <v>295NB</v>
       </c>
       <c r="D58" s="13">
@@ -6354,7 +6368,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>295SB</v>
       </c>
       <c r="D59" s="13">
@@ -6381,7 +6395,7 @@
         <v>32</v>
       </c>
       <c r="C60" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>296NB</v>
       </c>
       <c r="D60" s="13">
@@ -6434,7 +6448,7 @@
         <v>32</v>
       </c>
       <c r="C62" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>297NB</v>
       </c>
       <c r="D62" s="13">
@@ -8229,7 +8243,7 @@
         <v>203</v>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" ref="C131:C208" si="4">RIGHT($A131,LEN($A131)-FIND("_",$A131))</f>
+        <f t="shared" ref="C131:C208" si="2">RIGHT($A131,LEN($A131)-FIND("_",$A131))</f>
         <v>108</v>
       </c>
       <c r="D131" s="11">
@@ -8256,7 +8270,7 @@
         <v>203</v>
       </c>
       <c r="C132" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>108AM</v>
       </c>
       <c r="D132" s="9">
@@ -8283,7 +8297,7 @@
         <v>203</v>
       </c>
       <c r="C133" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>108I</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -8310,7 +8324,7 @@
         <v>203</v>
       </c>
       <c r="C134" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>108O</v>
       </c>
       <c r="D134" s="9" t="s">
@@ -8337,7 +8351,7 @@
         <v>203</v>
       </c>
       <c r="C135" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>108PM</v>
       </c>
       <c r="D135" s="9">
@@ -8364,7 +8378,7 @@
         <v>203</v>
       </c>
       <c r="C136" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>109I</v>
       </c>
       <c r="D136" s="9">
@@ -8391,7 +8405,7 @@
         <v>203</v>
       </c>
       <c r="C137" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>109O</v>
       </c>
       <c r="D137" s="9">
@@ -8418,7 +8432,7 @@
         <v>203</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10IN</v>
       </c>
       <c r="D138" s="16" t="s">
@@ -8445,7 +8459,7 @@
         <v>203</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10OUT</v>
       </c>
       <c r="D139" s="16" t="s">
@@ -8472,7 +8486,7 @@
         <v>203</v>
       </c>
       <c r="C140" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11I</v>
       </c>
       <c r="D140" s="9">
@@ -8499,7 +8513,7 @@
         <v>203</v>
       </c>
       <c r="C141" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11O</v>
       </c>
       <c r="D141" s="9">
@@ -8526,7 +8540,7 @@
         <v>203</v>
       </c>
       <c r="C142" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12EVEI</v>
       </c>
       <c r="D142" s="9">
@@ -8553,7 +8567,7 @@
         <v>203</v>
       </c>
       <c r="C143" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12EVEO</v>
       </c>
       <c r="D143" s="9">
@@ -8580,7 +8594,7 @@
         <v>203</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12IN</v>
       </c>
       <c r="D144" s="16">
@@ -8607,7 +8621,7 @@
         <v>203</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12OUT</v>
       </c>
       <c r="D145" s="16">
@@ -8634,7 +8648,7 @@
         <v>203</v>
       </c>
       <c r="C146" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12PACI</v>
       </c>
       <c r="D146" s="9">
@@ -8661,7 +8675,7 @@
         <v>203</v>
       </c>
       <c r="C147" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12PACO</v>
       </c>
       <c r="D147" s="9">
@@ -8688,7 +8702,7 @@
         <v>203</v>
       </c>
       <c r="C148" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12SHTI</v>
       </c>
       <c r="D148" s="9" t="s">
@@ -8715,7 +8729,7 @@
         <v>203</v>
       </c>
       <c r="C149" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12SHTO</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -8742,7 +8756,7 @@
         <v>203</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14IN</v>
       </c>
       <c r="D150" s="16">
@@ -8769,7 +8783,7 @@
         <v>203</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14INA</v>
       </c>
       <c r="D151" s="16">
@@ -8796,7 +8810,7 @@
         <v>203</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14INB</v>
       </c>
       <c r="D152" s="16">
@@ -8823,7 +8837,7 @@
         <v>203</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14INC</v>
       </c>
       <c r="D153" s="16">
@@ -8877,7 +8891,7 @@
         <v>203</v>
       </c>
       <c r="C155" s="3" t="str">
-        <f t="shared" ref="C155:C157" si="5">RIGHT($A155,LEN($A155)-FIND("_",$A155))</f>
+        <f t="shared" ref="C155:C157" si="3">RIGHT($A155,LEN($A155)-FIND("_",$A155))</f>
         <v>14OUTA</v>
       </c>
       <c r="D155" s="16">
@@ -8904,7 +8918,7 @@
         <v>203</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14OUTB</v>
       </c>
       <c r="D156" s="16">
@@ -8931,7 +8945,7 @@
         <v>203</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14OUTC</v>
       </c>
       <c r="D157" s="16">
@@ -8958,7 +8972,7 @@
         <v>203</v>
       </c>
       <c r="C158" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14LI</v>
       </c>
       <c r="D158" s="9" t="s">
@@ -8985,7 +8999,7 @@
         <v>203</v>
       </c>
       <c r="C159" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14LO</v>
       </c>
       <c r="D159" s="9" t="s">
@@ -9012,7 +9026,7 @@
         <v>203</v>
       </c>
       <c r="C160" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14SHORTI</v>
       </c>
       <c r="D160" s="9" t="s">
@@ -9039,7 +9053,7 @@
         <v>203</v>
       </c>
       <c r="C161" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14SHORTO</v>
       </c>
       <c r="D161" s="9" t="s">
@@ -9066,7 +9080,7 @@
         <v>203</v>
       </c>
       <c r="C162" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14RIN</v>
       </c>
       <c r="D162" s="16" t="s">
@@ -9093,7 +9107,7 @@
         <v>203</v>
       </c>
       <c r="C163" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14ROUT</v>
       </c>
       <c r="D163" s="16" t="s">
@@ -9147,7 +9161,7 @@
         <v>203</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14XIN</v>
       </c>
       <c r="D165" s="16" t="s">
@@ -9174,7 +9188,7 @@
         <v>203</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14XOUT</v>
       </c>
       <c r="D166" s="16" t="s">
@@ -9201,7 +9215,7 @@
         <v>203</v>
       </c>
       <c r="C167" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15I</v>
       </c>
       <c r="D167" s="9">
@@ -9228,7 +9242,7 @@
         <v>203</v>
       </c>
       <c r="C168" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15O</v>
       </c>
       <c r="D168" s="9">
@@ -9255,7 +9269,7 @@
         <v>203</v>
       </c>
       <c r="C169" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16AXI</v>
       </c>
       <c r="D169" s="9" t="s">
@@ -9282,7 +9296,7 @@
         <v>203</v>
       </c>
       <c r="C170" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16AXO</v>
       </c>
       <c r="D170" s="9" t="s">
@@ -9309,7 +9323,7 @@
         <v>203</v>
       </c>
       <c r="C171" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16BXI</v>
       </c>
       <c r="D171" s="9" t="s">
@@ -9336,7 +9350,7 @@
         <v>203</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16BXO</v>
       </c>
       <c r="D172" s="9" t="s">
@@ -9363,7 +9377,7 @@
         <v>203</v>
       </c>
       <c r="C173" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16XI</v>
       </c>
       <c r="D173" s="9" t="s">
@@ -9390,7 +9404,7 @@
         <v>203</v>
       </c>
       <c r="C174" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16XO</v>
       </c>
       <c r="D174" s="9" t="s">
@@ -9417,7 +9431,7 @@
         <v>203</v>
       </c>
       <c r="C175" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17I</v>
       </c>
       <c r="D175" s="9" t="s">
@@ -9444,7 +9458,7 @@
         <v>203</v>
       </c>
       <c r="C176" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17O</v>
       </c>
       <c r="D176" s="9" t="s">
@@ -9471,7 +9485,7 @@
         <v>203</v>
       </c>
       <c r="C177" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D177" s="16">
@@ -9498,7 +9512,7 @@
         <v>203</v>
       </c>
       <c r="C178" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18I</v>
       </c>
       <c r="D178" s="9">
@@ -9525,7 +9539,7 @@
         <v>203</v>
       </c>
       <c r="C179" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18O</v>
       </c>
       <c r="D179" s="9">
@@ -9552,7 +9566,7 @@
         <v>203</v>
       </c>
       <c r="C180" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19EVEI</v>
       </c>
       <c r="D180" s="9">
@@ -9579,7 +9593,7 @@
         <v>203</v>
       </c>
       <c r="C181" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19EVEO</v>
       </c>
       <c r="D181" s="9">
@@ -9606,7 +9620,7 @@
         <v>203</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19NB</v>
       </c>
       <c r="D182" s="16">
@@ -9633,7 +9647,7 @@
         <v>203</v>
       </c>
       <c r="C183" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19SB</v>
       </c>
       <c r="D183" s="16">
@@ -9660,7 +9674,7 @@
         <v>203</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19SHTI</v>
       </c>
       <c r="D184" s="9">
@@ -9687,7 +9701,7 @@
         <v>203</v>
       </c>
       <c r="C185" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19SHTO</v>
       </c>
       <c r="D185" s="9">
@@ -9714,7 +9728,7 @@
         <v>203</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1AXIN</v>
       </c>
       <c r="D186" s="16" t="s">
@@ -9741,7 +9755,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1AXOUT</v>
       </c>
       <c r="D187" s="16" t="s">
@@ -9768,7 +9782,7 @@
         <v>203</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1BXIN</v>
       </c>
       <c r="D188" s="16" t="s">
@@ -9795,7 +9809,7 @@
         <v>203</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1BXOUT</v>
       </c>
       <c r="D189" s="16" t="s">
@@ -9822,7 +9836,7 @@
         <v>203</v>
       </c>
       <c r="C190" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1CRNI</v>
       </c>
       <c r="D190" s="9">
@@ -9849,7 +9863,7 @@
         <v>203</v>
       </c>
       <c r="C191" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1CRNO</v>
       </c>
       <c r="D191" s="9">
@@ -9876,7 +9890,7 @@
         <v>203</v>
       </c>
       <c r="C192" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1DPRSI</v>
       </c>
       <c r="D192" s="9">
@@ -9903,7 +9917,7 @@
         <v>203</v>
       </c>
       <c r="C193" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1DPRSO</v>
       </c>
       <c r="D193" s="9">
@@ -9930,7 +9944,7 @@
         <v>203</v>
       </c>
       <c r="C194" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1DRMI</v>
       </c>
       <c r="D194" s="9">
@@ -9957,7 +9971,7 @@
         <v>203</v>
       </c>
       <c r="C195" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1DRMO</v>
       </c>
       <c r="D195" s="9">
@@ -9984,7 +9998,7 @@
         <v>203</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1IN</v>
       </c>
       <c r="D196" s="16">
@@ -10011,7 +10025,7 @@
         <v>203</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1INA</v>
       </c>
       <c r="D197" s="16">
@@ -10038,7 +10052,7 @@
         <v>203</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1INB</v>
       </c>
       <c r="D198" s="16">
@@ -10065,7 +10079,7 @@
         <v>203</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1OUT</v>
       </c>
       <c r="D199" s="16">
@@ -10092,7 +10106,7 @@
         <v>203</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1OUTA</v>
       </c>
       <c r="D200" s="16">
@@ -10119,7 +10133,7 @@
         <v>203</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1OUTB</v>
       </c>
       <c r="D201" s="16">
@@ -10146,7 +10160,7 @@
         <v>203</v>
       </c>
       <c r="C202" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1PRSI</v>
       </c>
       <c r="D202" s="9" t="s">
@@ -10173,7 +10187,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1PRSO</v>
       </c>
       <c r="D203" s="9" t="s">
@@ -10200,7 +10214,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1SHORTI</v>
       </c>
       <c r="D204" s="9" t="s">
@@ -10227,7 +10241,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1SHORTO</v>
       </c>
       <c r="D205" s="9" t="s">
@@ -10254,7 +10268,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1STNI</v>
       </c>
       <c r="D206" s="9">
@@ -10281,7 +10295,7 @@
         <v>203</v>
       </c>
       <c r="C207" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1STNO</v>
       </c>
       <c r="D207" s="9">
@@ -10308,7 +10322,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20I</v>
       </c>
       <c r="D208" s="9">
@@ -10335,7 +10349,7 @@
         <v>203</v>
       </c>
       <c r="C209" s="1" t="str">
-        <f t="shared" ref="C209:C281" si="6">RIGHT($A209,LEN($A209)-FIND("_",$A209))</f>
+        <f t="shared" ref="C209:C281" si="4">RIGHT($A209,LEN($A209)-FIND("_",$A209))</f>
         <v>20O</v>
       </c>
       <c r="D209" s="9">
@@ -10362,7 +10376,7 @@
         <v>203</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>21IN</v>
       </c>
       <c r="D210" s="16">
@@ -10389,7 +10403,7 @@
         <v>203</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>21OUT</v>
       </c>
       <c r="D211" s="16">
@@ -10416,7 +10430,7 @@
         <v>203</v>
       </c>
       <c r="C212" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D212" s="16">
@@ -10443,7 +10457,7 @@
         <v>203</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22IN</v>
       </c>
       <c r="D213" s="16" t="s">
@@ -10470,7 +10484,7 @@
         <v>203</v>
       </c>
       <c r="C214" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22OUT</v>
       </c>
       <c r="D214" s="16" t="s">
@@ -10497,7 +10511,7 @@
         <v>203</v>
       </c>
       <c r="C215" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22SHI</v>
       </c>
       <c r="D215" s="9" t="s">
@@ -10524,7 +10538,7 @@
         <v>203</v>
       </c>
       <c r="C216" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22SHO</v>
       </c>
       <c r="D216" s="9" t="s">
@@ -10605,7 +10619,7 @@
         <v>203</v>
       </c>
       <c r="C219" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>23I</v>
       </c>
       <c r="D219" s="9" t="s">
@@ -10632,7 +10646,7 @@
         <v>203</v>
       </c>
       <c r="C220" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>23O</v>
       </c>
       <c r="D220" s="9" t="s">
@@ -10659,7 +10673,7 @@
         <v>203</v>
       </c>
       <c r="C221" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24EAI</v>
       </c>
       <c r="D221" s="9" t="s">
@@ -10686,7 +10700,7 @@
         <v>203</v>
       </c>
       <c r="C222" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24EAO</v>
       </c>
       <c r="D222" s="9" t="s">
@@ -10713,7 +10727,7 @@
         <v>203</v>
       </c>
       <c r="C223" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D223" s="16">
@@ -10740,7 +10754,7 @@
         <v>203</v>
       </c>
       <c r="C224" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24-</v>
       </c>
       <c r="D224" s="16">
@@ -10767,7 +10781,7 @@
         <v>203</v>
       </c>
       <c r="C225" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24I</v>
       </c>
       <c r="D225" s="9" t="s">
@@ -10794,7 +10808,7 @@
         <v>203</v>
       </c>
       <c r="C226" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24O</v>
       </c>
       <c r="D226" s="12" t="s">
@@ -10821,7 +10835,7 @@
         <v>203</v>
       </c>
       <c r="C227" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>25EB</v>
       </c>
       <c r="D227" s="13">
@@ -10848,7 +10862,7 @@
         <v>203</v>
       </c>
       <c r="C228" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>25WB</v>
       </c>
       <c r="D228" s="16">
@@ -10875,7 +10889,7 @@
         <v>203</v>
       </c>
       <c r="C229" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>26EVEI</v>
       </c>
       <c r="D229" s="9">
@@ -10902,7 +10916,7 @@
         <v>203</v>
       </c>
       <c r="C230" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>26EVEO</v>
       </c>
       <c r="D230" s="9">
@@ -10929,7 +10943,7 @@
         <v>203</v>
       </c>
       <c r="C231" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>26I</v>
       </c>
       <c r="D231" s="9">
@@ -10956,7 +10970,7 @@
         <v>203</v>
       </c>
       <c r="C232" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>26O</v>
       </c>
       <c r="D232" s="9">
@@ -10983,7 +10997,7 @@
         <v>203</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>27IN</v>
       </c>
       <c r="D233" s="16">
@@ -11010,7 +11024,7 @@
         <v>203</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>27INA</v>
       </c>
       <c r="D234" s="16">
@@ -11037,7 +11051,7 @@
         <v>203</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>27OUT</v>
       </c>
       <c r="D235" s="16">
@@ -11064,7 +11078,7 @@
         <v>203</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28NB</v>
       </c>
       <c r="D236" s="16" t="s">
@@ -11091,7 +11105,7 @@
         <v>203</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28SB</v>
       </c>
       <c r="D237" s="16" t="s">
@@ -11112,13 +11126,13 @@
     </row>
     <row r="238" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28RN</v>
       </c>
       <c r="D238" s="16" t="s">
@@ -11139,13 +11153,13 @@
     </row>
     <row r="239" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28RS</v>
       </c>
       <c r="D239" s="16" t="s">
@@ -11172,7 +11186,7 @@
         <v>203</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D240" s="16">
@@ -11199,7 +11213,7 @@
         <v>203</v>
       </c>
       <c r="C241" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>29SHI</v>
       </c>
       <c r="D241" s="9">
@@ -11226,7 +11240,7 @@
         <v>203</v>
       </c>
       <c r="C242" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>29SHO</v>
       </c>
       <c r="D242" s="9">
@@ -11253,7 +11267,7 @@
         <v>203</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2IN</v>
       </c>
       <c r="D243" s="16">
@@ -11280,7 +11294,7 @@
         <v>203</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2INA</v>
       </c>
       <c r="D244" s="16">
@@ -11307,7 +11321,7 @@
         <v>203</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2INB</v>
       </c>
       <c r="D245" s="16">
@@ -11334,7 +11348,7 @@
         <v>203</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2OUT</v>
       </c>
       <c r="D246" s="16">
@@ -11361,7 +11375,7 @@
         <v>203</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2OUTA</v>
       </c>
       <c r="D247" s="16">
@@ -11388,7 +11402,7 @@
         <v>203</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30IN</v>
       </c>
       <c r="D248" s="16">
@@ -11415,7 +11429,7 @@
         <v>203</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30INA</v>
       </c>
       <c r="D249" s="16">
@@ -11442,7 +11456,7 @@
         <v>203</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30INB</v>
       </c>
       <c r="D250" s="16">
@@ -11469,7 +11483,7 @@
         <v>203</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30INC</v>
       </c>
       <c r="D251" s="16">
@@ -11496,7 +11510,7 @@
         <v>203</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30OUT</v>
       </c>
       <c r="D252" s="16">
@@ -11523,7 +11537,7 @@
         <v>203</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30OUTA</v>
       </c>
       <c r="D253" s="16">
@@ -11550,7 +11564,7 @@
         <v>203</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30OUTB</v>
       </c>
       <c r="D254" s="16">
@@ -11577,7 +11591,7 @@
         <v>203</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30OUTC</v>
       </c>
       <c r="D255" s="16">
@@ -11604,7 +11618,7 @@
         <v>203</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30XIN</v>
       </c>
       <c r="D256" s="16" t="s">
@@ -11631,7 +11645,7 @@
         <v>203</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30XOUT</v>
       </c>
       <c r="D257" s="16" t="s">
@@ -11658,7 +11672,7 @@
         <v>203</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31AXIN</v>
       </c>
       <c r="D258" s="16" t="s">
@@ -11685,7 +11699,7 @@
         <v>203</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31AXOUT</v>
       </c>
       <c r="D259" s="16" t="s">
@@ -11712,7 +11726,7 @@
         <v>203</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31BXIN</v>
       </c>
       <c r="D260" s="16" t="s">
@@ -11739,7 +11753,7 @@
         <v>203</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31BXOUT</v>
       </c>
       <c r="D261" s="16" t="s">
@@ -11766,7 +11780,7 @@
         <v>203</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31IN</v>
       </c>
       <c r="D262" s="16">
@@ -11793,7 +11807,7 @@
         <v>203</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31INA</v>
       </c>
       <c r="D263" s="16">
@@ -11820,7 +11834,7 @@
         <v>203</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31OUT</v>
       </c>
       <c r="D264" s="16">
@@ -11847,7 +11861,7 @@
         <v>203</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>31OUTA</v>
       </c>
       <c r="D265" s="16">
@@ -11874,7 +11888,7 @@
         <v>203</v>
       </c>
       <c r="C266" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32I</v>
       </c>
       <c r="D266" s="9">
@@ -11901,7 +11915,7 @@
         <v>203</v>
       </c>
       <c r="C267" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32O</v>
       </c>
       <c r="D267" s="9">
@@ -11928,7 +11942,7 @@
         <v>203</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D268" s="16">
@@ -11955,7 +11969,7 @@
         <v>203</v>
       </c>
       <c r="C269" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33I</v>
       </c>
       <c r="D269" s="9">
@@ -11982,7 +11996,7 @@
         <v>203</v>
       </c>
       <c r="C270" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33O</v>
       </c>
       <c r="D270" s="9">
@@ -12009,7 +12023,7 @@
         <v>203</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D271" s="16">
@@ -12036,7 +12050,7 @@
         <v>203</v>
       </c>
       <c r="C272" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35I</v>
       </c>
       <c r="D272" s="9">
@@ -12063,7 +12077,7 @@
         <v>203</v>
       </c>
       <c r="C273" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>35O</v>
       </c>
       <c r="D273" s="9">
@@ -12090,7 +12104,7 @@
         <v>203</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D274" s="16">
@@ -12117,7 +12131,7 @@
         <v>203</v>
       </c>
       <c r="C275" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>36I</v>
       </c>
       <c r="D275" s="9" t="s">
@@ -12144,7 +12158,7 @@
         <v>203</v>
       </c>
       <c r="C276" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>36O</v>
       </c>
       <c r="D276" s="9" t="s">
@@ -12171,7 +12185,7 @@
         <v>203</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D277" s="16">
@@ -12198,7 +12212,7 @@
         <v>203</v>
       </c>
       <c r="C278" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>37I</v>
       </c>
       <c r="D278" s="9">
@@ -12225,7 +12239,7 @@
         <v>203</v>
       </c>
       <c r="C279" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>37O</v>
       </c>
       <c r="D279" s="9">
@@ -12252,7 +12266,7 @@
         <v>203</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>38AXIN</v>
       </c>
       <c r="D280" s="16" t="s">
@@ -12279,7 +12293,7 @@
         <v>203</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>38AXOUT</v>
       </c>
       <c r="D281" s="16" t="s">
@@ -12333,7 +12347,7 @@
         <v>203</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" ref="C283:C349" si="7">RIGHT($A283,LEN($A283)-FIND("_",$A283))</f>
+        <f t="shared" ref="C283:C349" si="5">RIGHT($A283,LEN($A283)-FIND("_",$A283))</f>
         <v>38BXOUT</v>
       </c>
       <c r="D283" s="16" t="s">
@@ -12360,7 +12374,7 @@
         <v>203</v>
       </c>
       <c r="C284" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38FTMI</v>
       </c>
       <c r="D284" s="9" t="s">
@@ -12387,7 +12401,7 @@
         <v>203</v>
       </c>
       <c r="C285" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38FTMO</v>
       </c>
       <c r="D285" s="9" t="s">
@@ -12414,7 +12428,7 @@
         <v>203</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38IN</v>
       </c>
       <c r="D286" s="16">
@@ -12441,7 +12455,7 @@
         <v>203</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38INA</v>
       </c>
       <c r="D287" s="16">
@@ -12522,7 +12536,7 @@
         <v>203</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38RIN</v>
       </c>
       <c r="D290" s="16">
@@ -12549,7 +12563,7 @@
         <v>203</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38ROUT</v>
       </c>
       <c r="D291" s="16">
@@ -12576,7 +12590,7 @@
         <v>203</v>
       </c>
       <c r="C292" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38LI</v>
       </c>
       <c r="D292" s="9" t="s">
@@ -12630,7 +12644,7 @@
         <v>203</v>
       </c>
       <c r="C294" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38PTLI</v>
       </c>
       <c r="D294" s="9" t="s">
@@ -12657,7 +12671,7 @@
         <v>203</v>
       </c>
       <c r="C295" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38PTLO</v>
       </c>
       <c r="D295" s="9" t="s">
@@ -12684,7 +12698,7 @@
         <v>203</v>
       </c>
       <c r="C296" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38SHTI</v>
       </c>
       <c r="D296" s="9">
@@ -12711,7 +12725,7 @@
         <v>203</v>
       </c>
       <c r="C297" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38SHTO</v>
       </c>
       <c r="D297" s="9">
@@ -12738,7 +12752,7 @@
         <v>203</v>
       </c>
       <c r="C298" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38XI</v>
       </c>
       <c r="D298" s="9" t="s">
@@ -12765,7 +12779,7 @@
         <v>203</v>
       </c>
       <c r="C299" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38XO</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -12792,7 +12806,7 @@
         <v>203</v>
       </c>
       <c r="C300" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38_33RDI</v>
       </c>
       <c r="D300" s="9" t="s">
@@ -12819,7 +12833,7 @@
         <v>203</v>
       </c>
       <c r="C301" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38_33RDO</v>
       </c>
       <c r="D301" s="9" t="s">
@@ -12846,7 +12860,7 @@
         <v>203</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39IN</v>
       </c>
       <c r="D302" s="16">
@@ -12873,7 +12887,7 @@
         <v>203</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39OUT</v>
       </c>
       <c r="D303" s="16">
@@ -12900,7 +12914,7 @@
         <v>203</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3IN</v>
       </c>
       <c r="D304" s="16">
@@ -12927,7 +12941,7 @@
         <v>203</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3OUT</v>
       </c>
       <c r="D305" s="16">
@@ -12954,7 +12968,7 @@
         <v>203</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>41IN</v>
       </c>
       <c r="D306" s="16">
@@ -12981,7 +12995,7 @@
         <v>203</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>41OUT</v>
       </c>
       <c r="D307" s="16">
@@ -13008,7 +13022,7 @@
         <v>203</v>
       </c>
       <c r="C308" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42I</v>
       </c>
       <c r="D308" s="9">
@@ -13035,7 +13049,7 @@
         <v>203</v>
       </c>
       <c r="C309" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42O</v>
       </c>
       <c r="D309" s="9">
@@ -13062,7 +13076,7 @@
         <v>203</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D310" s="16">
@@ -13089,7 +13103,7 @@
         <v>203</v>
       </c>
       <c r="C311" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43I</v>
       </c>
       <c r="D311" s="9">
@@ -13116,7 +13130,7 @@
         <v>203</v>
       </c>
       <c r="C312" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43O</v>
       </c>
       <c r="D312" s="9">
@@ -13143,7 +13157,7 @@
         <v>203</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="D313" s="16">
@@ -13170,7 +13184,7 @@
         <v>203</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44EVE</v>
       </c>
       <c r="D314" s="16">
@@ -13197,7 +13211,7 @@
         <v>203</v>
       </c>
       <c r="C315" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44I</v>
       </c>
       <c r="D315" s="9">
@@ -13224,7 +13238,7 @@
         <v>203</v>
       </c>
       <c r="C316" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44O</v>
       </c>
       <c r="D316" s="9">
@@ -13251,7 +13265,7 @@
         <v>203</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45IN</v>
       </c>
       <c r="D317" s="16">
@@ -13278,7 +13292,7 @@
         <v>203</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45OUT</v>
       </c>
       <c r="D318" s="16">
@@ -13305,7 +13319,7 @@
         <v>203</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>47NB</v>
       </c>
       <c r="D319" s="16">
@@ -13332,7 +13346,7 @@
         <v>203</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>47SB</v>
       </c>
       <c r="D320" s="16">
@@ -13359,7 +13373,7 @@
         <v>203</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48EB</v>
       </c>
       <c r="D321" s="16">
@@ -13386,7 +13400,7 @@
         <v>203</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48EB1</v>
       </c>
       <c r="D322" s="16">
@@ -13413,7 +13427,7 @@
         <v>203</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48EB2</v>
       </c>
       <c r="D323" s="16">
@@ -13440,7 +13454,7 @@
         <v>203</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48WB</v>
       </c>
       <c r="D324" s="16">
@@ -13467,7 +13481,7 @@
         <v>203</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48WB1</v>
       </c>
       <c r="D325" s="16">
@@ -13494,7 +13508,7 @@
         <v>203</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48WB2</v>
       </c>
       <c r="D326" s="16">
@@ -13521,7 +13535,7 @@
         <v>203</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49NB</v>
       </c>
       <c r="D327" s="16">
@@ -13548,7 +13562,7 @@
         <v>203</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49SB</v>
       </c>
       <c r="D328" s="16">
@@ -13575,7 +13589,7 @@
         <v>203</v>
       </c>
       <c r="C329" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49LI</v>
       </c>
       <c r="D329" s="9" t="s">
@@ -13602,7 +13616,7 @@
         <v>203</v>
       </c>
       <c r="C330" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49LO</v>
       </c>
       <c r="D330" s="9" t="s">
@@ -13629,7 +13643,7 @@
         <v>203</v>
       </c>
       <c r="C331" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4I</v>
       </c>
       <c r="D331" s="9">
@@ -13656,7 +13670,7 @@
         <v>203</v>
       </c>
       <c r="C332" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4O</v>
       </c>
       <c r="D332" s="9">
@@ -13683,7 +13697,7 @@
         <v>203</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="D333" s="16">
@@ -13710,7 +13724,7 @@
         <v>203</v>
       </c>
       <c r="C334" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52I</v>
       </c>
       <c r="D334" s="9" t="s">
@@ -13737,7 +13751,7 @@
         <v>203</v>
       </c>
       <c r="C335" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52O</v>
       </c>
       <c r="D335" s="9" t="s">
@@ -13764,7 +13778,7 @@
         <v>203</v>
       </c>
       <c r="C336" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>53I</v>
       </c>
       <c r="D336" s="9">
@@ -13791,7 +13805,7 @@
         <v>203</v>
       </c>
       <c r="C337" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>53O</v>
       </c>
       <c r="D337" s="9">
@@ -13818,7 +13832,7 @@
         <v>203</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54EB</v>
       </c>
       <c r="D338" s="16">
@@ -13845,7 +13859,7 @@
         <v>203</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54WB</v>
       </c>
       <c r="D339" s="16">
@@ -13872,7 +13886,7 @@
         <v>203</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D340" s="16">
@@ -13899,7 +13913,7 @@
         <v>203</v>
       </c>
       <c r="C341" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>55I</v>
       </c>
       <c r="D341" s="9">
@@ -13926,7 +13940,7 @@
         <v>203</v>
       </c>
       <c r="C342" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>55O</v>
       </c>
       <c r="D342" s="9">
@@ -13953,7 +13967,7 @@
         <v>203</v>
       </c>
       <c r="C343" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>56CCW</v>
       </c>
       <c r="D343" s="9">
@@ -13980,7 +13994,7 @@
         <v>203</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D344" s="16">
@@ -14007,7 +14021,7 @@
         <v>203</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>57IN</v>
       </c>
       <c r="D345" s="16">
@@ -14034,7 +14048,7 @@
         <v>203</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>57OUT</v>
       </c>
       <c r="D346" s="16">
@@ -14061,7 +14075,7 @@
         <v>203</v>
       </c>
       <c r="C347" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>58I</v>
       </c>
       <c r="D347" s="9">
@@ -14088,7 +14102,7 @@
         <v>203</v>
       </c>
       <c r="C348" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>58O</v>
       </c>
       <c r="D348" s="9">
@@ -14115,7 +14129,7 @@
         <v>203</v>
       </c>
       <c r="C349" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>59I</v>
       </c>
       <c r="D349" s="9">
@@ -14142,7 +14156,7 @@
         <v>203</v>
       </c>
       <c r="C350" s="1" t="str">
-        <f t="shared" ref="C350:C426" si="8">RIGHT($A350,LEN($A350)-FIND("_",$A350))</f>
+        <f t="shared" ref="C350:C426" si="6">RIGHT($A350,LEN($A350)-FIND("_",$A350))</f>
         <v>59O</v>
       </c>
       <c r="D350" s="9">
@@ -14169,7 +14183,7 @@
         <v>203</v>
       </c>
       <c r="C351" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5EAI</v>
       </c>
       <c r="D351" s="9">
@@ -14196,7 +14210,7 @@
         <v>203</v>
       </c>
       <c r="C352" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5EAO</v>
       </c>
       <c r="D352" s="9">
@@ -14223,7 +14237,7 @@
         <v>203</v>
       </c>
       <c r="C353" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5EVEI</v>
       </c>
       <c r="D353" s="9">
@@ -14250,7 +14264,7 @@
         <v>203</v>
       </c>
       <c r="C354" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5EVEO</v>
       </c>
       <c r="D354" s="9">
@@ -14277,7 +14291,7 @@
         <v>203</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5IN</v>
       </c>
       <c r="D355" s="16">
@@ -14304,7 +14318,7 @@
         <v>203</v>
       </c>
       <c r="C356" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5INA</v>
       </c>
       <c r="D356" s="16">
@@ -14331,7 +14345,7 @@
         <v>203</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5INB</v>
       </c>
       <c r="D357" s="16">
@@ -14358,7 +14372,7 @@
         <v>203</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5INC</v>
       </c>
       <c r="D358" s="16">
@@ -14412,7 +14426,7 @@
         <v>203</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" ref="C360:C362" si="9">RIGHT($A360,LEN($A360)-FIND("_",$A360))</f>
+        <f t="shared" ref="C360:C362" si="7">RIGHT($A360,LEN($A360)-FIND("_",$A360))</f>
         <v>5OUTA</v>
       </c>
       <c r="D360" s="16">
@@ -14439,7 +14453,7 @@
         <v>203</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5OUTB</v>
       </c>
       <c r="D361" s="16">
@@ -14466,7 +14480,7 @@
         <v>203</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5OUTC</v>
       </c>
       <c r="D362" s="16">
@@ -14493,7 +14507,7 @@
         <v>203</v>
       </c>
       <c r="C363" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5LI</v>
       </c>
       <c r="D363" s="9" t="s">
@@ -14520,7 +14534,7 @@
         <v>203</v>
       </c>
       <c r="C364" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5LO</v>
       </c>
       <c r="D364" s="9" t="s">
@@ -14547,7 +14561,7 @@
         <v>203</v>
       </c>
       <c r="C365" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5RIN</v>
       </c>
       <c r="D365" s="16" t="s">
@@ -14574,7 +14588,7 @@
         <v>203</v>
       </c>
       <c r="C366" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5ROUT</v>
       </c>
       <c r="D366" s="16" t="s">
@@ -14601,7 +14615,7 @@
         <v>203</v>
       </c>
       <c r="C367" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>60I</v>
       </c>
       <c r="D367" s="9">
@@ -14628,7 +14642,7 @@
         <v>203</v>
       </c>
       <c r="C368" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>60O</v>
       </c>
       <c r="D368" s="9">
@@ -14655,7 +14669,7 @@
         <v>203</v>
       </c>
       <c r="C369" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D369" s="9">
@@ -14682,7 +14696,7 @@
         <v>203</v>
       </c>
       <c r="C370" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>61-</v>
       </c>
       <c r="D370" s="9">
@@ -14709,7 +14723,7 @@
         <v>203</v>
       </c>
       <c r="C371" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>66DTNI</v>
       </c>
       <c r="D371" s="9">
@@ -14736,7 +14750,7 @@
         <v>203</v>
       </c>
       <c r="C372" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>66DTNO</v>
       </c>
       <c r="D372" s="9">
@@ -14763,7 +14777,7 @@
         <v>203</v>
       </c>
       <c r="C373" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D373" s="16">
@@ -14790,7 +14804,7 @@
         <v>203</v>
       </c>
       <c r="C374" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>66I</v>
       </c>
       <c r="D374" s="9">
@@ -14817,7 +14831,7 @@
         <v>203</v>
       </c>
       <c r="C375" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>66O</v>
       </c>
       <c r="D375" s="9">
@@ -14844,7 +14858,7 @@
         <v>203</v>
       </c>
       <c r="C376" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D376" s="16">
@@ -14871,7 +14885,7 @@
         <v>203</v>
       </c>
       <c r="C377" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>67I</v>
       </c>
       <c r="D377" s="9">
@@ -14898,7 +14912,7 @@
         <v>203</v>
       </c>
       <c r="C378" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>67O</v>
       </c>
       <c r="D378" s="9">
@@ -14925,7 +14939,7 @@
         <v>203</v>
       </c>
       <c r="C379" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6IN</v>
       </c>
       <c r="D379" s="16">
@@ -14952,7 +14966,7 @@
         <v>203</v>
       </c>
       <c r="C380" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6OUT</v>
       </c>
       <c r="D380" s="16">
@@ -14979,7 +14993,7 @@
         <v>203</v>
       </c>
       <c r="C381" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6OUTA</v>
       </c>
       <c r="D381" s="16">
@@ -15006,7 +15020,7 @@
         <v>203</v>
       </c>
       <c r="C382" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71EVEI</v>
       </c>
       <c r="D382" s="9">
@@ -15033,7 +15047,7 @@
         <v>203</v>
       </c>
       <c r="C383" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71EVEO</v>
       </c>
       <c r="D383" s="9">
@@ -15060,7 +15074,7 @@
         <v>203</v>
       </c>
       <c r="C384" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71I</v>
       </c>
       <c r="D384" s="9" t="s">
@@ -15087,7 +15101,7 @@
         <v>203</v>
       </c>
       <c r="C385" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71LI</v>
       </c>
       <c r="D385" s="9" t="s">
@@ -15114,7 +15128,7 @@
         <v>203</v>
       </c>
       <c r="C386" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71LO</v>
       </c>
       <c r="D386" s="9" t="s">
@@ -15141,7 +15155,7 @@
         <v>203</v>
       </c>
       <c r="C387" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71O</v>
       </c>
       <c r="D387" s="9" t="s">
@@ -15168,7 +15182,7 @@
         <v>203</v>
       </c>
       <c r="C388" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7IN</v>
       </c>
       <c r="D388" s="16">
@@ -15195,7 +15209,7 @@
         <v>203</v>
       </c>
       <c r="C389" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7OUT</v>
       </c>
       <c r="D389" s="16">
@@ -15222,7 +15236,7 @@
         <v>203</v>
       </c>
       <c r="C390" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7RIN</v>
       </c>
       <c r="D390" s="16" t="s">
@@ -15249,7 +15263,7 @@
         <v>203</v>
       </c>
       <c r="C391" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7ROUT</v>
       </c>
       <c r="D391" s="16" t="s">
@@ -15276,7 +15290,7 @@
         <v>203</v>
       </c>
       <c r="C392" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7XIN</v>
       </c>
       <c r="D392" s="16" t="s">
@@ -15303,7 +15317,7 @@
         <v>203</v>
       </c>
       <c r="C393" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7XOUT</v>
       </c>
       <c r="D393" s="16" t="s">
@@ -15330,7 +15344,7 @@
         <v>203</v>
       </c>
       <c r="C394" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>80XI</v>
       </c>
       <c r="D394" s="9" t="s">
@@ -15357,7 +15371,7 @@
         <v>203</v>
       </c>
       <c r="C395" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>80XO</v>
       </c>
       <c r="D395" s="9" t="s">
@@ -15384,7 +15398,7 @@
         <v>203</v>
       </c>
       <c r="C396" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>81XI</v>
       </c>
       <c r="D396" s="16" t="s">
@@ -15411,7 +15425,7 @@
         <v>203</v>
       </c>
       <c r="C397" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>81XO</v>
       </c>
       <c r="D397" s="16" t="s">
@@ -15438,7 +15452,7 @@
         <v>203</v>
       </c>
       <c r="C398" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>82XI</v>
       </c>
       <c r="D398" s="16" t="s">
@@ -15465,7 +15479,7 @@
         <v>203</v>
       </c>
       <c r="C399" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>82XO</v>
       </c>
       <c r="D399" s="16" t="s">
@@ -15492,7 +15506,7 @@
         <v>203</v>
       </c>
       <c r="C400" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83I</v>
       </c>
       <c r="D400" s="9">
@@ -15519,7 +15533,7 @@
         <v>203</v>
       </c>
       <c r="C401" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83O</v>
       </c>
       <c r="D401" s="9">
@@ -15546,7 +15560,7 @@
         <v>203</v>
       </c>
       <c r="C402" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83XI</v>
       </c>
       <c r="D402" s="16" t="s">
@@ -15573,7 +15587,7 @@
         <v>203</v>
       </c>
       <c r="C403" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83XO</v>
       </c>
       <c r="D403" s="16" t="s">
@@ -15600,7 +15614,7 @@
         <v>203</v>
       </c>
       <c r="C404" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>88IN</v>
       </c>
       <c r="D404" s="16">
@@ -15627,7 +15641,7 @@
         <v>203</v>
       </c>
       <c r="C405" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>88OUT</v>
       </c>
       <c r="D405" s="16">
@@ -15654,7 +15668,7 @@
         <v>203</v>
       </c>
       <c r="C406" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="D406" s="9">
@@ -15681,7 +15695,7 @@
         <v>203</v>
       </c>
       <c r="C407" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>89-</v>
       </c>
       <c r="D407" s="9">
@@ -15708,7 +15722,7 @@
         <v>203</v>
       </c>
       <c r="C408" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8IN</v>
       </c>
       <c r="D408" s="16">
@@ -15735,7 +15749,7 @@
         <v>203</v>
       </c>
       <c r="C409" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8OUT</v>
       </c>
       <c r="D409" s="16">
@@ -15762,7 +15776,7 @@
         <v>203</v>
       </c>
       <c r="C410" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8AXIN</v>
       </c>
       <c r="D410" s="16" t="s">
@@ -15789,7 +15803,7 @@
         <v>203</v>
       </c>
       <c r="C411" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8AXOUT</v>
       </c>
       <c r="D411" s="16" t="s">
@@ -15816,7 +15830,7 @@
         <v>203</v>
       </c>
       <c r="C412" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8BXIN</v>
       </c>
       <c r="D412" s="16" t="s">
@@ -15843,7 +15857,7 @@
         <v>203</v>
       </c>
       <c r="C413" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8BXOUT</v>
       </c>
       <c r="D413" s="16" t="s">
@@ -15870,7 +15884,7 @@
         <v>203</v>
       </c>
       <c r="C414" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8XI</v>
       </c>
       <c r="D414" s="9" t="s">
@@ -15897,7 +15911,7 @@
         <v>203</v>
       </c>
       <c r="C415" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8XO</v>
       </c>
       <c r="D415" s="9" t="s">
@@ -15924,7 +15938,7 @@
         <v>203</v>
       </c>
       <c r="C416" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>90I</v>
       </c>
       <c r="D416" s="9" t="s">
@@ -15951,7 +15965,7 @@
         <v>203</v>
       </c>
       <c r="C417" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>90O</v>
       </c>
       <c r="D417" s="9" t="s">
@@ -15978,7 +15992,7 @@
         <v>203</v>
       </c>
       <c r="C418" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91AI</v>
       </c>
       <c r="D418" s="9" t="s">
@@ -16005,7 +16019,7 @@
         <v>203</v>
       </c>
       <c r="C419" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91AO</v>
       </c>
       <c r="D419" s="9" t="s">
@@ -16032,7 +16046,7 @@
         <v>203</v>
       </c>
       <c r="C420" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91BI</v>
       </c>
       <c r="D420" s="9" t="s">
@@ -16059,7 +16073,7 @@
         <v>203</v>
       </c>
       <c r="C421" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91BO</v>
       </c>
       <c r="D421" s="9" t="s">
@@ -16086,7 +16100,7 @@
         <v>203</v>
       </c>
       <c r="C422" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91I</v>
       </c>
       <c r="D422" s="16">
@@ -16113,7 +16127,7 @@
         <v>203</v>
       </c>
       <c r="C423" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91O</v>
       </c>
       <c r="D423" s="16">
@@ -16140,7 +16154,7 @@
         <v>203</v>
       </c>
       <c r="C424" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>94LI</v>
       </c>
       <c r="D424" s="9" t="s">
@@ -16167,7 +16181,7 @@
         <v>203</v>
       </c>
       <c r="C425" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>94LO</v>
       </c>
       <c r="D425" s="9" t="s">
@@ -16194,7 +16208,7 @@
         <v>203</v>
       </c>
       <c r="C426" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>94NI</v>
       </c>
       <c r="D426" s="9" t="s">
@@ -16221,7 +16235,7 @@
         <v>203</v>
       </c>
       <c r="C427" s="1" t="str">
-        <f t="shared" ref="C427:C453" si="10">RIGHT($A427,LEN($A427)-FIND("_",$A427))</f>
+        <f t="shared" ref="C427:C453" si="8">RIGHT($A427,LEN($A427)-FIND("_",$A427))</f>
         <v>94NO</v>
       </c>
       <c r="D427" s="9" t="s">
@@ -16248,7 +16262,7 @@
         <v>203</v>
       </c>
       <c r="C428" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9AXI</v>
       </c>
       <c r="D428" s="9" t="s">
@@ -16275,7 +16289,7 @@
         <v>203</v>
       </c>
       <c r="C429" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9AXO</v>
       </c>
       <c r="D429" s="9" t="s">
@@ -16302,7 +16316,7 @@
         <v>203</v>
       </c>
       <c r="C430" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9BXI</v>
       </c>
       <c r="D430" s="9" t="s">
@@ -16329,7 +16343,7 @@
         <v>203</v>
       </c>
       <c r="C431" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9BXO</v>
       </c>
       <c r="D431" s="9" t="s">
@@ -16356,7 +16370,7 @@
         <v>203</v>
       </c>
       <c r="C432" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9EVEI</v>
       </c>
       <c r="D432" s="9">
@@ -16383,7 +16397,7 @@
         <v>203</v>
       </c>
       <c r="C433" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9EVEO</v>
       </c>
       <c r="D433" s="9">
@@ -16464,7 +16478,7 @@
         <v>203</v>
       </c>
       <c r="C436" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="D436" s="16">
@@ -16572,7 +16586,7 @@
         <v>203</v>
       </c>
       <c r="C440" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9LI</v>
       </c>
       <c r="D440" s="9" t="s">
@@ -16599,7 +16613,7 @@
         <v>203</v>
       </c>
       <c r="C441" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9LO</v>
       </c>
       <c r="D441" s="9" t="s">
@@ -16626,7 +16640,7 @@
         <v>203</v>
       </c>
       <c r="C442" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9XI</v>
       </c>
       <c r="D442" s="9" t="s">
@@ -16653,7 +16667,7 @@
         <v>203</v>
       </c>
       <c r="C443" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9XO</v>
       </c>
       <c r="D443" s="9" t="s">
@@ -16680,7 +16694,7 @@
         <v>203</v>
       </c>
       <c r="C444" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>CPXI</v>
       </c>
       <c r="D444" s="9" t="s">
@@ -16707,7 +16721,7 @@
         <v>203</v>
       </c>
       <c r="C445" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>CPXO</v>
       </c>
       <c r="D445" s="9" t="s">
@@ -16734,7 +16748,7 @@
         <v>203</v>
       </c>
       <c r="C446" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>HPXI</v>
       </c>
       <c r="D446" s="9" t="s">
@@ -16761,7 +16775,7 @@
         <v>203</v>
       </c>
       <c r="C447" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>HPXO</v>
       </c>
       <c r="D447" s="9" t="s">
@@ -16788,7 +16802,7 @@
         <v>203</v>
       </c>
       <c r="C448" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NXI</v>
       </c>
       <c r="D448" s="9" t="s">
@@ -16815,7 +16829,7 @@
         <v>203</v>
       </c>
       <c r="C449" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NXO</v>
       </c>
       <c r="D449" s="9" t="s">
@@ -16842,7 +16856,7 @@
         <v>203</v>
       </c>
       <c r="C450" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>TISH</v>
       </c>
       <c r="D450" s="9" t="s">
@@ -16869,7 +16883,7 @@
         <v>203</v>
       </c>
       <c r="C451" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>TISH1</v>
       </c>
       <c r="D451" s="9" t="s">
@@ -16896,7 +16910,7 @@
         <v>203</v>
       </c>
       <c r="C452" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>TISH2</v>
       </c>
       <c r="D452" s="9" t="s">
@@ -16923,7 +16937,7 @@
         <v>203</v>
       </c>
       <c r="C453" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>TISH3</v>
       </c>
       <c r="D453" s="9" t="s">
@@ -16950,7 +16964,7 @@
         <v>203</v>
       </c>
       <c r="C454" s="6" t="str">
-        <f t="shared" ref="C454:C465" si="11">RIGHT($A454,LEN($A454)-FIND("_",$A454))</f>
+        <f t="shared" ref="C454:C465" si="9">RIGHT($A454,LEN($A454)-FIND("_",$A454))</f>
         <v>E_IN</v>
       </c>
       <c r="D454" s="11" t="s">
@@ -16977,7 +16991,7 @@
         <v>203</v>
       </c>
       <c r="C455" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>E_OUT</v>
       </c>
       <c r="D455" s="12" t="s">
@@ -17004,7 +17018,7 @@
         <v>203</v>
       </c>
       <c r="C456" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F_IN</v>
       </c>
       <c r="D456" s="12" t="s">
@@ -17031,7 +17045,7 @@
         <v>203</v>
       </c>
       <c r="C457" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F_INA</v>
       </c>
       <c r="D457" s="12" t="s">
@@ -17058,7 +17072,7 @@
         <v>203</v>
       </c>
       <c r="C458" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F_OUT</v>
       </c>
       <c r="D458" s="12" t="s">
@@ -17085,7 +17099,7 @@
         <v>203</v>
       </c>
       <c r="C459" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F_OUTA</v>
       </c>
       <c r="D459" s="12" t="s">
@@ -17112,7 +17126,7 @@
         <v>203</v>
       </c>
       <c r="C460" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>J</v>
       </c>
       <c r="D460" s="12" t="s">
@@ -17139,7 +17153,7 @@
         <v>203</v>
       </c>
       <c r="C461" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>J_INA</v>
       </c>
       <c r="D461" s="12" t="s">
@@ -17166,7 +17180,7 @@
         <v>203</v>
       </c>
       <c r="C462" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>J_OUTA</v>
       </c>
       <c r="D462" s="12" t="s">
@@ -17193,7 +17207,7 @@
         <v>203</v>
       </c>
       <c r="C463" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>KI</v>
       </c>
       <c r="D463" s="12" t="s">
@@ -17220,7 +17234,7 @@
         <v>203</v>
       </c>
       <c r="C464" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
       <c r="D464" s="12" t="s">
@@ -17247,7 +17261,7 @@
         <v>203</v>
       </c>
       <c r="C465" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>KT</v>
       </c>
       <c r="D465" s="12" t="s">
@@ -17274,7 +17288,7 @@
         <v>203</v>
       </c>
       <c r="C466" s="4" t="str">
-        <f t="shared" ref="C466:C469" si="12">RIGHT($A466,LEN($A466)-FIND("_",$A466))</f>
+        <f t="shared" ref="C466:C469" si="10">RIGHT($A466,LEN($A466)-FIND("_",$A466))</f>
         <v>KT_IN1</v>
       </c>
       <c r="D466" s="12" t="s">
@@ -17301,7 +17315,7 @@
         <v>203</v>
       </c>
       <c r="C467" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>KT_IN2</v>
       </c>
       <c r="D467" s="12" t="s">
@@ -17328,7 +17342,7 @@
         <v>203</v>
       </c>
       <c r="C468" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>KT_IN3</v>
       </c>
       <c r="D468" s="12" t="s">
@@ -17355,7 +17369,7 @@
         <v>203</v>
       </c>
       <c r="C469" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>KT_IN4</v>
       </c>
       <c r="D469" s="12" t="s">
@@ -17409,7 +17423,7 @@
         <v>203</v>
       </c>
       <c r="C471" s="4" t="str">
-        <f t="shared" ref="C471:C473" si="13">RIGHT($A471,LEN($A471)-FIND("_",$A471))</f>
+        <f t="shared" ref="C471:C473" si="11">RIGHT($A471,LEN($A471)-FIND("_",$A471))</f>
         <v>KT_OUT2</v>
       </c>
       <c r="D471" s="12" t="s">
@@ -17436,7 +17450,7 @@
         <v>203</v>
       </c>
       <c r="C472" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>KT_OUT3</v>
       </c>
       <c r="D472" s="12" t="s">
@@ -17463,7 +17477,7 @@
         <v>203</v>
       </c>
       <c r="C473" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>KT_OUT4</v>
       </c>
       <c r="D473" s="12" t="s">
@@ -17490,7 +17504,7 @@
         <v>203</v>
       </c>
       <c r="C474" s="4" t="str">
-        <f t="shared" ref="C474:C497" si="14">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
+        <f t="shared" ref="C474:C494" si="12">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
         <v>L</v>
       </c>
       <c r="D474" s="12" t="s">
@@ -17517,7 +17531,7 @@
         <v>203</v>
       </c>
       <c r="C475" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>L_IN</v>
       </c>
       <c r="D475" s="12" t="s">
@@ -17544,7 +17558,7 @@
         <v>203</v>
       </c>
       <c r="C476" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>L_OUT</v>
       </c>
       <c r="D476" s="12" t="s">
@@ -17571,7 +17585,7 @@
         <v>203</v>
       </c>
       <c r="C477" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>M</v>
       </c>
       <c r="D477" s="12" t="s">
@@ -17598,7 +17612,7 @@
         <v>203</v>
       </c>
       <c r="C478" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>M-</v>
       </c>
       <c r="D478" s="12" t="s">
@@ -17625,7 +17639,7 @@
         <v>203</v>
       </c>
       <c r="C479" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>MPARKMI</v>
       </c>
       <c r="D479" s="12" t="s">
@@ -17652,7 +17666,7 @@
         <v>203</v>
       </c>
       <c r="C480" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>MPARKMO</v>
       </c>
       <c r="D480" s="12" t="s">
@@ -17679,7 +17693,7 @@
         <v>203</v>
       </c>
       <c r="C481" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>N</v>
       </c>
       <c r="D481" s="12" t="s">
@@ -17706,7 +17720,7 @@
         <v>203</v>
       </c>
       <c r="C482" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>N_IN1</v>
       </c>
       <c r="D482" s="12" t="s">
@@ -17733,7 +17747,7 @@
         <v>203</v>
       </c>
       <c r="C483" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>N_OUT1</v>
       </c>
       <c r="D483" s="12" t="s">
@@ -17760,7 +17774,7 @@
         <v>203</v>
       </c>
       <c r="C484" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>S</v>
       </c>
       <c r="D484" s="9" t="s">
@@ -17787,7 +17801,7 @@
         <v>203</v>
       </c>
       <c r="C485" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>S-</v>
       </c>
       <c r="D485" s="9" t="s">
@@ -17814,7 +17828,7 @@
         <v>203</v>
       </c>
       <c r="C486" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>STI</v>
       </c>
       <c r="D486" s="9" t="s">
@@ -17841,7 +17855,7 @@
         <v>203</v>
       </c>
       <c r="C487" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>STO</v>
       </c>
       <c r="D487" s="9" t="s">
@@ -17868,7 +17882,7 @@
         <v>203</v>
       </c>
       <c r="C488" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>TI</v>
       </c>
       <c r="D488" s="9" t="s">
@@ -17895,7 +17909,7 @@
         <v>203</v>
       </c>
       <c r="C489" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>TO</v>
       </c>
       <c r="D489" s="9" t="s">
@@ -17922,7 +17936,7 @@
         <v>203</v>
       </c>
       <c r="C490" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>TSHTI</v>
       </c>
       <c r="D490" s="9" t="s">
@@ -17949,7 +17963,7 @@
         <v>203</v>
       </c>
       <c r="C491" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>TSHTO</v>
       </c>
       <c r="D491" s="9" t="s">
@@ -17970,189 +17984,108 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="B492" s="6" t="s">
         <v>927</v>
       </c>
       <c r="C492" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>LRCCW</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>333</v>
+        <v>1072</v>
       </c>
       <c r="G492" s="6" t="s">
-        <v>333</v>
+        <v>1072</v>
       </c>
       <c r="H492" s="6" t="s">
-        <v>333</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B493" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B493" s="4" t="s">
         <v>927</v>
       </c>
       <c r="C493" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>902LRT</v>
       </c>
       <c r="D493" s="9">
         <v>902</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G493" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H493" s="1" t="s">
-        <v>333</v>
+        <v>1069</v>
+      </c>
+      <c r="F493" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G493" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H493" s="4" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B494" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B494" s="4" t="s">
         <v>927</v>
       </c>
       <c r="C494" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>LRTWCC</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G494" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H494" s="1" t="s">
-        <v>333</v>
+        <v>1069</v>
+      </c>
+      <c r="F494" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G494" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H494" s="4" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A495" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C495" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>A</v>
-      </c>
-      <c r="D495" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E495" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F495" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G495" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H495" s="6" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A496" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B496" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C496" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>B</v>
-      </c>
-      <c r="D496" s="9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E496" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F496" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G496" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H496" s="4" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A497" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C497" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>C</v>
-      </c>
-      <c r="D497" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F497" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G497" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H497" s="4" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A498" s="1" t="s">
+      <c r="A495" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B495" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="C495" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D498" s="9" t="s">
+      <c r="D495" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E498" s="1" t="s">
+      <c r="E495" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F498" s="1" t="s">
+      <c r="F495" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G498" s="1" t="s">
+      <c r="G495" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H498" s="1" t="s">
+      <c r="H495" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18164,11 +18097,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18605,10 +18538,10 @@
         <v>931</v>
       </c>
       <c r="B17" s="1">
-        <v>450</v>
-      </c>
-      <c r="C17" s="1">
-        <v>382</v>
+        <v>400</v>
+      </c>
+      <c r="C17" s="17">
+        <v>340</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>931</v>
@@ -18628,16 +18561,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="1">
-        <v>119</v>
-      </c>
-      <c r="C18" s="1">
-        <v>101</v>
+        <v>1070</v>
+      </c>
+      <c r="B18" s="17">
+        <v>450</v>
+      </c>
+      <c r="C18" s="17">
+        <v>382.5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>328</v>
+        <v>931</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -18646,24 +18579,24 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>333</v>
+        <v>1100</v>
       </c>
       <c r="B19" s="1">
-        <v>238</v>
-      </c>
-      <c r="C19" s="1">
-        <v>202</v>
+        <v>250</v>
+      </c>
+      <c r="C19" s="17">
+        <v>212.5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>333</v>
+        <v>931</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -18672,24 +18605,24 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="B20" s="1">
-        <v>297</v>
-      </c>
-      <c r="C20" s="1">
-        <v>252</v>
+        <v>275</v>
+      </c>
+      <c r="C20" s="17">
+        <v>233.75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1044</v>
+        <v>931</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -18698,24 +18631,24 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1043</v>
+        <v>328</v>
       </c>
       <c r="B21" s="1">
-        <v>357</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1043</v>
+        <v>328</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -18724,24 +18657,24 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H21" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1042</v>
+        <v>333</v>
       </c>
       <c r="B22" s="1">
-        <v>476</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1042</v>
+        <v>333</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -18750,258 +18683,258 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H22" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>265</v>
+        <v>1044</v>
       </c>
       <c r="B23" s="1">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="C23" s="1">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>265</v>
+        <v>1044</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0.05</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H23" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>1043</v>
       </c>
       <c r="B24" s="1">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="C24" s="1">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>217</v>
+        <v>1043</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H24" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B25" s="1">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="C25" s="1">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H25" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="B26" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G26" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H26" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1040</v>
+        <v>217</v>
       </c>
       <c r="B27" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1040</v>
+        <v>217</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G27" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H27" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B28" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G28" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H28" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>6.2E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H29" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>230</v>
+        <v>1040</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>230</v>
+        <v>1040</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G30" s="1">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B31" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -19018,16 +18951,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B33" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -19044,16 +18977,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B34" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -19070,42 +19003,42 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="B35" s="1">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="1">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1">
         <v>53</v>
       </c>
-      <c r="B36" s="1">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1">
-        <v>51</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -19114,50 +19047,50 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>325</v>
+        <v>1037</v>
       </c>
       <c r="B37" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>325</v>
+        <v>1037</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H37" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -19174,224 +19107,224 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H39" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>1036</v>
+        <v>325</v>
       </c>
       <c r="B40" s="1">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1036</v>
+        <v>325</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H40" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B41" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G41" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H41" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B42" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G42" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H42" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B43" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G43" s="1">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H43" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>906</v>
+        <v>234</v>
       </c>
       <c r="B44" s="1">
-        <v>800</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1">
-        <v>680</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>906</v>
+        <v>234</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B45" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B46" s="1">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H46" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B47" s="1">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="C47" s="1">
-        <v>297</v>
+        <v>680</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -19408,16 +19341,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1072</v>
+        <v>259</v>
       </c>
       <c r="B48" s="1">
-        <v>1800</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1">
-        <v>1530</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1074</v>
+        <v>259</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -19426,24 +19359,24 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1071</v>
+        <v>1034</v>
       </c>
       <c r="B49" s="1">
-        <v>2700</v>
+        <v>28</v>
       </c>
       <c r="C49" s="1">
-        <v>2295</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -19452,24 +19385,24 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1073</v>
+        <v>909</v>
       </c>
       <c r="B50" s="1">
-        <v>4500</v>
+        <v>350</v>
       </c>
       <c r="C50" s="1">
-        <v>3825</v>
+        <v>297</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1076</v>
+        <v>909</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -19484,7 +19417,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B51" s="1">
+        <v>450</v>
+      </c>
+      <c r="C51" s="1">
+        <v>382.5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="1102">
   <si>
     <t>Name</t>
   </si>
@@ -3332,6 +3332,9 @@
   </si>
   <si>
     <t>Ferry small</t>
+  </si>
+  <si>
+    <t>eBart 1 car</t>
   </si>
 </sst>
 </file>
@@ -18097,11 +18100,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19393,13 +19396,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>909</v>
+        <v>1101</v>
       </c>
       <c r="B50" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>909</v>
@@ -19419,16 +19422,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
       <c r="B51" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C51" s="1">
-        <v>382.5</v>
+        <v>340</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -19440,6 +19443,32 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B52" s="1">
+        <v>450</v>
+      </c>
+      <c r="C52" s="1">
+        <v>382.5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
         <v>0</v>
       </c>
     </row>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1104">
   <si>
     <t>Name</t>
   </si>
@@ -3335,6 +3335,12 @@
   </si>
   <si>
     <t>eBart 1 car</t>
+  </si>
+  <si>
+    <t>5 Car BART</t>
+  </si>
+  <si>
+    <t>5 Car BART RENOVATED</t>
   </si>
 </sst>
 </file>
@@ -18100,11 +18106,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18200,16 +18206,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>1102</v>
       </c>
       <c r="B4" s="1">
-        <v>777</v>
+        <v>555</v>
       </c>
       <c r="C4" s="1">
-        <v>660</v>
+        <v>471.75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>1102</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -18226,16 +18232,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1050</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="1">
-        <v>784</v>
+        <v>560</v>
       </c>
       <c r="C5" s="1">
-        <v>666</v>
+        <v>476</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1050</v>
+        <v>1103</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -18252,16 +18258,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>888</v>
+        <v>777</v>
       </c>
       <c r="C6" s="1">
-        <v>765</v>
+        <v>660</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -18278,16 +18284,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B7" s="1">
-        <v>900</v>
+        <v>784</v>
       </c>
       <c r="C7" s="1">
-        <v>770</v>
+        <v>666</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18304,16 +18310,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1048</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>943</v>
+        <v>888</v>
       </c>
       <c r="C8" s="1">
-        <v>802</v>
+        <v>765</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1048</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -18330,16 +18336,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B9" s="1">
-        <v>952</v>
+        <v>900</v>
       </c>
       <c r="C9" s="1">
-        <v>809</v>
+        <v>770</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -18356,16 +18362,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>1048</v>
       </c>
       <c r="B10" s="1">
-        <v>999</v>
+        <v>943</v>
       </c>
       <c r="C10" s="1">
-        <v>849</v>
+        <v>802</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>1048</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -18382,16 +18388,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B11" s="1">
-        <v>1011</v>
+        <v>952</v>
       </c>
       <c r="C11" s="1">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -18408,146 +18414,146 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="C12" s="1">
-        <v>42</v>
+        <v>849</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B13" s="1">
-        <v>65</v>
+        <v>1011</v>
       </c>
       <c r="C13" s="1">
-        <v>55</v>
+        <v>859</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G14" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H14" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>1045</v>
       </c>
       <c r="B15" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>287</v>
+        <v>1045</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G15" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H15" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>922</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
-        <v>650</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>552</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>922</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>931</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1">
-        <v>400</v>
-      </c>
-      <c r="C17" s="17">
-        <v>340</v>
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>931</v>
+        <v>287</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -18556,24 +18562,24 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B18" s="17">
-        <v>450</v>
-      </c>
-      <c r="C18" s="17">
-        <v>382.5</v>
+        <v>922</v>
+      </c>
+      <c r="B18" s="1">
+        <v>650</v>
+      </c>
+      <c r="C18" s="1">
+        <v>552</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -18590,13 +18596,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1100</v>
+        <v>931</v>
       </c>
       <c r="B19" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C19" s="17">
-        <v>212.5</v>
+        <v>340</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>931</v>
@@ -18616,13 +18622,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B20" s="1">
-        <v>275</v>
+        <v>1070</v>
+      </c>
+      <c r="B20" s="17">
+        <v>450</v>
       </c>
       <c r="C20" s="17">
-        <v>233.75</v>
+        <v>382.5</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>931</v>
@@ -18642,16 +18648,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>1100</v>
       </c>
       <c r="B21" s="1">
-        <v>119</v>
-      </c>
-      <c r="C21" s="1">
-        <v>101</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="17">
+        <v>212.5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>328</v>
+        <v>931</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -18660,24 +18666,24 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>333</v>
+        <v>1071</v>
       </c>
       <c r="B22" s="1">
-        <v>238</v>
-      </c>
-      <c r="C22" s="1">
-        <v>202</v>
+        <v>275</v>
+      </c>
+      <c r="C22" s="17">
+        <v>233.75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>333</v>
+        <v>931</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -18686,24 +18692,24 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1044</v>
+        <v>328</v>
       </c>
       <c r="B23" s="1">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1044</v>
+        <v>328</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -18712,24 +18718,24 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1043</v>
+        <v>333</v>
       </c>
       <c r="B24" s="1">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="C24" s="1">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1043</v>
+        <v>333</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -18738,24 +18744,24 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H24" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B25" s="1">
-        <v>476</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -18764,67 +18770,67 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H25" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>265</v>
+        <v>1043</v>
       </c>
       <c r="B26" s="1">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="C26" s="1">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>265</v>
+        <v>1043</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H26" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>1042</v>
       </c>
       <c r="B27" s="1">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="C27" s="1">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>1042</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.04</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1041</v>
+        <v>265</v>
       </c>
       <c r="B28" s="1">
         <v>94</v>
@@ -18833,7 +18839,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1041</v>
+        <v>265</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -18842,67 +18848,67 @@
         <v>0.122</v>
       </c>
       <c r="G28" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H28" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B29" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G29" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H29" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B30" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G30" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1039</v>
+        <v>224</v>
       </c>
       <c r="B31" s="1">
         <v>80</v>
@@ -18911,7 +18917,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1039</v>
+        <v>224</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -18920,67 +18926,67 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>261</v>
+        <v>1040</v>
       </c>
       <c r="B32" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>261</v>
+        <v>1040</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G32" s="1">
-        <v>6.2E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>230</v>
+        <v>1039</v>
       </c>
       <c r="B33" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>1039</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G33" s="1">
-        <v>0.05</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1038</v>
+        <v>261</v>
       </c>
       <c r="B34" s="1">
         <v>45</v>
@@ -18989,7 +18995,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1038</v>
+        <v>261</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -18998,24 +19004,24 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H34" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B35" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -19024,24 +19030,24 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H35" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>1038</v>
       </c>
       <c r="B36" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>1038</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -19050,15 +19056,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H36" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1037</v>
+        <v>205</v>
       </c>
       <c r="B37" s="1">
         <v>63</v>
@@ -19067,7 +19073,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1037</v>
+        <v>205</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -19076,50 +19082,50 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H37" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="B38" s="1">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G38" s="1">
         <v>0.05</v>
       </c>
       <c r="H38" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="1">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
         <v>53</v>
       </c>
-      <c r="B39" s="1">
-        <v>60</v>
-      </c>
-      <c r="C39" s="1">
-        <v>51</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>1037</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -19128,93 +19134,93 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H39" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G40" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H40" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H41" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="B42" s="1">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H42" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1036</v>
+        <v>245</v>
       </c>
       <c r="B43" s="1">
         <v>94</v>
@@ -19223,7 +19229,7 @@
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1036</v>
+        <v>245</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -19232,67 +19238,67 @@
         <v>0.122</v>
       </c>
       <c r="G43" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B44" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G44" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H44" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>235</v>
+        <v>1036</v>
       </c>
       <c r="B45" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>235</v>
+        <v>1036</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G45" s="1">
-        <v>0.05</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H45" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1035</v>
+        <v>234</v>
       </c>
       <c r="B46" s="1">
         <v>63</v>
@@ -19301,7 +19307,7 @@
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1035</v>
+        <v>234</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -19310,76 +19316,76 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H46" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>906</v>
+        <v>235</v>
       </c>
       <c r="B47" s="1">
-        <v>800</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1">
-        <v>680</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>906</v>
+        <v>235</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>259</v>
+        <v>1035</v>
       </c>
       <c r="B48" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>259</v>
+        <v>1035</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H48" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1034</v>
+        <v>906</v>
       </c>
       <c r="B49" s="1">
-        <v>28</v>
+        <v>800</v>
       </c>
       <c r="C49" s="1">
-        <v>23</v>
+        <v>680</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1034</v>
+        <v>906</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -19388,24 +19394,24 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1101</v>
+        <v>259</v>
       </c>
       <c r="B50" s="1">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>909</v>
+        <v>259</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -19414,24 +19420,24 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
       <c r="B51" s="1">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>909</v>
+        <v>1034</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -19440,24 +19446,24 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1061</v>
+        <v>1101</v>
       </c>
       <c r="B52" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C52" s="1">
-        <v>382.5</v>
+        <v>170</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1099</v>
+        <v>909</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -19469,6 +19475,58 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B53" s="1">
+        <v>400</v>
+      </c>
+      <c r="C53" s="1">
+        <v>340</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B54" s="1">
+        <v>450</v>
+      </c>
+      <c r="C54" s="1">
+        <v>382.5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
         <v>0</v>
       </c>
     </row>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1109">
   <si>
     <t>Name</t>
   </si>
@@ -3341,6 +3341,21 @@
   </si>
   <si>
     <t>5 Car BART RENOVATED</t>
+  </si>
+  <si>
+    <t>VTA LRT1</t>
+  </si>
+  <si>
+    <t>VTA LRT3</t>
+  </si>
+  <si>
+    <t>VTA Light Rail 1</t>
+  </si>
+  <si>
+    <t>VTA Light Rail 2</t>
+  </si>
+  <si>
+    <t>VTA Light Rail 3</t>
   </si>
 </sst>
 </file>
@@ -18106,11 +18121,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19530,6 +19545,87 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B55" s="1">
+        <v>171</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" ref="C55:C57" si="0">B55*0.85</f>
+        <v>145.35</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B56" s="1">
+        <v>342</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="0"/>
+        <v>290.7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B57" s="1">
+        <v>513</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="0"/>
+        <v>436.05</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
@@ -17,19 +17,11 @@
     <sheet name="transitVehicleToCapacity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1111">
   <si>
     <t>Name</t>
   </si>
@@ -3356,6 +3348,12 @@
   </si>
   <si>
     <t>VTA Light Rail 3</t>
+  </si>
+  <si>
+    <t>Airport Tram</t>
+  </si>
+  <si>
+    <t>SMART 2 Car Train</t>
   </si>
 </sst>
 </file>
@@ -3876,7 +3874,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3911,6 +3909,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4234,9 +4236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18121,11 +18123,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19626,6 +19628,58 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B58" s="18">
+        <v>89</v>
+      </c>
+      <c r="C58" s="19">
+        <v>75.649999999999991</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B59" s="20">
+        <v>318</v>
+      </c>
+      <c r="C59" s="21">
+        <v>270.3</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bespin\Documents\GitHub\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2756,9 +2756,6 @@
     <t>EBART</t>
   </si>
   <si>
-    <t>136_</t>
-  </si>
-  <si>
     <t>SMART</t>
   </si>
   <si>
@@ -3354,6 +3351,9 @@
   </si>
   <si>
     <t>SMART 2 Car Train</t>
+  </si>
+  <si>
+    <t>122_</t>
   </si>
 </sst>
 </file>
@@ -3958,8 +3958,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4238,7 +4266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4251,87 +4279,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C8" t="s">
         <v>205</v>
@@ -4339,10 +4367,10 @@
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C9" t="s">
         <v>333</v>
@@ -4350,21 +4378,21 @@
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C11" t="s">
         <v>261</v>
@@ -4372,7 +4400,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -4383,54 +4411,54 @@
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1027</v>
+        <v>1110</v>
       </c>
       <c r="B14" t="s">
-        <v>1026</v>
+        <v>910</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>923</v>
+        <v>1026</v>
       </c>
       <c r="B15" t="s">
-        <v>922</v>
+        <v>1025</v>
       </c>
       <c r="C15" t="s">
-        <v>922</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>922</v>
+      </c>
+      <c r="B16" t="s">
         <v>921</v>
       </c>
-      <c r="B16" t="s">
-        <v>920</v>
-      </c>
       <c r="C16" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>920</v>
+      </c>
+      <c r="B17" t="s">
         <v>919</v>
-      </c>
-      <c r="B17" t="s">
-        <v>918</v>
       </c>
       <c r="C17" t="s">
         <v>906</v>
@@ -4438,10 +4466,10 @@
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>918</v>
+      </c>
+      <c r="B18" t="s">
         <v>917</v>
-      </c>
-      <c r="B18" t="s">
-        <v>916</v>
       </c>
       <c r="C18" t="s">
         <v>906</v>
@@ -4449,35 +4477,35 @@
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19" t="s">
         <v>915</v>
       </c>
-      <c r="B19" t="s">
-        <v>914</v>
-      </c>
       <c r="C19" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>914</v>
+      </c>
+      <c r="B20" t="s">
         <v>913</v>
       </c>
-      <c r="B20" t="s">
-        <v>912</v>
-      </c>
       <c r="C20" t="s">
-        <v>1074</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>912</v>
+      </c>
+      <c r="B21" t="s">
         <v>911</v>
       </c>
-      <c r="B21" t="s">
-        <v>910</v>
-      </c>
       <c r="C21" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -4488,15 +4516,15 @@
         <v>907</v>
       </c>
       <c r="C22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B23" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C23" t="s">
         <v>261</v>
@@ -4504,10 +4532,10 @@
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C24" t="s">
         <v>261</v>
@@ -4515,10 +4543,10 @@
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -4526,10 +4554,10 @@
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C26" t="s">
         <v>261</v>
@@ -4537,10 +4565,10 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B27" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -4548,10 +4576,10 @@
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C28" t="s">
         <v>261</v>
@@ -4559,10 +4587,10 @@
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B29" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C29" t="s">
         <v>261</v>
@@ -4570,10 +4598,10 @@
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C30" t="s">
         <v>287</v>
@@ -4581,10 +4609,10 @@
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B31" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C31" t="s">
         <v>205</v>
@@ -4592,10 +4620,10 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B32" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C32" t="s">
         <v>205</v>
@@ -4603,10 +4631,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B33" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C33" t="s">
         <v>205</v>
@@ -4614,10 +4642,10 @@
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C34" t="s">
         <v>205</v>
@@ -4625,10 +4653,10 @@
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C35" t="s">
         <v>205</v>
@@ -4636,10 +4664,10 @@
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B36" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C36" t="s">
         <v>205</v>
@@ -4647,10 +4675,10 @@
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B37" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C37" t="s">
         <v>205</v>
@@ -4658,10 +4686,10 @@
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C38" t="s">
         <v>205</v>
@@ -4669,10 +4697,10 @@
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C39" t="s">
         <v>205</v>
@@ -4680,10 +4708,10 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B40" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C40" t="s">
         <v>205</v>
@@ -4691,10 +4719,10 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C41" t="s">
         <v>205</v>
@@ -4702,10 +4730,10 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B42" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C42" t="s">
         <v>205</v>
@@ -4713,10 +4741,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C43" t="s">
         <v>205</v>
@@ -4724,10 +4752,10 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C44" t="s">
         <v>205</v>
@@ -4735,10 +4763,10 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B45" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C45" t="s">
         <v>205</v>
@@ -4746,10 +4774,10 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B46" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C46" t="s">
         <v>205</v>
@@ -4757,10 +4785,10 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C47" t="s">
         <v>205</v>
@@ -4768,10 +4796,10 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C48" t="s">
         <v>205</v>
@@ -4779,10 +4807,10 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B49" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C49" t="s">
         <v>205</v>
@@ -4790,10 +4818,10 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B50" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C50" t="s">
         <v>205</v>
@@ -4801,10 +4829,10 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B51" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C51" t="s">
         <v>205</v>
@@ -4812,10 +4840,10 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B52" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C52" t="s">
         <v>205</v>
@@ -4823,10 +4851,10 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B53" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C53" t="s">
         <v>205</v>
@@ -4834,10 +4862,10 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B54" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C54" t="s">
         <v>205</v>
@@ -4845,10 +4873,10 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C55" t="s">
         <v>205</v>
@@ -4856,10 +4884,10 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B56" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C56" t="s">
         <v>205</v>
@@ -4867,10 +4895,10 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B57" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C57" t="s">
         <v>205</v>
@@ -4878,10 +4906,10 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C58" t="s">
         <v>205</v>
@@ -4889,10 +4917,10 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B59" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C59" t="s">
         <v>205</v>
@@ -4900,10 +4928,10 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B60" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C60" t="s">
         <v>205</v>
@@ -4911,10 +4939,10 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B61" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C61" t="s">
         <v>205</v>
@@ -4922,10 +4950,10 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B62" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C62" t="s">
         <v>205</v>
@@ -4933,10 +4961,10 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B63" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C63" t="s">
         <v>205</v>
@@ -4944,10 +4972,10 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B64" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C64" t="s">
         <v>205</v>
@@ -4955,10 +4983,10 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B65" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C65" t="s">
         <v>205</v>
@@ -4966,13 +4994,13 @@
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -5091,10 +5119,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -5117,10 +5145,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -5143,10 +5171,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
@@ -5169,10 +5197,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -5195,10 +5223,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -5221,10 +5249,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -5241,16 +5269,16 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
@@ -5267,16 +5295,16 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -5299,10 +5327,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -5325,10 +5353,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -5351,10 +5379,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -5377,10 +5405,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -5403,10 +5431,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -5429,10 +5457,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
@@ -5455,10 +5483,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -5481,10 +5509,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -5507,10 +5535,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
@@ -5533,10 +5561,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -5559,10 +5587,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -5585,10 +5613,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>31</v>
@@ -5611,10 +5639,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>31</v>
@@ -5637,10 +5665,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>31</v>
@@ -5663,10 +5691,10 @@
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>31</v>
@@ -11152,7 +11180,7 @@
     </row>
     <row r="238" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>203</v>
@@ -11179,7 +11207,7 @@
     </row>
     <row r="239" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>203</v>
@@ -18010,37 +18038,37 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C492" s="6" t="str">
         <f t="shared" si="12"/>
         <v>LRCCW</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G492" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H492" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C493" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18050,43 +18078,43 @@
         <v>902</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F493" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H493" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C494" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LRTWCC</v>
       </c>
       <c r="D494" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="E494" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="F494" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H494" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -18145,28 +18173,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -18197,7 +18225,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="1">
         <v>1200</v>
@@ -18206,7 +18234,7 @@
         <v>1020</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -18223,7 +18251,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B4" s="1">
         <v>555</v>
@@ -18232,7 +18260,7 @@
         <v>471.75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -18249,7 +18277,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B5" s="1">
         <v>560</v>
@@ -18258,7 +18286,7 @@
         <v>476</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -18301,7 +18329,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="1">
         <v>784</v>
@@ -18310,7 +18338,7 @@
         <v>666</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18353,7 +18381,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B9" s="1">
         <v>900</v>
@@ -18362,7 +18390,7 @@
         <v>770</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -18379,7 +18407,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B10" s="1">
         <v>943</v>
@@ -18388,7 +18416,7 @@
         <v>802</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -18405,7 +18433,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="1">
         <v>952</v>
@@ -18414,7 +18442,7 @@
         <v>809</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -18457,7 +18485,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B13" s="1">
         <v>1011</v>
@@ -18466,7 +18494,7 @@
         <v>859</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -18509,7 +18537,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B15" s="1">
         <v>65</v>
@@ -18518,7 +18546,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -18587,7 +18615,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B18" s="1">
         <v>650</v>
@@ -18596,7 +18624,7 @@
         <v>552</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -18613,7 +18641,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B19" s="1">
         <v>400</v>
@@ -18622,7 +18650,7 @@
         <v>340</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -18639,7 +18667,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B20" s="17">
         <v>450</v>
@@ -18648,7 +18676,7 @@
         <v>382.5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -18665,7 +18693,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B21" s="1">
         <v>250</v>
@@ -18674,7 +18702,7 @@
         <v>212.5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -18691,7 +18719,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B22" s="1">
         <v>275</v>
@@ -18700,7 +18728,7 @@
         <v>233.75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -18769,7 +18797,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B25" s="1">
         <v>298</v>
@@ -18778,7 +18806,7 @@
         <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -18795,7 +18823,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B26" s="1">
         <v>357</v>
@@ -18804,7 +18832,7 @@
         <v>303</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -18821,7 +18849,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B27" s="1">
         <v>476</v>
@@ -18830,7 +18858,7 @@
         <v>404</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -18899,7 +18927,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B30" s="1">
         <v>94</v>
@@ -18908,7 +18936,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -18951,7 +18979,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B32" s="1">
         <v>80</v>
@@ -18960,7 +18988,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -18977,7 +19005,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B33" s="1">
         <v>80</v>
@@ -18986,7 +19014,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -19055,7 +19083,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B36" s="1">
         <v>45</v>
@@ -19064,7 +19092,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -19133,7 +19161,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B39" s="1">
         <v>63</v>
@@ -19142,7 +19170,7 @@
         <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -19289,7 +19317,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B45" s="1">
         <v>94</v>
@@ -19298,7 +19326,7 @@
         <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -19367,7 +19395,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B48" s="1">
         <v>63</v>
@@ -19376,7 +19404,7 @@
         <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -19445,7 +19473,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B51" s="1">
         <v>28</v>
@@ -19454,7 +19482,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -19471,7 +19499,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B52" s="1">
         <v>200</v>
@@ -19497,7 +19525,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B53" s="1">
         <v>400</v>
@@ -19523,7 +19551,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B54" s="1">
         <v>450</v>
@@ -19532,7 +19560,7 @@
         <v>382.5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -19549,7 +19577,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B55" s="1">
         <v>171</v>
@@ -19559,7 +19587,7 @@
         <v>145.35</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -19576,7 +19604,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B56" s="1">
         <v>342</v>
@@ -19586,7 +19614,7 @@
         <v>290.7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -19603,7 +19631,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B57" s="1">
         <v>513</v>
@@ -19613,7 +19641,7 @@
         <v>436.05</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -19630,7 +19658,7 @@
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B58" s="18">
         <v>89</v>
@@ -19639,7 +19667,7 @@
         <v>75.649999999999991</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -19656,7 +19684,7 @@
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B59" s="20">
         <v>318</v>
@@ -19665,7 +19693,7 @@
         <v>270.3</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E59" s="20">
         <v>0</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bespin\Documents\GitHub\TM1_2015_Base_Network\trn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
@@ -4264,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -18153,9 +18153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18202,10 +18202,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="C2" s="1">
-        <v>935</v>
+        <v>943.5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -18228,10 +18228,10 @@
         <v>1050</v>
       </c>
       <c r="B3" s="1">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="1">
-        <v>1020</v>
+        <v>952</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1050</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -4266,7 +4266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5014,8 +5014,8 @@
   <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F496" sqref="F496"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18155,12 +18155,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -18483,15 +18483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B13" s="1">
-        <v>1011</v>
-      </c>
-      <c r="C13" s="1">
-        <v>859</v>
+      <c r="B13" s="20">
+        <v>1008</v>
+      </c>
+      <c r="C13" s="20">
+        <v>857</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1045</v>
@@ -18509,15 +18509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="1">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1">
-        <v>42</v>
+      <c r="B14" s="20">
+        <v>70</v>
+      </c>
+      <c r="C14" s="20">
+        <v>59.5</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>173</v>
@@ -18535,15 +18535,15 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B15" s="1">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1">
-        <v>55</v>
+      <c r="B15" s="20">
+        <v>70</v>
+      </c>
+      <c r="C15" s="20">
+        <v>59.5</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1044</v>
@@ -18561,15 +18561,15 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1">
-        <v>34</v>
+      <c r="B16" s="20">
+        <v>63</v>
+      </c>
+      <c r="C16" s="20">
+        <v>53.55</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>91</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="1113">
   <si>
     <t>Name</t>
   </si>
@@ -3354,6 +3354,12 @@
   </si>
   <si>
     <t>122_</t>
+  </si>
+  <si>
+    <t>Caltrain PCEP</t>
+  </si>
+  <si>
+    <t>Caltrain PCBB</t>
   </si>
 </sst>
 </file>
@@ -18151,11 +18157,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18618,10 +18624,10 @@
         <v>921</v>
       </c>
       <c r="B18" s="1">
-        <v>650</v>
+        <v>1444</v>
       </c>
       <c r="C18" s="1">
-        <v>552</v>
+        <v>1228</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>921</v>
@@ -18641,16 +18647,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>930</v>
+        <v>1111</v>
       </c>
       <c r="B19" s="1">
-        <v>400</v>
-      </c>
-      <c r="C19" s="17">
-        <v>340</v>
+        <v>1502</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1276.7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -18667,16 +18673,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B20" s="17">
-        <v>450</v>
-      </c>
-      <c r="C20" s="17">
-        <v>382.5</v>
+        <v>1112</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1841</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1564.85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -18693,13 +18699,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1099</v>
+        <v>930</v>
       </c>
       <c r="B21" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C21" s="17">
-        <v>212.5</v>
+        <v>340</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>930</v>
@@ -18719,13 +18725,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B22" s="1">
-        <v>275</v>
+        <v>1069</v>
+      </c>
+      <c r="B22" s="17">
+        <v>450</v>
       </c>
       <c r="C22" s="17">
-        <v>233.75</v>
+        <v>382.5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>930</v>
@@ -18745,16 +18751,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>328</v>
+        <v>1099</v>
       </c>
       <c r="B23" s="1">
-        <v>119</v>
-      </c>
-      <c r="C23" s="1">
-        <v>101</v>
+        <v>250</v>
+      </c>
+      <c r="C23" s="17">
+        <v>212.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>328</v>
+        <v>930</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -18763,24 +18769,24 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>333</v>
+        <v>1070</v>
       </c>
       <c r="B24" s="1">
-        <v>238</v>
-      </c>
-      <c r="C24" s="1">
-        <v>202</v>
+        <v>275</v>
+      </c>
+      <c r="C24" s="17">
+        <v>233.75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>333</v>
+        <v>930</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -18789,24 +18795,24 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1043</v>
+        <v>328</v>
       </c>
       <c r="B25" s="1">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1043</v>
+        <v>328</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -18815,24 +18821,24 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H25" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1042</v>
+        <v>333</v>
       </c>
       <c r="B26" s="1">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1042</v>
+        <v>333</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -18841,24 +18847,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H26" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B27" s="1">
-        <v>476</v>
+        <v>298</v>
       </c>
       <c r="C27" s="1">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -18867,67 +18873,67 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>265</v>
+        <v>1042</v>
       </c>
       <c r="B28" s="1">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="C28" s="1">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>265</v>
+        <v>1042</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H28" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>1041</v>
       </c>
       <c r="B29" s="1">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="C29" s="1">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>217</v>
+        <v>1041</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.04</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H29" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>1040</v>
+        <v>265</v>
       </c>
       <c r="B30" s="1">
         <v>94</v>
@@ -18936,7 +18942,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1040</v>
+        <v>265</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -18945,67 +18951,67 @@
         <v>0.122</v>
       </c>
       <c r="G30" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H30" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G31" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H31" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B32" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G32" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1038</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1">
         <v>80</v>
@@ -19014,7 +19020,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1038</v>
+        <v>224</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -19023,67 +19029,67 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G33" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>261</v>
+        <v>1039</v>
       </c>
       <c r="B34" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>261</v>
+        <v>1039</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G34" s="1">
-        <v>6.2E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H34" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>230</v>
+        <v>1038</v>
       </c>
       <c r="B35" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>230</v>
+        <v>1038</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>0.05</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1037</v>
+        <v>261</v>
       </c>
       <c r="B36" s="1">
         <v>45</v>
@@ -19092,7 +19098,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1037</v>
+        <v>261</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -19101,24 +19107,24 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H36" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B37" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -19127,24 +19133,24 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H37" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>207</v>
+        <v>1037</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -19153,15 +19159,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H38" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1036</v>
+        <v>205</v>
       </c>
       <c r="B39" s="1">
         <v>63</v>
@@ -19170,7 +19176,7 @@
         <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1036</v>
+        <v>205</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -19179,50 +19185,50 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H39" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G40" s="1">
         <v>0.05</v>
       </c>
       <c r="H40" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B41" s="1">
+        <v>63</v>
+      </c>
+      <c r="C41" s="1">
         <v>53</v>
       </c>
-      <c r="B41" s="1">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1">
-        <v>51</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>1036</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -19231,93 +19237,93 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H41" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G42" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H42" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H43" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="B44" s="1">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H44" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1035</v>
+        <v>245</v>
       </c>
       <c r="B45" s="1">
         <v>94</v>
@@ -19326,7 +19332,7 @@
         <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1035</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -19335,67 +19341,67 @@
         <v>0.122</v>
       </c>
       <c r="G45" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B46" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G46" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H46" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>235</v>
+        <v>1035</v>
       </c>
       <c r="B47" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>235</v>
+        <v>1035</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G47" s="1">
-        <v>0.05</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H47" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1034</v>
+        <v>234</v>
       </c>
       <c r="B48" s="1">
         <v>63</v>
@@ -19404,7 +19410,7 @@
         <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1034</v>
+        <v>234</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -19413,76 +19419,76 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>906</v>
+        <v>235</v>
       </c>
       <c r="B49" s="1">
-        <v>800</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1">
-        <v>680</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>906</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>259</v>
+        <v>1034</v>
       </c>
       <c r="B50" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>259</v>
+        <v>1034</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H50" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1033</v>
+        <v>906</v>
       </c>
       <c r="B51" s="1">
-        <v>28</v>
+        <v>800</v>
       </c>
       <c r="C51" s="1">
-        <v>23</v>
+        <v>680</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1033</v>
+        <v>906</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -19491,24 +19497,24 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1100</v>
+        <v>259</v>
       </c>
       <c r="B52" s="1">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>909</v>
+        <v>259</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -19517,24 +19523,24 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1074</v>
+        <v>1033</v>
       </c>
       <c r="B53" s="1">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="C53" s="1">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>909</v>
+        <v>1033</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -19543,24 +19549,24 @@
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="B54" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C54" s="1">
-        <v>382.5</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1098</v>
+        <v>909</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -19577,17 +19583,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1103</v>
+        <v>1074</v>
       </c>
       <c r="B55" s="1">
-        <v>171</v>
-      </c>
-      <c r="C55" s="17">
-        <f t="shared" ref="C55:C57" si="0">B55*0.85</f>
-        <v>145.35</v>
+        <v>400</v>
+      </c>
+      <c r="C55" s="1">
+        <v>340</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1105</v>
+        <v>909</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -19596,115 +19601,168 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B56" s="1">
+        <v>450</v>
+      </c>
+      <c r="C56" s="1">
+        <v>382.5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B57" s="1">
+        <v>171</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" ref="C57:C59" si="0">B57*0.85</f>
+        <v>145.35</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B58" s="1">
         <v>342</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C58" s="17">
         <f t="shared" si="0"/>
         <v>290.7</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E58" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G58" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H58" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B59" s="1">
         <v>513</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C59" s="17">
         <f t="shared" si="0"/>
         <v>436.05</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G59" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H59" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B60" s="18">
         <v>89</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C60" s="19">
         <v>75.649999999999991</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>1108</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
         <v>1073</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B61" s="20">
         <v>318</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C61" s="21">
         <v>270.3</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D61" s="20" t="s">
         <v>1109</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E61" s="20">
         <v>0</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F61" s="20">
         <v>0</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G61" s="20">
         <v>0</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H61" s="20">
         <v>0</v>
       </c>
     </row>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="1116">
   <si>
     <t>Name</t>
   </si>
@@ -3360,6 +3360,15 @@
   </si>
   <si>
     <t>Caltrain PCBB</t>
+  </si>
+  <si>
+    <t>122_EBART</t>
+  </si>
+  <si>
+    <t>eBART</t>
+  </si>
+  <si>
+    <t>BART Yellow line extension</t>
   </si>
 </sst>
 </file>
@@ -5017,11 +5026,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G486" sqref="G486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17564,7 +17573,7 @@
         <v>203</v>
       </c>
       <c r="C474" s="4" t="str">
-        <f t="shared" ref="C474:C494" si="12">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
+        <f t="shared" ref="C474:C495" si="12">RIGHT($A474,LEN($A474)-FIND("_",$A474))</f>
         <v>L</v>
       </c>
       <c r="D474" s="12" t="s">
@@ -18125,27 +18134,54 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C495" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>EBART</v>
+      </c>
+      <c r="D495" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="C496" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D495" s="9" t="s">
+      <c r="D496" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E495" s="1" t="s">
+      <c r="E496" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F495" s="1" t="s">
+      <c r="F496" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G495" s="1" t="s">
+      <c r="G496" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H495" s="1" t="s">
+      <c r="H496" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18159,9 +18195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="1114">
   <si>
     <t>Name</t>
   </si>
@@ -2753,9 +2753,6 @@
     <t>eBart</t>
   </si>
   <si>
-    <t>EBART</t>
-  </si>
-  <si>
     <t>SMART</t>
   </si>
   <si>
@@ -3353,22 +3350,19 @@
     <t>SMART 2 Car Train</t>
   </si>
   <si>
-    <t>122_</t>
-  </si>
-  <si>
     <t>Caltrain PCEP</t>
   </si>
   <si>
     <t>Caltrain PCBB</t>
   </si>
   <si>
-    <t>122_EBART</t>
-  </si>
-  <si>
     <t>eBART</t>
   </si>
   <si>
     <t>BART Yellow line extension</t>
+  </si>
+  <si>
+    <t>120_EBART</t>
   </si>
 </sst>
 </file>
@@ -4277,11 +4271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4294,87 +4288,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C8" t="s">
         <v>205</v>
@@ -4382,10 +4376,10 @@
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C9" t="s">
         <v>333</v>
@@ -4393,21 +4387,21 @@
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C10" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C11" t="s">
         <v>261</v>
@@ -4415,7 +4409,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -4426,54 +4420,54 @@
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1110</v>
+        <v>1025</v>
       </c>
       <c r="B14" t="s">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="C14" t="s">
-        <v>1074</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1026</v>
+        <v>921</v>
       </c>
       <c r="B15" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B16" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C16" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C17" t="s">
         <v>906</v>
@@ -4481,10 +4475,10 @@
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B18" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C18" t="s">
         <v>906</v>
@@ -4492,54 +4486,54 @@
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B19" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C19" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B20" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C20" t="s">
-        <v>913</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B21" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C21" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>908</v>
+        <v>1023</v>
       </c>
       <c r="B22" t="s">
-        <v>907</v>
+        <v>1022</v>
       </c>
       <c r="C22" t="s">
-        <v>1060</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C23" t="s">
         <v>261</v>
@@ -4547,10 +4541,10 @@
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B24" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C24" t="s">
         <v>261</v>
@@ -4558,10 +4552,10 @@
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B25" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -4569,10 +4563,10 @@
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B26" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C26" t="s">
         <v>261</v>
@@ -4580,10 +4574,10 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B27" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -4591,10 +4585,10 @@
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B28" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C28" t="s">
         <v>261</v>
@@ -4602,32 +4596,32 @@
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B29" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B30" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C30" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B31" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C31" t="s">
         <v>205</v>
@@ -4635,10 +4629,10 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B32" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C32" t="s">
         <v>205</v>
@@ -4646,10 +4640,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B33" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C33" t="s">
         <v>205</v>
@@ -4657,10 +4651,10 @@
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B34" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C34" t="s">
         <v>205</v>
@@ -4668,10 +4662,10 @@
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B35" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C35" t="s">
         <v>205</v>
@@ -4679,10 +4673,10 @@
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B36" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C36" t="s">
         <v>205</v>
@@ -4690,10 +4684,10 @@
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B37" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C37" t="s">
         <v>205</v>
@@ -4701,10 +4695,10 @@
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B38" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C38" t="s">
         <v>205</v>
@@ -4712,10 +4706,10 @@
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B39" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C39" t="s">
         <v>205</v>
@@ -4723,10 +4717,10 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B40" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C40" t="s">
         <v>205</v>
@@ -4734,10 +4728,10 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B41" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C41" t="s">
         <v>205</v>
@@ -4745,10 +4739,10 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B42" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C42" t="s">
         <v>205</v>
@@ -4756,10 +4750,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B43" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C43" t="s">
         <v>205</v>
@@ -4767,10 +4761,10 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B44" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C44" t="s">
         <v>205</v>
@@ -4778,10 +4772,10 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B45" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C45" t="s">
         <v>205</v>
@@ -4789,10 +4783,10 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B46" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C46" t="s">
         <v>205</v>
@@ -4800,10 +4794,10 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B47" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C47" t="s">
         <v>205</v>
@@ -4811,10 +4805,10 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B48" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C48" t="s">
         <v>205</v>
@@ -4822,10 +4816,10 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B49" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C49" t="s">
         <v>205</v>
@@ -4833,10 +4827,10 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B50" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C50" t="s">
         <v>205</v>
@@ -4844,10 +4838,10 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B51" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C51" t="s">
         <v>205</v>
@@ -4855,10 +4849,10 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B52" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C52" t="s">
         <v>205</v>
@@ -4866,10 +4860,10 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B53" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C53" t="s">
         <v>205</v>
@@ -4877,10 +4871,10 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B54" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C54" t="s">
         <v>205</v>
@@ -4888,10 +4882,10 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C55" t="s">
         <v>205</v>
@@ -4899,10 +4893,10 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B56" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C56" t="s">
         <v>205</v>
@@ -4910,10 +4904,10 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B57" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C57" t="s">
         <v>205</v>
@@ -4921,10 +4915,10 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C58" t="s">
         <v>205</v>
@@ -4932,10 +4926,10 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B59" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C59" t="s">
         <v>205</v>
@@ -4943,10 +4937,10 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B60" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C60" t="s">
         <v>205</v>
@@ -4954,10 +4948,10 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B61" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C61" t="s">
         <v>205</v>
@@ -4965,10 +4959,10 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B62" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C62" t="s">
         <v>205</v>
@@ -4976,10 +4970,10 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B63" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C63" t="s">
         <v>205</v>
@@ -4987,10 +4981,10 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B64" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C64" t="s">
         <v>205</v>
@@ -4998,24 +4992,13 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>944</v>
+        <v>1031</v>
       </c>
       <c r="B65" t="s">
-        <v>943</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -5028,9 +5011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G486" sqref="G486"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O499" sqref="O499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5134,10 +5117,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -5160,10 +5143,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -5186,10 +5169,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
@@ -5212,10 +5195,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -5238,10 +5221,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -5264,10 +5247,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -5284,16 +5267,16 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
@@ -5310,16 +5293,16 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -5342,10 +5325,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -5368,10 +5351,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -5394,10 +5377,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -5420,10 +5403,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -5446,10 +5429,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>31</v>
@@ -5472,10 +5455,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
@@ -5498,10 +5481,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -5524,10 +5507,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>31</v>
@@ -5550,10 +5533,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>31</v>
@@ -5576,10 +5559,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -5602,10 +5585,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -5628,10 +5611,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>31</v>
@@ -5654,10 +5637,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>31</v>
@@ -5680,10 +5663,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>31</v>
@@ -5706,10 +5689,10 @@
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>31</v>
@@ -11195,7 +11178,7 @@
     </row>
     <row r="238" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>203</v>
@@ -11222,7 +11205,7 @@
     </row>
     <row r="239" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>203</v>
@@ -18053,37 +18036,37 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C492" s="6" t="str">
         <f t="shared" si="12"/>
         <v>LRCCW</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G492" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H492" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C493" s="1" t="str">
         <f t="shared" si="12"/>
@@ -18093,43 +18076,43 @@
         <v>902</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F493" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H493" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C494" s="1" t="str">
         <f t="shared" si="12"/>
         <v>LRTWCC</v>
       </c>
       <c r="D494" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="E494" s="1" t="s">
-        <v>1068</v>
-      </c>
       <c r="F494" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H494" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -18144,19 +18127,19 @@
         <v>EBART</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
@@ -18215,28 +18198,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -18267,7 +18250,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B3" s="1">
         <v>1120</v>
@@ -18276,7 +18259,7 @@
         <v>952</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -18293,7 +18276,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B4" s="1">
         <v>555</v>
@@ -18302,7 +18285,7 @@
         <v>471.75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -18319,7 +18302,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="1">
         <v>560</v>
@@ -18328,7 +18311,7 @@
         <v>476</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -18371,7 +18354,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B7" s="1">
         <v>784</v>
@@ -18380,7 +18363,7 @@
         <v>666</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18423,7 +18406,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="1">
         <v>900</v>
@@ -18432,7 +18415,7 @@
         <v>770</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -18449,7 +18432,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B10" s="1">
         <v>943</v>
@@ -18458,7 +18441,7 @@
         <v>802</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -18475,7 +18458,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="1">
         <v>952</v>
@@ -18484,7 +18467,7 @@
         <v>809</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -18527,7 +18510,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B13" s="20">
         <v>1008</v>
@@ -18536,7 +18519,7 @@
         <v>857</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -18579,7 +18562,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B15" s="20">
         <v>70</v>
@@ -18588,7 +18571,7 @@
         <v>59.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -18657,7 +18640,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B18" s="1">
         <v>1444</v>
@@ -18666,7 +18649,7 @@
         <v>1228</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -18683,7 +18666,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B19" s="1">
         <v>1502</v>
@@ -18692,7 +18675,7 @@
         <v>1276.7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -18709,7 +18692,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B20" s="1">
         <v>1841</v>
@@ -18718,7 +18701,7 @@
         <v>1564.85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -18735,7 +18718,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B21" s="1">
         <v>400</v>
@@ -18744,7 +18727,7 @@
         <v>340</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -18761,7 +18744,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B22" s="17">
         <v>450</v>
@@ -18770,7 +18753,7 @@
         <v>382.5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -18787,7 +18770,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B23" s="1">
         <v>250</v>
@@ -18796,7 +18779,7 @@
         <v>212.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -18813,7 +18796,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B24" s="1">
         <v>275</v>
@@ -18822,7 +18805,7 @@
         <v>233.75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -18891,7 +18874,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B27" s="1">
         <v>298</v>
@@ -18900,7 +18883,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -18917,7 +18900,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B28" s="1">
         <v>357</v>
@@ -18926,7 +18909,7 @@
         <v>303</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -18943,7 +18926,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B29" s="1">
         <v>476</v>
@@ -18952,7 +18935,7 @@
         <v>404</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -19021,7 +19004,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B32" s="1">
         <v>94</v>
@@ -19030,7 +19013,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -19073,7 +19056,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B34" s="1">
         <v>80</v>
@@ -19082,7 +19065,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -19099,7 +19082,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B35" s="1">
         <v>80</v>
@@ -19108,7 +19091,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -19177,7 +19160,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B38" s="1">
         <v>45</v>
@@ -19186,7 +19169,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -19255,7 +19238,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B41" s="1">
         <v>63</v>
@@ -19264,7 +19247,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -19411,7 +19394,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B47" s="1">
         <v>94</v>
@@ -19420,7 +19403,7 @@
         <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -19489,7 +19472,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B50" s="1">
         <v>63</v>
@@ -19498,7 +19481,7 @@
         <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -19567,7 +19550,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B53" s="1">
         <v>28</v>
@@ -19576,7 +19559,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -19593,7 +19576,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B54" s="1">
         <v>200</v>
@@ -19619,7 +19602,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B55" s="1">
         <v>400</v>
@@ -19645,7 +19628,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B56" s="1">
         <v>450</v>
@@ -19654,7 +19637,7 @@
         <v>382.5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -19671,7 +19654,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B57" s="1">
         <v>171</v>
@@ -19681,7 +19664,7 @@
         <v>145.35</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -19698,7 +19681,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B58" s="1">
         <v>342</v>
@@ -19708,7 +19691,7 @@
         <v>290.7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -19725,7 +19708,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B59" s="1">
         <v>513</v>
@@ -19735,7 +19718,7 @@
         <v>436.05</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -19752,7 +19735,7 @@
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B60" s="18">
         <v>89</v>
@@ -19761,7 +19744,7 @@
         <v>75.649999999999991</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -19778,7 +19761,7 @@
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B61" s="20">
         <v>318</v>
@@ -19787,7 +19770,7 @@
         <v>270.3</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E61" s="20">
         <v>0</v>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bespin\Documents\GitHub\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1118">
   <si>
     <t>Name</t>
   </si>
@@ -3369,6 +3369,12 @@
   </si>
   <si>
     <t>120_YELLOWE</t>
+  </si>
+  <si>
+    <t>DBRail 4 car</t>
+  </si>
+  <si>
+    <t>134_DBRail</t>
   </si>
 </sst>
 </file>
@@ -4281,8 +4287,8 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4499,7 +4505,7 @@
         <v>912</v>
       </c>
       <c r="C19" t="s">
-        <v>912</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5016,11 +5022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17615,7 +17621,7 @@
         <v>203</v>
       </c>
       <c r="C476" s="4" t="str">
-        <f t="shared" ref="C476:C497" si="12">RIGHT($A476,LEN($A476)-FIND("_",$A476))</f>
+        <f t="shared" ref="C476:C498" si="12">RIGHT($A476,LEN($A476)-FIND("_",$A476))</f>
         <v>L</v>
       </c>
       <c r="D476" s="12" t="s">
@@ -18203,27 +18209,53 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D498" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E498" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B499" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="C499" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D498" s="9" t="s">
+      <c r="D499" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E498" s="1" t="s">
+      <c r="E499" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F498" s="1" t="s">
+      <c r="F499" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G498" s="1" t="s">
+      <c r="G499" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H498" s="1" t="s">
+      <c r="H499" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18235,11 +18267,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18775,41 +18807,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B21" s="1">
-        <v>400</v>
-      </c>
-      <c r="C21" s="17">
-        <v>340</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E21" s="1">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B21" s="20">
+        <v>523</v>
+      </c>
+      <c r="C21" s="20">
+        <v>444</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E21" s="20">
         <v>0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="20">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="20">
         <v>0</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B22" s="17">
-        <v>450</v>
+        <v>929</v>
+      </c>
+      <c r="B22" s="1">
+        <v>400</v>
       </c>
       <c r="C22" s="17">
-        <v>382.5</v>
+        <v>340</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>929</v>
@@ -18829,13 +18861,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B23" s="1">
-        <v>250</v>
+        <v>1068</v>
+      </c>
+      <c r="B23" s="17">
+        <v>450</v>
       </c>
       <c r="C23" s="17">
-        <v>212.5</v>
+        <v>382.5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>929</v>
@@ -18855,13 +18887,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1069</v>
+        <v>1098</v>
       </c>
       <c r="B24" s="1">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C24" s="17">
-        <v>233.75</v>
+        <v>212.5</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>929</v>
@@ -18881,16 +18913,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>328</v>
+        <v>1069</v>
       </c>
       <c r="B25" s="1">
-        <v>119</v>
-      </c>
-      <c r="C25" s="1">
-        <v>101</v>
+        <v>275</v>
+      </c>
+      <c r="C25" s="17">
+        <v>233.75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>328</v>
+        <v>929</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -18899,24 +18931,24 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B26" s="1">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -18925,24 +18957,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H26" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1042</v>
+        <v>333</v>
       </c>
       <c r="B27" s="1">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="C27" s="1">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1042</v>
+        <v>333</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -18951,24 +18983,24 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B28" s="1">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="C28" s="1">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -18977,24 +19009,24 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H28" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B29" s="1">
-        <v>476</v>
+        <v>357</v>
       </c>
       <c r="C29" s="1">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -19003,41 +19035,41 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H29" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>265</v>
+        <v>1040</v>
       </c>
       <c r="B30" s="1">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="C30" s="1">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>265</v>
+        <v>1040</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H30" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B31" s="1">
         <v>94</v>
@@ -19046,7 +19078,7 @@
         <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -19055,15 +19087,15 @@
         <v>0.122</v>
       </c>
       <c r="G31" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H31" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1039</v>
+        <v>217</v>
       </c>
       <c r="B32" s="1">
         <v>94</v>
@@ -19072,7 +19104,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1039</v>
+        <v>217</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -19081,41 +19113,41 @@
         <v>0.122</v>
       </c>
       <c r="G32" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H32" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>224</v>
+        <v>1039</v>
       </c>
       <c r="B33" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>224</v>
+        <v>1039</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G33" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1038</v>
+        <v>224</v>
       </c>
       <c r="B34" s="1">
         <v>80</v>
@@ -19124,7 +19156,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1038</v>
+        <v>224</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -19133,15 +19165,15 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G34" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H34" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B35" s="1">
         <v>80</v>
@@ -19150,7 +19182,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -19159,41 +19191,41 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>261</v>
+        <v>1037</v>
       </c>
       <c r="B36" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>261</v>
+        <v>1037</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G36" s="1">
-        <v>6.2E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H36" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B37" s="1">
         <v>45</v>
@@ -19202,7 +19234,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -19211,15 +19243,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H37" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1036</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1">
         <v>45</v>
@@ -19228,7 +19260,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1036</v>
+        <v>230</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -19237,24 +19269,24 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H38" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>1036</v>
       </c>
       <c r="B39" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>205</v>
+        <v>1036</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -19263,15 +19295,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>6.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H39" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B40" s="1">
         <v>63</v>
@@ -19280,7 +19312,7 @@
         <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -19289,15 +19321,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H40" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>1035</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1">
         <v>63</v>
@@ -19306,7 +19338,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1035</v>
+        <v>207</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -19315,82 +19347,82 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H41" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>1035</v>
       </c>
       <c r="B42" s="1">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>1035</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H42" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G43" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G44" s="1">
         <v>6.2E-2</v>
@@ -19401,33 +19433,33 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="B45" s="1">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H45" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="B46" s="1">
         <v>94</v>
@@ -19436,7 +19468,7 @@
         <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -19445,15 +19477,15 @@
         <v>0.122</v>
       </c>
       <c r="G46" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H46" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1034</v>
+        <v>215</v>
       </c>
       <c r="B47" s="1">
         <v>94</v>
@@ -19462,7 +19494,7 @@
         <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1034</v>
+        <v>215</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -19471,41 +19503,41 @@
         <v>0.122</v>
       </c>
       <c r="G47" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H47" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>234</v>
+        <v>1034</v>
       </c>
       <c r="B48" s="1">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>234</v>
+        <v>1034</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G48" s="1">
-        <v>6.2E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="1">
         <v>63</v>
@@ -19514,7 +19546,7 @@
         <v>53</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -19523,15 +19555,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H49" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1033</v>
+        <v>235</v>
       </c>
       <c r="B50" s="1">
         <v>63</v>
@@ -19540,7 +19572,7 @@
         <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1033</v>
+        <v>235</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -19549,50 +19581,50 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H50" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>906</v>
+        <v>1033</v>
       </c>
       <c r="B51" s="1">
-        <v>800</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1">
-        <v>680</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>906</v>
+        <v>1033</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>259</v>
+        <v>906</v>
       </c>
       <c r="B52" s="1">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="C52" s="1">
-        <v>21</v>
+        <v>680</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>259</v>
+        <v>906</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -19601,24 +19633,24 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1032</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1032</v>
+        <v>259</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -19635,16 +19667,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1099</v>
+        <v>1032</v>
       </c>
       <c r="B54" s="1">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C54" s="1">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>909</v>
+        <v>1032</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -19653,21 +19685,21 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1073</v>
+        <v>1099</v>
       </c>
       <c r="B55" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>909</v>
@@ -19687,16 +19719,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1059</v>
+        <v>1073</v>
       </c>
       <c r="B56" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C56" s="1">
-        <v>382.5</v>
+        <v>340</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1097</v>
+        <v>909</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -19713,17 +19745,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1102</v>
+        <v>1059</v>
       </c>
       <c r="B57" s="1">
-        <v>171</v>
-      </c>
-      <c r="C57" s="17">
-        <f t="shared" ref="C57:C59" si="0">B57*0.85</f>
-        <v>145.35</v>
+        <v>450</v>
+      </c>
+      <c r="C57" s="1">
+        <v>382.5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -19732,78 +19763,79 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B58" s="1">
+        <v>171</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" ref="C58:C60" si="0">B58*0.85</f>
+        <v>145.35</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="1">
         <v>342</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C59" s="17">
         <f t="shared" si="0"/>
         <v>290.7</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G59" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H59" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="1">
         <v>513</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C60" s="17">
         <f t="shared" si="0"/>
         <v>436.05</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H59" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B60" s="18">
-        <v>89</v>
-      </c>
-      <c r="C60" s="19">
-        <v>75.649999999999991</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>1107</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -19812,35 +19844,61 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B61" s="18">
+        <v>89</v>
+      </c>
+      <c r="C61" s="19">
+        <v>75.649999999999991</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
         <v>1072</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B62" s="20">
         <v>318</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C62" s="21">
         <v>270.3</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D62" s="20" t="s">
         <v>1108</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="20">
         <v>0</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="20">
         <v>0</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G62" s="20">
         <v>0</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H62" s="20">
         <v>0</v>
       </c>
     </row>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bespin\Documents\GitHub\TM1_2015_Base_Network\trn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Application\Model One\Networks\TM1_2015_Base_Network\trn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="1116">
   <si>
     <t>Name</t>
   </si>
@@ -3369,12 +3369,6 @@
   </si>
   <si>
     <t>120_YELLOWE</t>
-  </si>
-  <si>
-    <t>DBRail 4 car</t>
-  </si>
-  <si>
-    <t>134_DBRail</t>
   </si>
 </sst>
 </file>
@@ -4287,8 +4281,8 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4505,7 +4499,7 @@
         <v>912</v>
       </c>
       <c r="C19" t="s">
-        <v>1116</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5022,11 +5016,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A498" sqref="A498"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17621,7 +17615,7 @@
         <v>203</v>
       </c>
       <c r="C476" s="4" t="str">
-        <f t="shared" ref="C476:C498" si="12">RIGHT($A476,LEN($A476)-FIND("_",$A476))</f>
+        <f t="shared" ref="C476:C497" si="12">RIGHT($A476,LEN($A476)-FIND("_",$A476))</f>
         <v>L</v>
       </c>
       <c r="D476" s="12" t="s">
@@ -18209,53 +18203,27 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="D498" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="E498" s="4" t="s">
-        <v>912</v>
+        <v>0</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D498" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1116</v>
+        <v>5</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>1116</v>
+        <v>6</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A499" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D499" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E499" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G499" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H499" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18267,11 +18235,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:H21"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18807,41 +18775,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B21" s="20">
-        <v>523</v>
-      </c>
-      <c r="C21" s="20">
-        <v>444</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E21" s="20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B21" s="1">
+        <v>400</v>
+      </c>
+      <c r="C21" s="17">
+        <v>340</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B22" s="1">
-        <v>400</v>
+        <v>1068</v>
+      </c>
+      <c r="B22" s="17">
+        <v>450</v>
       </c>
       <c r="C22" s="17">
-        <v>340</v>
+        <v>382.5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>929</v>
@@ -18861,13 +18829,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B23" s="17">
-        <v>450</v>
+        <v>1098</v>
+      </c>
+      <c r="B23" s="1">
+        <v>250</v>
       </c>
       <c r="C23" s="17">
-        <v>382.5</v>
+        <v>212.5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>929</v>
@@ -18887,13 +18855,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1098</v>
+        <v>1069</v>
       </c>
       <c r="B24" s="1">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C24" s="17">
-        <v>212.5</v>
+        <v>233.75</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>929</v>
@@ -18913,16 +18881,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1069</v>
+        <v>328</v>
       </c>
       <c r="B25" s="1">
-        <v>275</v>
-      </c>
-      <c r="C25" s="17">
-        <v>233.75</v>
+        <v>119</v>
+      </c>
+      <c r="C25" s="1">
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>929</v>
+        <v>328</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -18931,24 +18899,24 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B26" s="1">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -18957,24 +18925,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H26" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="B27" s="1">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="C27" s="1">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -18983,24 +18951,24 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B28" s="1">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="C28" s="1">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -19009,24 +18977,24 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H28" s="1">
         <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B29" s="1">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="C29" s="1">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -19035,41 +19003,41 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H29" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>1040</v>
+        <v>265</v>
       </c>
       <c r="B30" s="1">
-        <v>476</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1040</v>
+        <v>265</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G30" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="H30" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1">
         <v>94</v>
@@ -19078,7 +19046,7 @@
         <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -19087,15 +19055,15 @@
         <v>0.122</v>
       </c>
       <c r="G31" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H31" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>217</v>
+        <v>1039</v>
       </c>
       <c r="B32" s="1">
         <v>94</v>
@@ -19104,7 +19072,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>217</v>
+        <v>1039</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -19113,41 +19081,41 @@
         <v>0.122</v>
       </c>
       <c r="G32" s="1">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1039</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1039</v>
+        <v>224</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>0.122</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G33" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>1038</v>
       </c>
       <c r="B34" s="1">
         <v>80</v>
@@ -19156,7 +19124,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>224</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -19165,15 +19133,15 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G34" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H34" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B35" s="1">
         <v>80</v>
@@ -19182,7 +19150,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -19191,41 +19159,41 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1037</v>
+        <v>261</v>
       </c>
       <c r="B36" s="1">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1037</v>
+        <v>261</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0.10199999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H36" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B37" s="1">
         <v>45</v>
@@ -19234,7 +19202,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -19243,15 +19211,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H37" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>230</v>
+        <v>1036</v>
       </c>
       <c r="B38" s="1">
         <v>45</v>
@@ -19260,7 +19228,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>230</v>
+        <v>1036</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -19269,24 +19237,24 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H38" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1036</v>
+        <v>205</v>
       </c>
       <c r="B39" s="1">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1036</v>
+        <v>205</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -19295,15 +19263,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.04</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H39" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1">
         <v>63</v>
@@ -19312,7 +19280,7 @@
         <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -19321,15 +19289,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H40" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>207</v>
+        <v>1035</v>
       </c>
       <c r="B41" s="1">
         <v>63</v>
@@ -19338,7 +19306,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>207</v>
+        <v>1035</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -19347,82 +19315,82 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H41" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1035</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1">
         <v>63</v>
       </c>
-      <c r="C42" s="1">
-        <v>53</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>1035</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="G42" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H42" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>0.05</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H43" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>6.2E-2</v>
@@ -19433,33 +19401,33 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="B45" s="1">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="G45" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B46" s="1">
         <v>94</v>
@@ -19468,7 +19436,7 @@
         <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -19477,15 +19445,15 @@
         <v>0.122</v>
       </c>
       <c r="G46" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H46" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>1034</v>
       </c>
       <c r="B47" s="1">
         <v>94</v>
@@ -19494,7 +19462,7 @@
         <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>1034</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -19503,41 +19471,41 @@
         <v>0.122</v>
       </c>
       <c r="G47" s="1">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H47" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1034</v>
+        <v>234</v>
       </c>
       <c r="B48" s="1">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1034</v>
+        <v>234</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B49" s="1">
         <v>63</v>
@@ -19546,7 +19514,7 @@
         <v>53</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -19555,15 +19523,15 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>6.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H49" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>235</v>
+        <v>1033</v>
       </c>
       <c r="B50" s="1">
         <v>63</v>
@@ -19572,7 +19540,7 @@
         <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>1033</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -19581,50 +19549,50 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H50" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1033</v>
+        <v>906</v>
       </c>
       <c r="B51" s="1">
-        <v>63</v>
+        <v>800</v>
       </c>
       <c r="C51" s="1">
-        <v>53</v>
+        <v>680</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1033</v>
+        <v>906</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>906</v>
+        <v>259</v>
       </c>
       <c r="B52" s="1">
-        <v>800</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>680</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>906</v>
+        <v>259</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -19633,24 +19601,24 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>1032</v>
       </c>
       <c r="B53" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C53" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>259</v>
+        <v>1032</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -19667,16 +19635,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1032</v>
+        <v>1099</v>
       </c>
       <c r="B54" s="1">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="C54" s="1">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1032</v>
+        <v>909</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -19685,21 +19653,21 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
       <c r="B55" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C55" s="1">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>909</v>
@@ -19719,16 +19687,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="B56" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C56" s="1">
-        <v>340</v>
+        <v>382.5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>909</v>
+        <v>1097</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -19745,16 +19713,17 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1059</v>
+        <v>1102</v>
       </c>
       <c r="B57" s="1">
-        <v>450</v>
-      </c>
-      <c r="C57" s="1">
-        <v>382.5</v>
+        <v>171</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" ref="C57:C59" si="0">B57*0.85</f>
+        <v>145.35</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -19763,25 +19732,25 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="B58" s="1">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="C58" s="17">
-        <f t="shared" ref="C58:C60" si="0">B58*0.85</f>
-        <v>145.35</v>
+        <f t="shared" si="0"/>
+        <v>290.7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -19790,25 +19759,25 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H58" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1070</v>
+        <v>1103</v>
       </c>
       <c r="B59" s="1">
-        <v>342</v>
+        <v>513</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" si="0"/>
-        <v>290.7</v>
+        <v>436.05</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -19817,25 +19786,24 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H59" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B60" s="1">
-        <v>513</v>
-      </c>
-      <c r="C60" s="17">
-        <f t="shared" si="0"/>
-        <v>436.05</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1106</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B60" s="18">
+        <v>89</v>
+      </c>
+      <c r="C60" s="19">
+        <v>75.649999999999991</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>1107</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -19844,61 +19812,35 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B61" s="18">
-        <v>89</v>
-      </c>
-      <c r="C61" s="19">
-        <v>75.649999999999991</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="A61" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B61" s="20">
+        <v>318</v>
+      </c>
+      <c r="C61" s="21">
+        <v>270.3</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E61" s="20">
         <v>0</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="20">
         <v>0</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="20">
         <v>0</v>
       </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B62" s="20">
-        <v>318</v>
-      </c>
-      <c r="C62" s="21">
-        <v>270.3</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E62" s="20">
-        <v>0</v>
-      </c>
-      <c r="F62" s="20">
-        <v>0</v>
-      </c>
-      <c r="G62" s="20">
-        <v>0</v>
-      </c>
-      <c r="H62" s="20">
+      <c r="H61" s="20">
         <v>0</v>
       </c>
     </row>

--- a/trn/TransitCapacity.xlsx
+++ b/trn/TransitCapacity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="transitPrefixToVehicle" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="1120">
   <si>
     <t>Name</t>
   </si>
@@ -3369,6 +3369,18 @@
   </si>
   <si>
     <t>120_YELLOWE</t>
+  </si>
+  <si>
+    <t>SR85 LRV</t>
+  </si>
+  <si>
+    <t>SR85 Light Rail Vehicle</t>
+  </si>
+  <si>
+    <t>115_</t>
+  </si>
+  <si>
+    <t>SR85 Rail</t>
   </si>
 </sst>
 </file>
@@ -4278,11 +4290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4404,77 +4416,77 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C11" t="s">
-        <v>261</v>
+      <c r="A11" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>924</v>
+        <v>1027</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>1026</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B13" t="s">
-        <v>922</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1071</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1025</v>
+        <v>923</v>
       </c>
       <c r="B14" t="s">
-        <v>1024</v>
+        <v>922</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>921</v>
+        <v>1025</v>
       </c>
       <c r="B15" t="s">
-        <v>920</v>
+        <v>1024</v>
       </c>
       <c r="C15" t="s">
-        <v>920</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B16" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C16" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B17" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C17" t="s">
         <v>906</v>
@@ -4482,10 +4494,10 @@
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B18" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C18" t="s">
         <v>906</v>
@@ -4493,54 +4505,54 @@
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B19" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C19" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B20" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C20" t="s">
-        <v>1072</v>
+        <v>912</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B21" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1023</v>
+        <v>908</v>
       </c>
       <c r="B22" t="s">
-        <v>1022</v>
+        <v>907</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B23" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C23" t="s">
         <v>261</v>
@@ -4548,10 +4560,10 @@
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C24" t="s">
         <v>261</v>
@@ -4559,10 +4571,10 @@
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B25" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -4570,10 +4582,10 @@
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B26" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C26" t="s">
         <v>261</v>
@@ -4581,10 +4593,10 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B27" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -4592,10 +4604,10 @@
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B28" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C28" t="s">
         <v>261</v>
@@ -4603,32 +4615,32 @@
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B29" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B30" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B31" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C31" t="s">
         <v>205</v>
@@ -4636,10 +4648,10 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B32" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C32" t="s">
         <v>205</v>
@@ -4647,10 +4659,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B33" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C33" t="s">
         <v>205</v>
@@ -4658,10 +4670,10 @@
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B34" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C34" t="s">
         <v>205</v>
@@ -4669,10 +4681,10 @@
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B35" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C35" t="s">
         <v>205</v>
@@ -4680,10 +4692,10 @@
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B36" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C36" t="s">
         <v>205</v>
@@ -4691,10 +4703,10 @@
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B37" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C37" t="s">
         <v>205</v>
@@ -4702,10 +4714,10 @@
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B38" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C38" t="s">
         <v>205</v>
@@ -4713,10 +4725,10 @@
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B39" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C39" t="s">
         <v>205</v>
@@ -4724,10 +4736,10 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B40" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C40" t="s">
         <v>205</v>
@@ -4735,10 +4747,10 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B41" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="C41" t="s">
         <v>205</v>
@@ -4746,10 +4758,10 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B42" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C42" t="s">
         <v>205</v>
@@ -4757,10 +4769,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B43" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C43" t="s">
         <v>205</v>
@@ -4768,10 +4780,10 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B44" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C44" t="s">
         <v>205</v>
@@ -4779,10 +4791,10 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B45" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C45" t="s">
         <v>205</v>
@@ -4790,10 +4802,10 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B46" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C46" t="s">
         <v>205</v>
@@ -4801,10 +4813,10 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B47" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C47" t="s">
         <v>205</v>
@@ -4812,10 +4824,10 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B48" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C48" t="s">
         <v>205</v>
@@ -4823,10 +4835,10 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B49" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C49" t="s">
         <v>205</v>
@@ -4834,10 +4846,10 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B50" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C50" t="s">
         <v>205</v>
@@ -4845,10 +4857,10 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B51" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C51" t="s">
         <v>205</v>
@@ -4856,10 +4868,10 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B52" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C52" t="s">
         <v>205</v>
@@ -4867,10 +4879,10 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B53" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C53" t="s">
         <v>205</v>
@@ -4878,10 +4890,10 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B54" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C54" t="s">
         <v>205</v>
@@ -4889,7 +4901,7 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B55" t="s">
         <v>958</v>
@@ -4900,10 +4912,10 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B56" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C56" t="s">
         <v>205</v>
@@ -4911,10 +4923,10 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B57" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C57" t="s">
         <v>205</v>
@@ -4922,7 +4934,7 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B58" t="s">
         <v>953</v>
@@ -4933,10 +4945,10 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B59" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C59" t="s">
         <v>205</v>
@@ -4944,10 +4956,10 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B60" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C60" t="s">
         <v>205</v>
@@ -4955,10 +4967,10 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B61" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C61" t="s">
         <v>205</v>
@@ -4966,10 +4978,10 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B62" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C62" t="s">
         <v>205</v>
@@ -4977,10 +4989,10 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B63" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C63" t="s">
         <v>205</v>
@@ -4988,10 +5000,10 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B64" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C64" t="s">
         <v>205</v>
@@ -4999,12 +5011,23 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>943</v>
+      </c>
+      <c r="B65" t="s">
+        <v>942</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>1031</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -5018,9 +5041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18235,11 +18258,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19792,18 +19815,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B60" s="18">
-        <v>89</v>
-      </c>
-      <c r="C60" s="19">
-        <v>75.649999999999991</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>1107</v>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B60" s="1">
+        <v>90</v>
+      </c>
+      <c r="C60" s="17">
+        <v>77</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1117</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -19812,35 +19835,61 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B61" s="18">
+        <v>89</v>
+      </c>
+      <c r="C61" s="19">
+        <v>75.649999999999991</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
         <v>1072</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B62" s="20">
         <v>318</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C62" s="21">
         <v>270.3</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D62" s="20" t="s">
         <v>1108</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="20">
         <v>0</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="20">
         <v>0</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G62" s="20">
         <v>0</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H62" s="20">
         <v>0</v>
       </c>
     </row>
